--- a/raw_data/20200818_saline/20200818_Sensor3_Test_27.xlsx
+++ b/raw_data/20200818_saline/20200818_Sensor3_Test_27.xlsx
@@ -1,840 +1,1256 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="true"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <workbookPr date1904="1" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox (GaTech)\Lab files\code\Impedance_fit\raw_data\20200818_saline\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD6DFAD4-5072-4AB5-97B2-EEC7532809E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="2240" yWindow="2240" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <si>
-    <t>Inf</t>
-  </si>
-  <si>
-    <t>-Inf</t>
-  </si>
-  <si>
-    <t>#NV</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+  <si>
+    <t>Untitled</t>
+  </si>
+  <si>
+    <t>Untitled 1</t>
+  </si>
+  <si>
+    <t>Untitled 2</t>
+  </si>
+  <si>
+    <t>Untitled 3</t>
+  </si>
+  <si>
+    <t>Untitled 4</t>
+  </si>
+  <si>
+    <t>Untitled 5</t>
+  </si>
+  <si>
+    <t>Untitled 6</t>
+  </si>
+  <si>
+    <t>Untitled 7</t>
+  </si>
+  <si>
+    <t>Untitled 8</t>
+  </si>
+  <si>
+    <t>Untitled 9</t>
+  </si>
+  <si>
+    <t>Untitled 10</t>
+  </si>
+  <si>
+    <t>Untitled 11</t>
+  </si>
+  <si>
+    <t>Untitled 12</t>
+  </si>
+  <si>
+    <t>Untitled 13</t>
+  </si>
+  <si>
+    <t>Untitled 14</t>
+  </si>
+  <si>
+    <t>Untitled 15</t>
+  </si>
+  <si>
+    <t>Untitled 16</t>
+  </si>
+  <si>
+    <t>Untitled 17</t>
+  </si>
+  <si>
+    <t>Untitled 18</t>
+  </si>
+  <si>
+    <t>Untitled 19</t>
+  </si>
+  <si>
+    <t>Untitled 20</t>
+  </si>
+  <si>
+    <t>Untitled 21</t>
+  </si>
+  <si>
+    <t>Untitled 22</t>
+  </si>
+  <si>
+    <t>Untitled 23</t>
+  </si>
+  <si>
+    <t>Untitled 24</t>
+  </si>
+  <si>
+    <t>Untitled 25</t>
+  </si>
+  <si>
+    <t>Untitled 26</t>
+  </si>
+  <si>
+    <t>Untitled 27</t>
+  </si>
+  <si>
+    <t>Untitled 28</t>
+  </si>
+  <si>
+    <t>Untitled 29</t>
+  </si>
+  <si>
+    <t>Untitled 30</t>
+  </si>
+  <si>
+    <t>Untitled 31</t>
+  </si>
+  <si>
+    <t>Untitled 32</t>
+  </si>
+  <si>
+    <t>Untitled 33</t>
+  </si>
+  <si>
+    <t>Untitled 34</t>
+  </si>
+  <si>
+    <t>Untitled 35</t>
+  </si>
+  <si>
+    <t>Untitled 36</t>
+  </si>
+  <si>
+    <t>Untitled 37</t>
+  </si>
+  <si>
+    <t>Untitled 38</t>
+  </si>
+  <si>
+    <t>Untitled 39</t>
+  </si>
+  <si>
+    <t>Untitled 40</t>
+  </si>
+  <si>
+    <t>Untitled 41</t>
+  </si>
+  <si>
+    <t>Untitled 42</t>
+  </si>
+  <si>
+    <t>Untitled 43</t>
+  </si>
+  <si>
+    <t>Untitled 44</t>
+  </si>
+  <si>
+    <t>Untitled 45</t>
+  </si>
+  <si>
+    <t>Untitled 46</t>
+  </si>
+  <si>
+    <t>Untitled 47</t>
+  </si>
+  <si>
+    <t>Untitled 48</t>
+  </si>
+  <si>
+    <t>Untitled 49</t>
+  </si>
+  <si>
+    <t>Untitled 50</t>
+  </si>
+  <si>
+    <t>Untitled 51</t>
+  </si>
+  <si>
+    <t>Untitled 52</t>
+  </si>
+  <si>
+    <t>Untitled 53</t>
+  </si>
+  <si>
+    <t>Untitled 54</t>
+  </si>
+  <si>
+    <t>Untitled 55</t>
+  </si>
+  <si>
+    <t>Untitled 56</t>
+  </si>
+  <si>
+    <t>Untitled 57</t>
+  </si>
+  <si>
+    <t>Untitled 58</t>
+  </si>
+  <si>
+    <t>Untitled 59</t>
+  </si>
+  <si>
+    <t>Untitled 60</t>
+  </si>
+  <si>
+    <t>Untitled 61</t>
+  </si>
+  <si>
+    <t>Untitled 62</t>
+  </si>
+  <si>
+    <t>Untitled 63</t>
+  </si>
+  <si>
+    <t>Untitled 64</t>
+  </si>
+  <si>
+    <t>Untitled 65</t>
+  </si>
+  <si>
+    <t>Untitled 66</t>
+  </si>
+  <si>
+    <t>Untitled 67</t>
+  </si>
+  <si>
+    <t>Untitled 68</t>
+  </si>
+  <si>
+    <t>Untitled 69</t>
+  </si>
+  <si>
+    <t>Untitled 70</t>
+  </si>
+  <si>
+    <t>Untitled 71</t>
+  </si>
+  <si>
+    <t>Untitled 72</t>
+  </si>
+  <si>
+    <t>Untitled 73</t>
+  </si>
+  <si>
+    <t>Untitled 74</t>
+  </si>
+  <si>
+    <t>Untitled 75</t>
+  </si>
+  <si>
+    <t>Untitled 76</t>
+  </si>
+  <si>
+    <t>Untitled 77</t>
+  </si>
+  <si>
+    <t>Untitled 78</t>
+  </si>
+  <si>
+    <t>Untitled 79</t>
+  </si>
+  <si>
+    <t>Untitled 80</t>
+  </si>
+  <si>
+    <t>Untitled 81</t>
+  </si>
+  <si>
+    <t>Untitled 82</t>
+  </si>
+  <si>
+    <t>Untitled 83</t>
+  </si>
+  <si>
+    <t>Untitled 84</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"> </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1">
-    <font/>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="1">
-    <fill/>
+  <fills count="2">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0"/>
-    <xf numFmtId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:CG26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Untitled</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Untitled 1</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Untitled 2</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Untitled 3</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Untitled 4</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Untitled 5</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Untitled 6</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Untitled 7</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Untitled 8</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Untitled 9</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Untitled 10</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Untitled 11</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Untitled 12</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>Untitled 13</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>Untitled 14</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>Untitled 15</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>Untitled 16</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>Untitled 17</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>Untitled 18</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>Untitled 19</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>Untitled 20</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>Untitled 21</t>
-        </is>
-      </c>
-      <c r="W1" t="inlineStr">
-        <is>
-          <t>Untitled 22</t>
-        </is>
-      </c>
-      <c r="X1" t="inlineStr">
-        <is>
-          <t>Untitled 23</t>
-        </is>
-      </c>
-      <c r="Y1" t="inlineStr">
-        <is>
-          <t>Untitled 24</t>
-        </is>
-      </c>
-      <c r="Z1" t="inlineStr">
-        <is>
-          <t>Untitled 25</t>
-        </is>
-      </c>
-      <c r="AA1" t="inlineStr">
-        <is>
-          <t>Untitled 26</t>
-        </is>
-      </c>
-      <c r="AB1" t="inlineStr">
-        <is>
-          <t>Untitled 27</t>
-        </is>
-      </c>
-      <c r="AC1" t="inlineStr">
-        <is>
-          <t>Untitled 28</t>
-        </is>
-      </c>
-      <c r="AD1" t="inlineStr">
-        <is>
-          <t>Untitled 29</t>
-        </is>
-      </c>
-      <c r="AE1" t="inlineStr">
-        <is>
-          <t>Untitled 30</t>
-        </is>
-      </c>
-      <c r="AF1" t="inlineStr">
-        <is>
-          <t>Untitled 31</t>
-        </is>
-      </c>
-      <c r="AG1" t="inlineStr">
-        <is>
-          <t>Untitled 32</t>
-        </is>
-      </c>
-      <c r="AH1" t="inlineStr">
-        <is>
-          <t>Untitled 33</t>
-        </is>
-      </c>
-      <c r="AI1" t="inlineStr">
-        <is>
-          <t>Untitled 34</t>
-        </is>
-      </c>
-      <c r="AJ1" t="inlineStr">
-        <is>
-          <t>Untitled 35</t>
-        </is>
-      </c>
-      <c r="AK1" t="inlineStr">
-        <is>
-          <t>Untitled 36</t>
-        </is>
-      </c>
-      <c r="AL1" t="inlineStr">
-        <is>
-          <t>Untitled 37</t>
-        </is>
-      </c>
-      <c r="AM1" t="inlineStr">
-        <is>
-          <t>Untitled 38</t>
-        </is>
-      </c>
-      <c r="AN1" t="inlineStr">
-        <is>
-          <t>Untitled 39</t>
-        </is>
-      </c>
-      <c r="AO1" t="inlineStr">
-        <is>
-          <t>Untitled 40</t>
-        </is>
-      </c>
-      <c r="AP1" t="inlineStr">
-        <is>
-          <t>Untitled 41</t>
-        </is>
-      </c>
-      <c r="AQ1" t="inlineStr">
-        <is>
-          <t>Untitled 42</t>
-        </is>
-      </c>
-      <c r="AR1" t="inlineStr">
-        <is>
-          <t>Untitled 43</t>
-        </is>
-      </c>
-      <c r="AS1" t="inlineStr">
-        <is>
-          <t>Untitled 44</t>
-        </is>
-      </c>
-      <c r="AT1" t="inlineStr">
-        <is>
-          <t>Untitled 45</t>
-        </is>
-      </c>
-      <c r="AU1" t="inlineStr">
-        <is>
-          <t>Untitled 46</t>
-        </is>
-      </c>
-      <c r="AV1" t="inlineStr">
-        <is>
-          <t>Untitled 47</t>
-        </is>
-      </c>
-      <c r="AW1" t="inlineStr">
-        <is>
-          <t>Untitled 48</t>
-        </is>
-      </c>
-      <c r="AX1" t="inlineStr">
-        <is>
-          <t>Untitled 49</t>
-        </is>
-      </c>
-      <c r="AY1" t="inlineStr">
-        <is>
-          <t>Untitled 50</t>
-        </is>
-      </c>
-      <c r="AZ1" t="inlineStr">
-        <is>
-          <t>Untitled 51</t>
-        </is>
-      </c>
-      <c r="BA1" t="inlineStr">
-        <is>
-          <t>Untitled 52</t>
-        </is>
-      </c>
-      <c r="BB1" t="inlineStr">
-        <is>
-          <t>Untitled 53</t>
-        </is>
-      </c>
-      <c r="BC1" t="inlineStr">
-        <is>
-          <t>Untitled 54</t>
-        </is>
-      </c>
-      <c r="BD1" t="inlineStr">
-        <is>
-          <t>Untitled 55</t>
-        </is>
-      </c>
-      <c r="BE1" t="inlineStr">
-        <is>
-          <t>Untitled 56</t>
-        </is>
-      </c>
-      <c r="BF1" t="inlineStr">
-        <is>
-          <t>Untitled 57</t>
-        </is>
-      </c>
-      <c r="BG1" t="inlineStr">
-        <is>
-          <t>Untitled 58</t>
-        </is>
-      </c>
-      <c r="BH1" t="inlineStr">
-        <is>
-          <t>Untitled 59</t>
-        </is>
-      </c>
-      <c r="BI1" t="inlineStr">
-        <is>
-          <t>Untitled 60</t>
-        </is>
-      </c>
-      <c r="BJ1" t="inlineStr">
-        <is>
-          <t>Untitled 61</t>
-        </is>
-      </c>
-      <c r="BK1" t="inlineStr">
-        <is>
-          <t>Untitled 62</t>
-        </is>
-      </c>
-      <c r="BL1" t="inlineStr">
-        <is>
-          <t>Untitled 63</t>
-        </is>
-      </c>
-      <c r="BM1" t="inlineStr">
-        <is>
-          <t>Untitled 64</t>
-        </is>
-      </c>
-      <c r="BN1" t="inlineStr">
-        <is>
-          <t>Untitled 65</t>
-        </is>
-      </c>
-      <c r="BO1" t="inlineStr">
-        <is>
-          <t>Untitled 66</t>
-        </is>
-      </c>
-      <c r="BP1" t="inlineStr">
-        <is>
-          <t>Untitled 67</t>
-        </is>
-      </c>
-      <c r="BQ1" t="inlineStr">
-        <is>
-          <t>Untitled 68</t>
-        </is>
-      </c>
-      <c r="BR1" t="inlineStr">
-        <is>
-          <t>Untitled 69</t>
-        </is>
-      </c>
-      <c r="BS1" t="inlineStr">
-        <is>
-          <t>Untitled 70</t>
-        </is>
-      </c>
-      <c r="BT1" t="inlineStr">
-        <is>
-          <t>Untitled 71</t>
-        </is>
-      </c>
-      <c r="BU1" t="inlineStr">
-        <is>
-          <t>Untitled 72</t>
-        </is>
-      </c>
-      <c r="BV1" t="inlineStr">
-        <is>
-          <t>Untitled 73</t>
-        </is>
-      </c>
-      <c r="BW1" t="inlineStr">
-        <is>
-          <t>Untitled 74</t>
-        </is>
-      </c>
-      <c r="BX1" t="inlineStr">
-        <is>
-          <t>Untitled 75</t>
-        </is>
-      </c>
-      <c r="BY1" t="inlineStr">
-        <is>
-          <t>Untitled 76</t>
-        </is>
-      </c>
-      <c r="BZ1" t="inlineStr">
-        <is>
-          <t>Untitled 77</t>
-        </is>
-      </c>
-      <c r="CA1" t="inlineStr">
-        <is>
-          <t>Untitled 78</t>
-        </is>
-      </c>
-      <c r="CB1" t="inlineStr">
-        <is>
-          <t>Untitled 79</t>
-        </is>
-      </c>
-      <c r="CC1" t="inlineStr">
-        <is>
-          <t>Untitled 80</t>
-        </is>
-      </c>
-      <c r="CD1" t="inlineStr">
-        <is>
-          <t>Untitled 81</t>
-        </is>
-      </c>
-      <c r="CE1" t="inlineStr">
-        <is>
-          <t>Untitled 82</t>
-        </is>
-      </c>
-      <c r="CF1" t="inlineStr">
-        <is>
-          <t>Untitled 83</t>
-        </is>
-      </c>
-      <c r="CG1" t="inlineStr">
-        <is>
-          <t>Untitled 84</t>
-        </is>
+    <row r="1" spans="1:85">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CB1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CC1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CD1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CE1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CF1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CG1" t="s">
+        <v>84</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:85">
       <c r="A2" s="1">
-        <v>23956.688225</v>
+        <v>23956.688225000002</v>
       </c>
       <c r="B2" s="1">
         <v>6.654636</v>
       </c>
       <c r="C2" s="1">
-        <v>1144.130000</v>
+        <v>1144.1300000000001</v>
       </c>
       <c r="D2" s="1">
-        <v>-259.376000</v>
+        <v>-259.37599999999998</v>
       </c>
       <c r="E2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>23967.081360</v>
+        <v>23967.08136</v>
       </c>
       <c r="G2" s="1">
-        <v>6.657523</v>
+        <v>6.6575230000000003</v>
       </c>
       <c r="H2" s="1">
-        <v>1165.740000</v>
+        <v>1165.74</v>
       </c>
       <c r="I2" s="1">
-        <v>-218.567000</v>
+        <v>-218.56700000000001</v>
       </c>
       <c r="J2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
-        <v>23977.543969</v>
+        <v>23977.543968999998</v>
       </c>
       <c r="L2" s="1">
-        <v>6.660429</v>
+        <v>6.6604289999999997</v>
       </c>
       <c r="M2" s="1">
-        <v>1192.410000</v>
+        <v>1192.4100000000001</v>
       </c>
       <c r="N2" s="1">
-        <v>-151.063000</v>
+        <v>-151.06299999999999</v>
       </c>
       <c r="O2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P2" s="1">
-        <v>23988.377624</v>
+        <v>23988.377624000001</v>
       </c>
       <c r="Q2" s="1">
-        <v>6.663438</v>
+        <v>6.6634380000000002</v>
       </c>
       <c r="R2" s="1">
-        <v>1200.210000</v>
+        <v>1200.21</v>
       </c>
       <c r="S2" s="1">
-        <v>-128.600000</v>
+        <v>-128.6</v>
       </c>
       <c r="T2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U2" s="1">
-        <v>23998.951797</v>
+        <v>23998.951797000002</v>
       </c>
       <c r="V2" s="1">
-        <v>6.666375</v>
+        <v>6.6663750000000004</v>
       </c>
       <c r="W2" s="1">
-        <v>1207.300000</v>
+        <v>1207.3</v>
       </c>
       <c r="X2" s="1">
-        <v>-107.390000</v>
+        <v>-107.39</v>
       </c>
       <c r="Y2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z2" s="1">
-        <v>24008.840072</v>
+        <v>24008.840071999999</v>
       </c>
       <c r="AA2" s="1">
-        <v>6.669122</v>
+        <v>6.6691219999999998</v>
       </c>
       <c r="AB2" s="1">
-        <v>1214.320000</v>
+        <v>1214.32</v>
       </c>
       <c r="AC2" s="1">
-        <v>-89.974800</v>
+        <v>-89.974800000000002</v>
       </c>
       <c r="AD2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE2" s="1">
-        <v>24019.118634</v>
+        <v>24019.118633999999</v>
       </c>
       <c r="AF2" s="1">
         <v>6.671977</v>
       </c>
       <c r="AG2" s="1">
-        <v>1219.010000</v>
+        <v>1219.01</v>
       </c>
       <c r="AH2" s="1">
-        <v>-85.189200</v>
+        <v>-85.1892</v>
       </c>
       <c r="AI2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ2" s="1">
-        <v>24029.209254</v>
+        <v>24029.209254000001</v>
       </c>
       <c r="AK2" s="1">
-        <v>6.674780</v>
+        <v>6.6747800000000002</v>
       </c>
       <c r="AL2" s="1">
-        <v>1225.880000</v>
+        <v>1225.8800000000001</v>
       </c>
       <c r="AM2" s="1">
-        <v>-88.230400</v>
+        <v>-88.230400000000003</v>
       </c>
       <c r="AN2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO2" s="1">
-        <v>24039.502720</v>
+        <v>24039.50272</v>
       </c>
       <c r="AP2" s="1">
-        <v>6.677640</v>
+        <v>6.6776400000000002</v>
       </c>
       <c r="AQ2" s="1">
-        <v>1233.560000</v>
+        <v>1233.56</v>
       </c>
       <c r="AR2" s="1">
-        <v>-99.796100</v>
+        <v>-99.796099999999996</v>
       </c>
       <c r="AS2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT2" s="1">
-        <v>24050.121073</v>
+        <v>24050.121072999998</v>
       </c>
       <c r="AU2" s="1">
-        <v>6.680589</v>
+        <v>6.6805890000000003</v>
       </c>
       <c r="AV2" s="1">
-        <v>1243.250000</v>
+        <v>1243.25</v>
       </c>
       <c r="AW2" s="1">
-        <v>-118.784000</v>
+        <v>-118.78400000000001</v>
       </c>
       <c r="AX2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY2" s="1">
-        <v>24061.186852</v>
+        <v>24061.186851999999</v>
       </c>
       <c r="AZ2" s="1">
-        <v>6.683663</v>
+        <v>6.6836630000000001</v>
       </c>
       <c r="BA2" s="1">
-        <v>1251.490000</v>
+        <v>1251.49</v>
       </c>
       <c r="BB2" s="1">
-        <v>-135.962000</v>
+        <v>-135.96199999999999</v>
       </c>
       <c r="BC2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD2" s="1">
         <v>24072.145429</v>
       </c>
       <c r="BE2" s="1">
-        <v>6.686707</v>
+        <v>6.6867070000000002</v>
       </c>
       <c r="BF2" s="1">
-        <v>1290.570000</v>
+        <v>1290.57</v>
       </c>
       <c r="BG2" s="1">
-        <v>-216.850000</v>
+        <v>-216.85</v>
       </c>
       <c r="BH2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI2" s="1">
-        <v>24083.489958</v>
+        <v>24083.489957999998</v>
       </c>
       <c r="BJ2" s="1">
-        <v>6.689858</v>
+        <v>6.6898580000000001</v>
       </c>
       <c r="BK2" s="1">
-        <v>1358.760000</v>
+        <v>1358.76</v>
       </c>
       <c r="BL2" s="1">
-        <v>-351.905000</v>
+        <v>-351.90499999999997</v>
       </c>
       <c r="BM2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN2" s="1">
-        <v>24093.855848</v>
+        <v>24093.855847999999</v>
       </c>
       <c r="BO2" s="1">
-        <v>6.692738</v>
+        <v>6.6927380000000003</v>
       </c>
       <c r="BP2" s="1">
-        <v>1471.000000</v>
+        <v>1471</v>
       </c>
       <c r="BQ2" s="1">
-        <v>-571.847000</v>
+        <v>-571.84699999999998</v>
       </c>
       <c r="BR2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS2" s="1">
-        <v>24104.201865</v>
+        <v>24104.201864999999</v>
       </c>
       <c r="BT2" s="1">
-        <v>6.695612</v>
+        <v>6.6956119999999997</v>
       </c>
       <c r="BU2" s="1">
-        <v>1599.930000</v>
+        <v>1599.93</v>
       </c>
       <c r="BV2" s="1">
-        <v>-820.747000</v>
+        <v>-820.74699999999996</v>
       </c>
       <c r="BW2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX2" s="1">
-        <v>24115.346971</v>
+        <v>24115.346970999999</v>
       </c>
       <c r="BY2" s="1">
-        <v>6.698707</v>
+        <v>6.6987069999999997</v>
       </c>
       <c r="BZ2" s="1">
-        <v>1749.450000</v>
+        <v>1749.45</v>
       </c>
       <c r="CA2" s="1">
-        <v>-1091.310000</v>
+        <v>-1091.31</v>
       </c>
       <c r="CB2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC2" s="1">
-        <v>24126.383948</v>
+        <v>24126.383947999999</v>
       </c>
       <c r="CD2" s="1">
-        <v>6.701773</v>
+        <v>6.7017730000000002</v>
       </c>
       <c r="CE2" s="1">
-        <v>2158.740000</v>
+        <v>2158.7399999999998</v>
       </c>
       <c r="CF2" s="1">
-        <v>-1751.650000</v>
+        <v>-1751.65</v>
       </c>
       <c r="CG2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:85">
       <c r="A3" s="1">
-        <v>23957.078076</v>
+        <v>23957.078076000002</v>
       </c>
       <c r="B3" s="1">
         <v>6.654744</v>
       </c>
       <c r="C3" s="1">
-        <v>1143.810000</v>
+        <v>1143.81</v>
       </c>
       <c r="D3" s="1">
-        <v>-259.454000</v>
+        <v>-259.45400000000001</v>
       </c>
       <c r="E3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F3" s="1">
         <v>23967.451417</v>
       </c>
       <c r="G3" s="1">
-        <v>6.657625</v>
+        <v>6.6576250000000003</v>
       </c>
       <c r="H3" s="1">
-        <v>1164.720000</v>
+        <v>1164.72</v>
       </c>
       <c r="I3" s="1">
-        <v>-217.728000</v>
+        <v>-217.72800000000001</v>
       </c>
       <c r="J3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K3" s="1">
-        <v>23978.231920</v>
+        <v>23978.231919999998</v>
       </c>
       <c r="L3" s="1">
-        <v>6.660620</v>
+        <v>6.6606199999999998</v>
       </c>
       <c r="M3" s="1">
-        <v>1192.250000</v>
+        <v>1192.25</v>
       </c>
       <c r="N3" s="1">
-        <v>-151.356000</v>
+        <v>-151.35599999999999</v>
       </c>
       <c r="O3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P3" s="1">
-        <v>23988.795960</v>
+        <v>23988.795959999999</v>
       </c>
       <c r="Q3" s="1">
-        <v>6.663554</v>
+        <v>6.6635540000000004</v>
       </c>
       <c r="R3" s="1">
-        <v>1200.140000</v>
+        <v>1200.1400000000001</v>
       </c>
       <c r="S3" s="1">
-        <v>-128.640000</v>
+        <v>-128.63999999999999</v>
       </c>
       <c r="T3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U3" s="1">
-        <v>23999.352105</v>
+        <v>23999.352105000002</v>
       </c>
       <c r="V3" s="1">
-        <v>6.666487</v>
+        <v>6.6664870000000001</v>
       </c>
       <c r="W3" s="1">
-        <v>1207.290000</v>
+        <v>1207.29</v>
       </c>
       <c r="X3" s="1">
-        <v>-107.270000</v>
+        <v>-107.27</v>
       </c>
       <c r="Y3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z3" s="1">
         <v>24009.191207</v>
       </c>
       <c r="AA3" s="1">
-        <v>6.669220</v>
+        <v>6.6692200000000001</v>
       </c>
       <c r="AB3" s="1">
-        <v>1214.470000</v>
+        <v>1214.47</v>
       </c>
       <c r="AC3" s="1">
-        <v>-89.891500</v>
+        <v>-89.891499999999994</v>
       </c>
       <c r="AD3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE3" s="1">
-        <v>24019.462858</v>
+        <v>24019.462857999999</v>
       </c>
       <c r="AF3" s="1">
-        <v>6.672073</v>
+        <v>6.6720730000000001</v>
       </c>
       <c r="AG3" s="1">
-        <v>1219.010000</v>
+        <v>1219.01</v>
       </c>
       <c r="AH3" s="1">
-        <v>-85.195300</v>
+        <v>-85.195300000000003</v>
       </c>
       <c r="AI3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ3" s="1">
         <v>24029.593148</v>
@@ -843,165 +1259,165 @@
         <v>6.674887</v>
       </c>
       <c r="AL3" s="1">
-        <v>1225.830000</v>
+        <v>1225.83</v>
       </c>
       <c r="AM3" s="1">
-        <v>-88.200700</v>
+        <v>-88.200699999999998</v>
       </c>
       <c r="AN3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO3" s="1">
         <v>24039.918404</v>
       </c>
       <c r="AP3" s="1">
-        <v>6.677755</v>
+        <v>6.6777550000000003</v>
       </c>
       <c r="AQ3" s="1">
-        <v>1233.570000</v>
+        <v>1233.57</v>
       </c>
       <c r="AR3" s="1">
-        <v>-99.823600</v>
+        <v>-99.823599999999999</v>
       </c>
       <c r="AS3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT3" s="1">
         <v>24050.539696</v>
       </c>
       <c r="AU3" s="1">
-        <v>6.680705</v>
+        <v>6.6807049999999997</v>
       </c>
       <c r="AV3" s="1">
-        <v>1243.260000</v>
+        <v>1243.26</v>
       </c>
       <c r="AW3" s="1">
-        <v>-118.735000</v>
+        <v>-118.735</v>
       </c>
       <c r="AX3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY3" s="1">
         <v>24061.627267</v>
       </c>
       <c r="AZ3" s="1">
-        <v>6.683785</v>
+        <v>6.6837850000000003</v>
       </c>
       <c r="BA3" s="1">
-        <v>1251.480000</v>
+        <v>1251.48</v>
       </c>
       <c r="BB3" s="1">
-        <v>-135.956000</v>
+        <v>-135.95599999999999</v>
       </c>
       <c r="BC3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD3" s="1">
         <v>24072.569539</v>
       </c>
       <c r="BE3" s="1">
-        <v>6.686825</v>
+        <v>6.6868249999999998</v>
       </c>
       <c r="BF3" s="1">
-        <v>1290.560000</v>
+        <v>1290.56</v>
       </c>
       <c r="BG3" s="1">
-        <v>-216.863000</v>
+        <v>-216.863</v>
       </c>
       <c r="BH3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI3" s="1">
         <v>24083.867412</v>
       </c>
       <c r="BJ3" s="1">
-        <v>6.689963</v>
+        <v>6.6899629999999997</v>
       </c>
       <c r="BK3" s="1">
-        <v>1358.800000</v>
+        <v>1358.8</v>
       </c>
       <c r="BL3" s="1">
-        <v>-351.860000</v>
+        <v>-351.86</v>
       </c>
       <c r="BM3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN3" s="1">
         <v>24094.283366</v>
       </c>
       <c r="BO3" s="1">
-        <v>6.692856</v>
+        <v>6.6928559999999999</v>
       </c>
       <c r="BP3" s="1">
-        <v>1471.030000</v>
+        <v>1471.03</v>
       </c>
       <c r="BQ3" s="1">
-        <v>-571.817000</v>
+        <v>-571.81700000000001</v>
       </c>
       <c r="BR3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS3" s="1">
         <v>24104.662686</v>
       </c>
       <c r="BT3" s="1">
-        <v>6.695740</v>
+        <v>6.6957399999999998</v>
       </c>
       <c r="BU3" s="1">
-        <v>1599.920000</v>
+        <v>1599.92</v>
       </c>
       <c r="BV3" s="1">
-        <v>-820.394000</v>
+        <v>-820.39400000000001</v>
       </c>
       <c r="BW3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX3" s="1">
-        <v>24115.817179</v>
+        <v>24115.817179000001</v>
       </c>
       <c r="BY3" s="1">
-        <v>6.698838</v>
+        <v>6.6988380000000003</v>
       </c>
       <c r="BZ3" s="1">
-        <v>1749.380000</v>
+        <v>1749.38</v>
       </c>
       <c r="CA3" s="1">
-        <v>-1091.500000</v>
+        <v>-1091.5</v>
       </c>
       <c r="CB3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC3" s="1">
-        <v>24126.952400</v>
+        <v>24126.952399999998</v>
       </c>
       <c r="CD3" s="1">
-        <v>6.701931</v>
+        <v>6.7019310000000001</v>
       </c>
       <c r="CE3" s="1">
-        <v>2158.490000</v>
+        <v>2158.4899999999998</v>
       </c>
       <c r="CF3" s="1">
-        <v>-1750.990000</v>
+        <v>-1750.99</v>
       </c>
       <c r="CG3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:85">
       <c r="A4" s="1">
         <v>23957.728336</v>
       </c>
       <c r="B4" s="1">
-        <v>6.654925</v>
+        <v>6.6549250000000004</v>
       </c>
       <c r="C4" s="1">
-        <v>1143.910000</v>
+        <v>1143.9100000000001</v>
       </c>
       <c r="D4" s="1">
-        <v>-259.343000</v>
+        <v>-259.34300000000002</v>
       </c>
       <c r="E4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1">
         <v>23968.104605</v>
@@ -1010,118 +1426,118 @@
         <v>6.657807</v>
       </c>
       <c r="H4" s="1">
-        <v>1164.870000</v>
+        <v>1164.8699999999999</v>
       </c>
       <c r="I4" s="1">
-        <v>-218.255000</v>
+        <v>-218.255</v>
       </c>
       <c r="J4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K4" s="1">
-        <v>23978.611359</v>
+        <v>23978.611358999999</v>
       </c>
       <c r="L4" s="1">
-        <v>6.660725</v>
+        <v>6.6607250000000002</v>
       </c>
       <c r="M4" s="1">
-        <v>1192.460000</v>
+        <v>1192.46</v>
       </c>
       <c r="N4" s="1">
-        <v>-151.028000</v>
+        <v>-151.02799999999999</v>
       </c>
       <c r="O4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P4" s="1">
         <v>23989.133489</v>
       </c>
       <c r="Q4" s="1">
-        <v>6.663648</v>
+        <v>6.6636480000000002</v>
       </c>
       <c r="R4" s="1">
-        <v>1200.080000</v>
+        <v>1200.08</v>
       </c>
       <c r="S4" s="1">
-        <v>-128.527000</v>
+        <v>-128.52699999999999</v>
       </c>
       <c r="T4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U4" s="1">
-        <v>23999.695299</v>
+        <v>23999.695298999999</v>
       </c>
       <c r="V4" s="1">
         <v>6.666582</v>
       </c>
       <c r="W4" s="1">
-        <v>1207.300000</v>
+        <v>1207.3</v>
       </c>
       <c r="X4" s="1">
-        <v>-107.360000</v>
+        <v>-107.36</v>
       </c>
       <c r="Y4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z4" s="1">
-        <v>24009.540390</v>
+        <v>24009.540389999998</v>
       </c>
       <c r="AA4" s="1">
-        <v>6.669317</v>
+        <v>6.6693170000000004</v>
       </c>
       <c r="AB4" s="1">
-        <v>1214.480000</v>
+        <v>1214.48</v>
       </c>
       <c r="AC4" s="1">
-        <v>-89.883300</v>
+        <v>-89.883300000000006</v>
       </c>
       <c r="AD4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE4" s="1">
-        <v>24019.805098</v>
+        <v>24019.805098000001</v>
       </c>
       <c r="AF4" s="1">
-        <v>6.672168</v>
+        <v>6.6721680000000001</v>
       </c>
       <c r="AG4" s="1">
-        <v>1219.000000</v>
+        <v>1219</v>
       </c>
       <c r="AH4" s="1">
-        <v>-85.211800</v>
+        <v>-85.211799999999997</v>
       </c>
       <c r="AI4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ4" s="1">
-        <v>24030.009013</v>
+        <v>24030.009012999999</v>
       </c>
       <c r="AK4" s="1">
-        <v>6.675003</v>
+        <v>6.6750030000000002</v>
       </c>
       <c r="AL4" s="1">
-        <v>1225.860000</v>
+        <v>1225.8599999999999</v>
       </c>
       <c r="AM4" s="1">
-        <v>-88.214100</v>
+        <v>-88.214100000000002</v>
       </c>
       <c r="AN4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO4" s="1">
-        <v>24040.235806</v>
+        <v>24040.235806000001</v>
       </c>
       <c r="AP4" s="1">
-        <v>6.677843</v>
+        <v>6.6778430000000002</v>
       </c>
       <c r="AQ4" s="1">
-        <v>1233.600000</v>
+        <v>1233.5999999999999</v>
       </c>
       <c r="AR4" s="1">
-        <v>-99.812700</v>
+        <v>-99.812700000000007</v>
       </c>
       <c r="AS4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT4" s="1">
         <v>24050.890872</v>
@@ -1130,165 +1546,165 @@
         <v>6.680803</v>
       </c>
       <c r="AV4" s="1">
-        <v>1243.250000</v>
+        <v>1243.25</v>
       </c>
       <c r="AW4" s="1">
-        <v>-118.746000</v>
+        <v>-118.746</v>
       </c>
       <c r="AX4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY4" s="1">
-        <v>24061.986866</v>
+        <v>24061.986865999999</v>
       </c>
       <c r="AZ4" s="1">
-        <v>6.683885</v>
+        <v>6.6838850000000001</v>
       </c>
       <c r="BA4" s="1">
-        <v>1251.490000</v>
+        <v>1251.49</v>
       </c>
       <c r="BB4" s="1">
-        <v>-135.953000</v>
+        <v>-135.953</v>
       </c>
       <c r="BC4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD4" s="1">
         <v>24072.929644</v>
       </c>
       <c r="BE4" s="1">
-        <v>6.686925</v>
+        <v>6.6869249999999996</v>
       </c>
       <c r="BF4" s="1">
-        <v>1290.550000</v>
+        <v>1290.55</v>
       </c>
       <c r="BG4" s="1">
-        <v>-216.844000</v>
+        <v>-216.84399999999999</v>
       </c>
       <c r="BH4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI4" s="1">
-        <v>24084.270803</v>
+        <v>24084.270802999999</v>
       </c>
       <c r="BJ4" s="1">
-        <v>6.690075</v>
+        <v>6.6900750000000002</v>
       </c>
       <c r="BK4" s="1">
-        <v>1358.810000</v>
+        <v>1358.81</v>
       </c>
       <c r="BL4" s="1">
-        <v>-351.886000</v>
+        <v>-351.88600000000002</v>
       </c>
       <c r="BM4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN4" s="1">
-        <v>24094.705958</v>
+        <v>24094.705957999999</v>
       </c>
       <c r="BO4" s="1">
-        <v>6.692974</v>
+        <v>6.6929740000000004</v>
       </c>
       <c r="BP4" s="1">
-        <v>1470.980000</v>
+        <v>1470.98</v>
       </c>
       <c r="BQ4" s="1">
-        <v>-571.818000</v>
+        <v>-571.81799999999998</v>
       </c>
       <c r="BR4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS4" s="1">
         <v>24105.097177</v>
       </c>
       <c r="BT4" s="1">
-        <v>6.695860</v>
+        <v>6.6958599999999997</v>
       </c>
       <c r="BU4" s="1">
-        <v>1600.000000</v>
+        <v>1600</v>
       </c>
       <c r="BV4" s="1">
-        <v>-820.270000</v>
+        <v>-820.27</v>
       </c>
       <c r="BW4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX4" s="1">
         <v>24116.251334</v>
       </c>
       <c r="BY4" s="1">
-        <v>6.698959</v>
+        <v>6.6989590000000003</v>
       </c>
       <c r="BZ4" s="1">
-        <v>1749.410000</v>
+        <v>1749.41</v>
       </c>
       <c r="CA4" s="1">
-        <v>-1091.460000</v>
+        <v>-1091.46</v>
       </c>
       <c r="CB4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC4" s="1">
-        <v>24127.470689</v>
+        <v>24127.470689000002</v>
       </c>
       <c r="CD4" s="1">
-        <v>6.702075</v>
+        <v>6.7020749999999998</v>
       </c>
       <c r="CE4" s="1">
-        <v>2159.900000</v>
+        <v>2159.9</v>
       </c>
       <c r="CF4" s="1">
-        <v>-1752.030000</v>
+        <v>-1752.03</v>
       </c>
       <c r="CG4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:85">
       <c r="A5" s="1">
         <v>23958.102282</v>
       </c>
       <c r="B5" s="1">
-        <v>6.655028</v>
+        <v>6.6550279999999997</v>
       </c>
       <c r="C5" s="1">
-        <v>1143.870000</v>
+        <v>1143.8699999999999</v>
       </c>
       <c r="D5" s="1">
-        <v>-259.492000</v>
+        <v>-259.49200000000002</v>
       </c>
       <c r="E5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F5" s="1">
-        <v>23968.493501</v>
+        <v>23968.493501000001</v>
       </c>
       <c r="G5" s="1">
         <v>6.657915</v>
       </c>
       <c r="H5" s="1">
-        <v>1164.560000</v>
+        <v>1164.56</v>
       </c>
       <c r="I5" s="1">
-        <v>-218.198000</v>
+        <v>-218.19800000000001</v>
       </c>
       <c r="J5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K5" s="1">
-        <v>23978.958559</v>
+        <v>23978.958558999999</v>
       </c>
       <c r="L5" s="1">
-        <v>6.660822</v>
+        <v>6.6608219999999996</v>
       </c>
       <c r="M5" s="1">
-        <v>1192.400000</v>
+        <v>1192.4000000000001</v>
       </c>
       <c r="N5" s="1">
-        <v>-150.934000</v>
+        <v>-150.934</v>
       </c>
       <c r="O5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P5" s="1">
         <v>23989.493617</v>
@@ -1297,133 +1713,133 @@
         <v>6.663748</v>
       </c>
       <c r="R5" s="1">
-        <v>1200.160000</v>
+        <v>1200.1600000000001</v>
       </c>
       <c r="S5" s="1">
-        <v>-128.571000</v>
+        <v>-128.571</v>
       </c>
       <c r="T5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U5" s="1">
         <v>24000.040019</v>
       </c>
       <c r="V5" s="1">
-        <v>6.666678</v>
+        <v>6.6666780000000001</v>
       </c>
       <c r="W5" s="1">
-        <v>1207.310000</v>
+        <v>1207.31</v>
       </c>
       <c r="X5" s="1">
-        <v>-107.317000</v>
+        <v>-107.31699999999999</v>
       </c>
       <c r="Y5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z5" s="1">
-        <v>24009.960502</v>
+        <v>24009.960502000002</v>
       </c>
       <c r="AA5" s="1">
-        <v>6.669433</v>
+        <v>6.6694329999999997</v>
       </c>
       <c r="AB5" s="1">
-        <v>1214.560000</v>
+        <v>1214.56</v>
       </c>
       <c r="AC5" s="1">
-        <v>-90.013100</v>
+        <v>-90.013099999999994</v>
       </c>
       <c r="AD5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE5" s="1">
-        <v>24020.218760</v>
+        <v>24020.21876</v>
       </c>
       <c r="AF5" s="1">
-        <v>6.672283</v>
+        <v>6.6722830000000002</v>
       </c>
       <c r="AG5" s="1">
-        <v>1219.000000</v>
+        <v>1219</v>
       </c>
       <c r="AH5" s="1">
-        <v>-85.205600</v>
+        <v>-85.205600000000004</v>
       </c>
       <c r="AI5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ5" s="1">
         <v>24030.312843</v>
       </c>
       <c r="AK5" s="1">
-        <v>6.675087</v>
+        <v>6.6750870000000004</v>
       </c>
       <c r="AL5" s="1">
-        <v>1225.870000</v>
+        <v>1225.8699999999999</v>
       </c>
       <c r="AM5" s="1">
-        <v>-88.225100</v>
+        <v>-88.225099999999998</v>
       </c>
       <c r="AN5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO5" s="1">
-        <v>24040.595408</v>
+        <v>24040.595408000001</v>
       </c>
       <c r="AP5" s="1">
         <v>6.677943</v>
       </c>
       <c r="AQ5" s="1">
-        <v>1233.580000</v>
+        <v>1233.58</v>
       </c>
       <c r="AR5" s="1">
-        <v>-99.799400</v>
+        <v>-99.799400000000006</v>
       </c>
       <c r="AS5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT5" s="1">
-        <v>24051.255433</v>
+        <v>24051.255432999998</v>
       </c>
       <c r="AU5" s="1">
         <v>6.680904</v>
       </c>
       <c r="AV5" s="1">
-        <v>1243.270000</v>
+        <v>1243.27</v>
       </c>
       <c r="AW5" s="1">
-        <v>-118.762000</v>
+        <v>-118.762</v>
       </c>
       <c r="AX5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY5" s="1">
-        <v>24062.346465</v>
+        <v>24062.346464999999</v>
       </c>
       <c r="AZ5" s="1">
-        <v>6.683985</v>
+        <v>6.6839849999999998</v>
       </c>
       <c r="BA5" s="1">
-        <v>1251.460000</v>
+        <v>1251.46</v>
       </c>
       <c r="BB5" s="1">
-        <v>-135.958000</v>
+        <v>-135.958</v>
       </c>
       <c r="BC5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD5" s="1">
-        <v>24073.294658</v>
+        <v>24073.294657999999</v>
       </c>
       <c r="BE5" s="1">
-        <v>6.687026</v>
+        <v>6.6870260000000004</v>
       </c>
       <c r="BF5" s="1">
-        <v>1290.560000</v>
+        <v>1290.56</v>
       </c>
       <c r="BG5" s="1">
-        <v>-216.869000</v>
+        <v>-216.869</v>
       </c>
       <c r="BH5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI5" s="1">
         <v>24085.017634</v>
@@ -1432,619 +1848,619 @@
         <v>6.690283</v>
       </c>
       <c r="BK5" s="1">
-        <v>1358.790000</v>
+        <v>1358.79</v>
       </c>
       <c r="BL5" s="1">
-        <v>-351.910000</v>
+        <v>-351.91</v>
       </c>
       <c r="BM5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN5" s="1">
-        <v>24095.100773</v>
+        <v>24095.100772999998</v>
       </c>
       <c r="BO5" s="1">
-        <v>6.693084</v>
+        <v>6.6930839999999998</v>
       </c>
       <c r="BP5" s="1">
-        <v>1470.980000</v>
+        <v>1470.98</v>
       </c>
       <c r="BQ5" s="1">
-        <v>-571.847000</v>
+        <v>-571.84699999999998</v>
       </c>
       <c r="BR5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS5" s="1">
         <v>24105.508856</v>
       </c>
       <c r="BT5" s="1">
-        <v>6.695975</v>
+        <v>6.6959749999999998</v>
       </c>
       <c r="BU5" s="1">
-        <v>1600.130000</v>
+        <v>1600.13</v>
       </c>
       <c r="BV5" s="1">
-        <v>-820.108000</v>
+        <v>-820.10799999999995</v>
       </c>
       <c r="BW5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX5" s="1">
         <v>24116.707993</v>
       </c>
       <c r="BY5" s="1">
-        <v>6.699086</v>
+        <v>6.6990860000000003</v>
       </c>
       <c r="BZ5" s="1">
-        <v>1749.460000</v>
+        <v>1749.46</v>
       </c>
       <c r="CA5" s="1">
-        <v>-1091.530000</v>
+        <v>-1091.53</v>
       </c>
       <c r="CB5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC5" s="1">
-        <v>24128.291065</v>
+        <v>24128.291065000001</v>
       </c>
       <c r="CD5" s="1">
-        <v>6.702303</v>
+        <v>6.7023029999999997</v>
       </c>
       <c r="CE5" s="1">
-        <v>2160.760000</v>
+        <v>2160.7600000000002</v>
       </c>
       <c r="CF5" s="1">
-        <v>-1750.420000</v>
+        <v>-1750.42</v>
       </c>
       <c r="CG5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:85">
       <c r="A6" s="1">
-        <v>23958.444062</v>
+        <v>23958.444061999999</v>
       </c>
       <c r="B6" s="1">
-        <v>6.655123</v>
+        <v>6.6551229999999997</v>
       </c>
       <c r="C6" s="1">
-        <v>1143.670000</v>
+        <v>1143.67</v>
       </c>
       <c r="D6" s="1">
-        <v>-259.425000</v>
+        <v>-259.42500000000001</v>
       </c>
       <c r="E6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1">
         <v>23968.839676</v>
       </c>
       <c r="G6" s="1">
-        <v>6.658011</v>
+        <v>6.6580110000000001</v>
       </c>
       <c r="H6" s="1">
-        <v>1164.740000</v>
+        <v>1164.74</v>
       </c>
       <c r="I6" s="1">
-        <v>-217.692000</v>
+        <v>-217.69200000000001</v>
       </c>
       <c r="J6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K6" s="1">
-        <v>23979.305262</v>
+        <v>23979.305262000002</v>
       </c>
       <c r="L6" s="1">
-        <v>6.660918</v>
+        <v>6.6609179999999997</v>
       </c>
       <c r="M6" s="1">
-        <v>1192.560000</v>
+        <v>1192.56</v>
       </c>
       <c r="N6" s="1">
-        <v>-151.021000</v>
+        <v>-151.02099999999999</v>
       </c>
       <c r="O6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P6" s="1">
-        <v>23989.913200</v>
+        <v>23989.913199999999</v>
       </c>
       <c r="Q6" s="1">
-        <v>6.663865</v>
+        <v>6.6638650000000004</v>
       </c>
       <c r="R6" s="1">
-        <v>1200.170000</v>
+        <v>1200.17</v>
       </c>
       <c r="S6" s="1">
-        <v>-128.528000</v>
+        <v>-128.52799999999999</v>
       </c>
       <c r="T6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U6" s="1">
-        <v>24000.455204</v>
+        <v>24000.455204000002</v>
       </c>
       <c r="V6" s="1">
-        <v>6.666793</v>
+        <v>6.6667930000000002</v>
       </c>
       <c r="W6" s="1">
-        <v>1207.210000</v>
+        <v>1207.21</v>
       </c>
       <c r="X6" s="1">
-        <v>-107.385000</v>
+        <v>-107.38500000000001</v>
       </c>
       <c r="Y6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z6" s="1">
-        <v>24010.237270</v>
+        <v>24010.237270000001</v>
       </c>
       <c r="AA6" s="1">
-        <v>6.669510</v>
+        <v>6.6695099999999998</v>
       </c>
       <c r="AB6" s="1">
-        <v>1214.600000</v>
+        <v>1214.5999999999999</v>
       </c>
       <c r="AC6" s="1">
-        <v>-89.889000</v>
+        <v>-89.888999999999996</v>
       </c>
       <c r="AD6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE6" s="1">
-        <v>24020.498009</v>
+        <v>24020.498008999999</v>
       </c>
       <c r="AF6" s="1">
-        <v>6.672361</v>
+        <v>6.6723610000000004</v>
       </c>
       <c r="AG6" s="1">
-        <v>1219.030000</v>
+        <v>1219.03</v>
       </c>
       <c r="AH6" s="1">
-        <v>-85.227200</v>
+        <v>-85.227199999999996</v>
       </c>
       <c r="AI6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ6" s="1">
-        <v>24030.661067</v>
+        <v>24030.661067000001</v>
       </c>
       <c r="AK6" s="1">
-        <v>6.675184</v>
+        <v>6.6751839999999998</v>
       </c>
       <c r="AL6" s="1">
-        <v>1225.870000</v>
+        <v>1225.8699999999999</v>
       </c>
       <c r="AM6" s="1">
-        <v>-88.223000</v>
+        <v>-88.222999999999999</v>
       </c>
       <c r="AN6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO6" s="1">
-        <v>24040.954013</v>
+        <v>24040.954012999999</v>
       </c>
       <c r="AP6" s="1">
-        <v>6.678043</v>
+        <v>6.6780429999999997</v>
       </c>
       <c r="AQ6" s="1">
-        <v>1233.580000</v>
+        <v>1233.58</v>
       </c>
       <c r="AR6" s="1">
-        <v>-99.792900</v>
+        <v>-99.792900000000003</v>
       </c>
       <c r="AS6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT6" s="1">
         <v>24051.618035</v>
       </c>
       <c r="AU6" s="1">
-        <v>6.681005</v>
+        <v>6.6810049999999999</v>
       </c>
       <c r="AV6" s="1">
-        <v>1243.280000</v>
+        <v>1243.28</v>
       </c>
       <c r="AW6" s="1">
-        <v>-118.767000</v>
+        <v>-118.767</v>
       </c>
       <c r="AX6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY6" s="1">
         <v>24063.070625</v>
       </c>
       <c r="AZ6" s="1">
-        <v>6.684186</v>
+        <v>6.6841860000000004</v>
       </c>
       <c r="BA6" s="1">
-        <v>1251.470000</v>
+        <v>1251.47</v>
       </c>
       <c r="BB6" s="1">
-        <v>-135.965000</v>
+        <v>-135.965</v>
       </c>
       <c r="BC6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD6" s="1">
         <v>24074.002449</v>
       </c>
       <c r="BE6" s="1">
-        <v>6.687223</v>
+        <v>6.6872230000000004</v>
       </c>
       <c r="BF6" s="1">
-        <v>1290.570000</v>
+        <v>1290.57</v>
       </c>
       <c r="BG6" s="1">
-        <v>-216.874000</v>
+        <v>-216.874</v>
       </c>
       <c r="BH6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI6" s="1">
-        <v>24085.423330</v>
+        <v>24085.423330000001</v>
       </c>
       <c r="BJ6" s="1">
-        <v>6.690395</v>
+        <v>6.6903949999999996</v>
       </c>
       <c r="BK6" s="1">
-        <v>1358.820000</v>
+        <v>1358.82</v>
       </c>
       <c r="BL6" s="1">
-        <v>-351.890000</v>
+        <v>-351.89</v>
       </c>
       <c r="BM6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN6" s="1">
-        <v>24095.523861</v>
+        <v>24095.523861000001</v>
       </c>
       <c r="BO6" s="1">
-        <v>6.693201</v>
+        <v>6.6932010000000002</v>
       </c>
       <c r="BP6" s="1">
-        <v>1471.000000</v>
+        <v>1471</v>
       </c>
       <c r="BQ6" s="1">
-        <v>-571.900000</v>
+        <v>-571.9</v>
       </c>
       <c r="BR6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS6" s="1">
-        <v>24105.940839</v>
+        <v>24105.940838999999</v>
       </c>
       <c r="BT6" s="1">
-        <v>6.696095</v>
+        <v>6.6960949999999997</v>
       </c>
       <c r="BU6" s="1">
-        <v>1600.410000</v>
+        <v>1600.41</v>
       </c>
       <c r="BV6" s="1">
-        <v>-820.079000</v>
+        <v>-820.07899999999995</v>
       </c>
       <c r="BW6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX6" s="1">
         <v>24117.468857</v>
       </c>
       <c r="BY6" s="1">
-        <v>6.699297</v>
+        <v>6.6992969999999996</v>
       </c>
       <c r="BZ6" s="1">
-        <v>1749.480000</v>
+        <v>1749.48</v>
       </c>
       <c r="CA6" s="1">
-        <v>-1091.420000</v>
+        <v>-1091.42</v>
       </c>
       <c r="CB6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC6" s="1">
         <v>24128.505835</v>
       </c>
       <c r="CD6" s="1">
-        <v>6.702363</v>
+        <v>6.7023630000000001</v>
       </c>
       <c r="CE6" s="1">
-        <v>2158.990000</v>
+        <v>2158.9899999999998</v>
       </c>
       <c r="CF6" s="1">
-        <v>-1749.860000</v>
+        <v>-1749.86</v>
       </c>
       <c r="CG6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:85">
       <c r="A7" s="1">
-        <v>23958.786309</v>
+        <v>23958.786308999999</v>
       </c>
       <c r="B7" s="1">
-        <v>6.655218</v>
+        <v>6.6552179999999996</v>
       </c>
       <c r="C7" s="1">
-        <v>1143.890000</v>
+        <v>1143.8900000000001</v>
       </c>
       <c r="D7" s="1">
-        <v>-259.364000</v>
+        <v>-259.36399999999998</v>
       </c>
       <c r="E7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F7" s="1">
-        <v>23969.256315</v>
+        <v>23969.256314999999</v>
       </c>
       <c r="G7" s="1">
-        <v>6.658127</v>
+        <v>6.6581270000000004</v>
       </c>
       <c r="H7" s="1">
-        <v>1165.200000</v>
+        <v>1165.2</v>
       </c>
       <c r="I7" s="1">
-        <v>-218.169000</v>
+        <v>-218.16900000000001</v>
       </c>
       <c r="J7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K7" s="1">
-        <v>23979.719422</v>
+        <v>23979.719421999998</v>
       </c>
       <c r="L7" s="1">
-        <v>6.661033</v>
+        <v>6.6610329999999998</v>
       </c>
       <c r="M7" s="1">
-        <v>1192.370000</v>
+        <v>1192.3699999999999</v>
       </c>
       <c r="N7" s="1">
-        <v>-150.921000</v>
+        <v>-150.92099999999999</v>
       </c>
       <c r="O7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P7" s="1">
-        <v>23990.195424</v>
+        <v>23990.195424000001</v>
       </c>
       <c r="Q7" s="1">
-        <v>6.663943</v>
+        <v>6.6639429999999997</v>
       </c>
       <c r="R7" s="1">
-        <v>1200.190000</v>
+        <v>1200.19</v>
       </c>
       <c r="S7" s="1">
-        <v>-128.585000</v>
+        <v>-128.58500000000001</v>
       </c>
       <c r="T7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U7" s="1">
-        <v>24000.732962</v>
+        <v>24000.732961999998</v>
       </c>
       <c r="V7" s="1">
-        <v>6.666870</v>
+        <v>6.6668700000000003</v>
       </c>
       <c r="W7" s="1">
-        <v>1207.210000</v>
+        <v>1207.21</v>
       </c>
       <c r="X7" s="1">
-        <v>-107.368000</v>
+        <v>-107.36799999999999</v>
       </c>
       <c r="Y7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z7" s="1">
-        <v>24010.584502</v>
+        <v>24010.584502000002</v>
       </c>
       <c r="AA7" s="1">
-        <v>6.669607</v>
+        <v>6.6696070000000001</v>
       </c>
       <c r="AB7" s="1">
-        <v>1214.510000</v>
+        <v>1214.51</v>
       </c>
       <c r="AC7" s="1">
-        <v>-89.885400</v>
+        <v>-89.885400000000004</v>
       </c>
       <c r="AD7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE7" s="1">
         <v>24020.840247</v>
       </c>
       <c r="AF7" s="1">
-        <v>6.672456</v>
+        <v>6.6724560000000004</v>
       </c>
       <c r="AG7" s="1">
-        <v>1218.970000</v>
+        <v>1218.97</v>
       </c>
       <c r="AH7" s="1">
-        <v>-85.188300</v>
+        <v>-85.188299999999998</v>
       </c>
       <c r="AI7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ7" s="1">
         <v>24031.007242</v>
       </c>
       <c r="AK7" s="1">
-        <v>6.675280</v>
+        <v>6.6752799999999999</v>
       </c>
       <c r="AL7" s="1">
-        <v>1225.880000</v>
+        <v>1225.8800000000001</v>
       </c>
       <c r="AM7" s="1">
-        <v>-88.224300</v>
+        <v>-88.224299999999999</v>
       </c>
       <c r="AN7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO7" s="1">
         <v>24041.676226</v>
       </c>
       <c r="AP7" s="1">
-        <v>6.678243</v>
+        <v>6.6782430000000002</v>
       </c>
       <c r="AQ7" s="1">
-        <v>1233.590000</v>
+        <v>1233.5899999999999</v>
       </c>
       <c r="AR7" s="1">
-        <v>-99.803200</v>
+        <v>-99.803200000000004</v>
       </c>
       <c r="AS7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT7" s="1">
         <v>24052.349102</v>
       </c>
       <c r="AU7" s="1">
-        <v>6.681208</v>
+        <v>6.6812079999999998</v>
       </c>
       <c r="AV7" s="1">
-        <v>1243.250000</v>
+        <v>1243.25</v>
       </c>
       <c r="AW7" s="1">
-        <v>-118.745000</v>
+        <v>-118.745</v>
       </c>
       <c r="AX7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY7" s="1">
-        <v>24063.450098</v>
+        <v>24063.450098000001</v>
       </c>
       <c r="AZ7" s="1">
-        <v>6.684292</v>
+        <v>6.6842920000000001</v>
       </c>
       <c r="BA7" s="1">
-        <v>1251.480000</v>
+        <v>1251.48</v>
       </c>
       <c r="BB7" s="1">
-        <v>-135.961000</v>
+        <v>-135.96100000000001</v>
       </c>
       <c r="BC7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD7" s="1">
         <v>24074.429505</v>
       </c>
       <c r="BE7" s="1">
-        <v>6.687342</v>
+        <v>6.6873420000000001</v>
       </c>
       <c r="BF7" s="1">
-        <v>1290.580000</v>
+        <v>1290.58</v>
       </c>
       <c r="BG7" s="1">
-        <v>-216.896000</v>
+        <v>-216.89599999999999</v>
       </c>
       <c r="BH7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI7" s="1">
-        <v>24085.799825</v>
+        <v>24085.799824999998</v>
       </c>
       <c r="BJ7" s="1">
-        <v>6.690500</v>
+        <v>6.6905000000000001</v>
       </c>
       <c r="BK7" s="1">
-        <v>1358.840000</v>
+        <v>1358.84</v>
       </c>
       <c r="BL7" s="1">
-        <v>-351.888000</v>
+        <v>-351.88799999999998</v>
       </c>
       <c r="BM7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN7" s="1">
-        <v>24096.226693</v>
+        <v>24096.226693000001</v>
       </c>
       <c r="BO7" s="1">
-        <v>6.693396</v>
+        <v>6.6933959999999999</v>
       </c>
       <c r="BP7" s="1">
-        <v>1471.020000</v>
+        <v>1471.02</v>
       </c>
       <c r="BQ7" s="1">
-        <v>-571.858000</v>
+        <v>-571.85799999999995</v>
       </c>
       <c r="BR7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS7" s="1">
-        <v>24106.679878</v>
+        <v>24106.679877999999</v>
       </c>
       <c r="BT7" s="1">
-        <v>6.696300</v>
+        <v>6.6962999999999999</v>
       </c>
       <c r="BU7" s="1">
-        <v>1600.690000</v>
+        <v>1600.69</v>
       </c>
       <c r="BV7" s="1">
-        <v>-820.228000</v>
+        <v>-820.22799999999995</v>
       </c>
       <c r="BW7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX7" s="1">
-        <v>24117.587895</v>
+        <v>24117.587895000001</v>
       </c>
       <c r="BY7" s="1">
-        <v>6.699330</v>
+        <v>6.6993299999999998</v>
       </c>
       <c r="BZ7" s="1">
-        <v>1749.400000</v>
+        <v>1749.4</v>
       </c>
       <c r="CA7" s="1">
-        <v>-1091.480000</v>
+        <v>-1091.48</v>
       </c>
       <c r="CB7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC7" s="1">
-        <v>24129.024649</v>
+        <v>24129.024648999999</v>
       </c>
       <c r="CD7" s="1">
-        <v>6.702507</v>
+        <v>6.7025069999999998</v>
       </c>
       <c r="CE7" s="1">
-        <v>2159.610000</v>
+        <v>2159.61</v>
       </c>
       <c r="CF7" s="1">
-        <v>-1749.400000</v>
+        <v>-1749.4</v>
       </c>
       <c r="CG7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:85">
       <c r="A8" s="1">
-        <v>23959.209887</v>
+        <v>23959.209887000001</v>
       </c>
       <c r="B8" s="1">
-        <v>6.655336</v>
+        <v>6.6553360000000001</v>
       </c>
       <c r="C8" s="1">
-        <v>1143.570000</v>
+        <v>1143.57</v>
       </c>
       <c r="D8" s="1">
-        <v>-259.425000</v>
+        <v>-259.42500000000001</v>
       </c>
       <c r="E8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F8" s="1">
-        <v>23969.536059</v>
+        <v>23969.536058999998</v>
       </c>
       <c r="G8" s="1">
-        <v>6.658204</v>
+        <v>6.6582039999999996</v>
       </c>
       <c r="H8" s="1">
-        <v>1165.140000</v>
+        <v>1165.1400000000001</v>
       </c>
       <c r="I8" s="1">
-        <v>-218.198000</v>
+        <v>-218.19800000000001</v>
       </c>
       <c r="J8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K8" s="1">
         <v>23980.020493</v>
@@ -2053,103 +2469,103 @@
         <v>6.661117</v>
       </c>
       <c r="M8" s="1">
-        <v>1192.280000</v>
+        <v>1192.28</v>
       </c>
       <c r="N8" s="1">
-        <v>-151.110000</v>
+        <v>-151.11000000000001</v>
       </c>
       <c r="O8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P8" s="1">
-        <v>23990.545947</v>
+        <v>23990.545946999999</v>
       </c>
       <c r="Q8" s="1">
-        <v>6.664041</v>
+        <v>6.6640410000000001</v>
       </c>
       <c r="R8" s="1">
-        <v>1200.160000</v>
+        <v>1200.1600000000001</v>
       </c>
       <c r="S8" s="1">
-        <v>-128.584000</v>
+        <v>-128.584</v>
       </c>
       <c r="T8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U8" s="1">
-        <v>24001.077650</v>
+        <v>24001.077649999999</v>
       </c>
       <c r="V8" s="1">
-        <v>6.666966</v>
+        <v>6.6669660000000004</v>
       </c>
       <c r="W8" s="1">
-        <v>1207.290000</v>
+        <v>1207.29</v>
       </c>
       <c r="X8" s="1">
-        <v>-107.352000</v>
+        <v>-107.352</v>
       </c>
       <c r="Y8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z8" s="1">
-        <v>24010.934180</v>
+        <v>24010.93418</v>
       </c>
       <c r="AA8" s="1">
-        <v>6.669704</v>
+        <v>6.6697040000000003</v>
       </c>
       <c r="AB8" s="1">
-        <v>1214.480000</v>
+        <v>1214.48</v>
       </c>
       <c r="AC8" s="1">
-        <v>-89.959700</v>
+        <v>-89.959699999999998</v>
       </c>
       <c r="AD8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE8" s="1">
-        <v>24021.485575</v>
+        <v>24021.485574999999</v>
       </c>
       <c r="AF8" s="1">
-        <v>6.672635</v>
+        <v>6.6726349999999996</v>
       </c>
       <c r="AG8" s="1">
-        <v>1219.070000</v>
+        <v>1219.07</v>
       </c>
       <c r="AH8" s="1">
-        <v>-85.217600</v>
+        <v>-85.217600000000004</v>
       </c>
       <c r="AI8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ8" s="1">
         <v>24031.705641</v>
       </c>
       <c r="AK8" s="1">
-        <v>6.675474</v>
+        <v>6.6754740000000004</v>
       </c>
       <c r="AL8" s="1">
-        <v>1225.880000</v>
+        <v>1225.8800000000001</v>
       </c>
       <c r="AM8" s="1">
-        <v>-88.215600</v>
+        <v>-88.215599999999995</v>
       </c>
       <c r="AN8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO8" s="1">
-        <v>24042.063068</v>
+        <v>24042.063067999999</v>
       </c>
       <c r="AP8" s="1">
-        <v>6.678351</v>
+        <v>6.6783510000000001</v>
       </c>
       <c r="AQ8" s="1">
-        <v>1233.610000</v>
+        <v>1233.6099999999999</v>
       </c>
       <c r="AR8" s="1">
-        <v>-99.813400</v>
+        <v>-99.813400000000001</v>
       </c>
       <c r="AS8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT8" s="1">
         <v>24052.740942</v>
@@ -2158,28 +2574,28 @@
         <v>6.681317</v>
       </c>
       <c r="AV8" s="1">
-        <v>1243.260000</v>
+        <v>1243.26</v>
       </c>
       <c r="AW8" s="1">
-        <v>-118.744000</v>
+        <v>-118.744</v>
       </c>
       <c r="AX8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY8" s="1">
         <v>24063.828544</v>
       </c>
       <c r="AZ8" s="1">
-        <v>6.684397</v>
+        <v>6.6843969999999997</v>
       </c>
       <c r="BA8" s="1">
-        <v>1251.480000</v>
+        <v>1251.48</v>
       </c>
       <c r="BB8" s="1">
-        <v>-135.962000</v>
+        <v>-135.96199999999999</v>
       </c>
       <c r="BC8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD8" s="1">
         <v>24075.069344</v>
@@ -2188,422 +2604,422 @@
         <v>6.687519</v>
       </c>
       <c r="BF8" s="1">
-        <v>1290.570000</v>
+        <v>1290.57</v>
       </c>
       <c r="BG8" s="1">
-        <v>-216.889000</v>
+        <v>-216.88900000000001</v>
       </c>
       <c r="BH8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI8" s="1">
-        <v>24086.480340</v>
+        <v>24086.480339999998</v>
       </c>
       <c r="BJ8" s="1">
-        <v>6.690689</v>
+        <v>6.6906889999999999</v>
       </c>
       <c r="BK8" s="1">
-        <v>1358.830000</v>
+        <v>1358.83</v>
       </c>
       <c r="BL8" s="1">
-        <v>-351.872000</v>
+        <v>-351.87200000000001</v>
       </c>
       <c r="BM8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN8" s="1">
         <v>24096.341268</v>
       </c>
       <c r="BO8" s="1">
-        <v>6.693428</v>
+        <v>6.6934279999999999</v>
       </c>
       <c r="BP8" s="1">
-        <v>1471.000000</v>
+        <v>1471</v>
       </c>
       <c r="BQ8" s="1">
-        <v>-571.863000</v>
+        <v>-571.86300000000006</v>
       </c>
       <c r="BR8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS8" s="1">
         <v>24106.817766</v>
       </c>
       <c r="BT8" s="1">
-        <v>6.696338</v>
+        <v>6.6963379999999999</v>
       </c>
       <c r="BU8" s="1">
-        <v>1600.770000</v>
+        <v>1600.77</v>
       </c>
       <c r="BV8" s="1">
-        <v>-820.444000</v>
+        <v>-820.44399999999996</v>
       </c>
       <c r="BW8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX8" s="1">
-        <v>24118.014962</v>
+        <v>24118.014962000001</v>
       </c>
       <c r="BY8" s="1">
-        <v>6.699449</v>
+        <v>6.6994490000000004</v>
       </c>
       <c r="BZ8" s="1">
-        <v>1749.440000</v>
+        <v>1749.44</v>
       </c>
       <c r="CA8" s="1">
-        <v>-1091.520000</v>
+        <v>-1091.52</v>
       </c>
       <c r="CB8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC8" s="1">
-        <v>24129.578216</v>
+        <v>24129.578216000002</v>
       </c>
       <c r="CD8" s="1">
         <v>6.702661</v>
       </c>
       <c r="CE8" s="1">
-        <v>2160.870000</v>
+        <v>2160.87</v>
       </c>
       <c r="CF8" s="1">
-        <v>-1751.380000</v>
+        <v>-1751.38</v>
       </c>
       <c r="CG8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:85">
       <c r="A9" s="1">
-        <v>23959.472767</v>
+        <v>23959.472766999999</v>
       </c>
       <c r="B9" s="1">
-        <v>6.655409</v>
+        <v>6.6554089999999997</v>
       </c>
       <c r="C9" s="1">
-        <v>1143.640000</v>
+        <v>1143.6400000000001</v>
       </c>
       <c r="D9" s="1">
-        <v>-259.369000</v>
+        <v>-259.36900000000003</v>
       </c>
       <c r="E9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F9" s="1">
-        <v>23969.877803</v>
+        <v>23969.877802999999</v>
       </c>
       <c r="G9" s="1">
-        <v>6.658299</v>
+        <v>6.6582990000000004</v>
       </c>
       <c r="H9" s="1">
-        <v>1165.090000</v>
+        <v>1165.0899999999999</v>
       </c>
       <c r="I9" s="1">
-        <v>-218.235000</v>
+        <v>-218.23500000000001</v>
       </c>
       <c r="J9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K9" s="1">
-        <v>23980.365213</v>
+        <v>23980.365213000001</v>
       </c>
       <c r="L9" s="1">
-        <v>6.661213</v>
+        <v>6.6612130000000001</v>
       </c>
       <c r="M9" s="1">
-        <v>1192.490000</v>
+        <v>1192.49</v>
       </c>
       <c r="N9" s="1">
-        <v>-150.754000</v>
+        <v>-150.75399999999999</v>
       </c>
       <c r="O9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P9" s="1">
         <v>23990.891807</v>
       </c>
       <c r="Q9" s="1">
-        <v>6.664137</v>
+        <v>6.6641370000000002</v>
       </c>
       <c r="R9" s="1">
-        <v>1200.090000</v>
+        <v>1200.0899999999999</v>
       </c>
       <c r="S9" s="1">
-        <v>-128.636000</v>
+        <v>-128.636</v>
       </c>
       <c r="T9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U9" s="1">
         <v>24001.418909</v>
       </c>
       <c r="V9" s="1">
-        <v>6.667061</v>
+        <v>6.6670610000000003</v>
       </c>
       <c r="W9" s="1">
-        <v>1207.370000</v>
+        <v>1207.3699999999999</v>
       </c>
       <c r="X9" s="1">
-        <v>-107.428000</v>
+        <v>-107.428</v>
       </c>
       <c r="Y9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z9" s="1">
-        <v>24011.630068</v>
+        <v>24011.630067999999</v>
       </c>
       <c r="AA9" s="1">
-        <v>6.669897</v>
+        <v>6.6698969999999997</v>
       </c>
       <c r="AB9" s="1">
-        <v>1214.560000</v>
+        <v>1214.56</v>
       </c>
       <c r="AC9" s="1">
-        <v>-89.801300</v>
+        <v>-89.801299999999998</v>
       </c>
       <c r="AD9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE9" s="1">
         <v>24021.872454</v>
       </c>
       <c r="AF9" s="1">
-        <v>6.672742</v>
+        <v>6.6727420000000004</v>
       </c>
       <c r="AG9" s="1">
-        <v>1219.030000</v>
+        <v>1219.03</v>
       </c>
       <c r="AH9" s="1">
-        <v>-85.229700</v>
+        <v>-85.229699999999994</v>
       </c>
       <c r="AI9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ9" s="1">
-        <v>24032.053801</v>
+        <v>24032.053800999998</v>
       </c>
       <c r="AK9" s="1">
-        <v>6.675571</v>
+        <v>6.6755709999999997</v>
       </c>
       <c r="AL9" s="1">
-        <v>1225.880000</v>
+        <v>1225.8800000000001</v>
       </c>
       <c r="AM9" s="1">
-        <v>-88.203600</v>
+        <v>-88.203599999999994</v>
       </c>
       <c r="AN9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO9" s="1">
-        <v>24042.425147</v>
+        <v>24042.425147000002</v>
       </c>
       <c r="AP9" s="1">
-        <v>6.678451</v>
+        <v>6.6784509999999999</v>
       </c>
       <c r="AQ9" s="1">
-        <v>1233.570000</v>
+        <v>1233.57</v>
       </c>
       <c r="AR9" s="1">
-        <v>-99.811700</v>
+        <v>-99.811700000000002</v>
       </c>
       <c r="AS9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT9" s="1">
-        <v>24053.107007</v>
+        <v>24053.107006999999</v>
       </c>
       <c r="AU9" s="1">
         <v>6.681419</v>
       </c>
       <c r="AV9" s="1">
-        <v>1243.250000</v>
+        <v>1243.25</v>
       </c>
       <c r="AW9" s="1">
-        <v>-118.748000</v>
+        <v>-118.748</v>
       </c>
       <c r="AX9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY9" s="1">
-        <v>24064.489374</v>
+        <v>24064.489374000001</v>
       </c>
       <c r="AZ9" s="1">
-        <v>6.684580</v>
+        <v>6.6845800000000004</v>
       </c>
       <c r="BA9" s="1">
-        <v>1251.470000</v>
+        <v>1251.47</v>
       </c>
       <c r="BB9" s="1">
-        <v>-135.962000</v>
+        <v>-135.96199999999999</v>
       </c>
       <c r="BC9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD9" s="1">
-        <v>24075.483503</v>
+        <v>24075.483502999999</v>
       </c>
       <c r="BE9" s="1">
-        <v>6.687634</v>
+        <v>6.6876340000000001</v>
       </c>
       <c r="BF9" s="1">
-        <v>1290.580000</v>
+        <v>1290.58</v>
       </c>
       <c r="BG9" s="1">
-        <v>-216.881000</v>
+        <v>-216.881</v>
       </c>
       <c r="BH9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI9" s="1">
-        <v>24086.585952</v>
+        <v>24086.585952000001</v>
       </c>
       <c r="BJ9" s="1">
-        <v>6.690718</v>
+        <v>6.6907180000000004</v>
       </c>
       <c r="BK9" s="1">
-        <v>1358.800000</v>
+        <v>1358.8</v>
       </c>
       <c r="BL9" s="1">
-        <v>-351.895000</v>
+        <v>-351.89499999999998</v>
       </c>
       <c r="BM9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN9" s="1">
-        <v>24096.763394</v>
+        <v>24096.763394000001</v>
       </c>
       <c r="BO9" s="1">
-        <v>6.693545</v>
+        <v>6.6935450000000003</v>
       </c>
       <c r="BP9" s="1">
-        <v>1471.040000</v>
+        <v>1471.04</v>
       </c>
       <c r="BQ9" s="1">
-        <v>-571.864000</v>
+        <v>-571.86400000000003</v>
       </c>
       <c r="BR9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS9" s="1">
-        <v>24107.226469</v>
+        <v>24107.226469000001</v>
       </c>
       <c r="BT9" s="1">
-        <v>6.696452</v>
+        <v>6.6964519999999998</v>
       </c>
       <c r="BU9" s="1">
-        <v>1600.850000</v>
+        <v>1600.85</v>
       </c>
       <c r="BV9" s="1">
-        <v>-820.675000</v>
+        <v>-820.67499999999995</v>
       </c>
       <c r="BW9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX9" s="1">
-        <v>24118.434349</v>
+        <v>24118.434348999999</v>
       </c>
       <c r="BY9" s="1">
-        <v>6.699565</v>
+        <v>6.6995649999999998</v>
       </c>
       <c r="BZ9" s="1">
-        <v>1749.380000</v>
+        <v>1749.38</v>
       </c>
       <c r="CA9" s="1">
-        <v>-1091.520000</v>
+        <v>-1091.52</v>
       </c>
       <c r="CB9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC9" s="1">
-        <v>24130.106952</v>
+        <v>24130.106951999998</v>
       </c>
       <c r="CD9" s="1">
         <v>6.702807</v>
       </c>
       <c r="CE9" s="1">
-        <v>2159.710000</v>
+        <v>2159.71</v>
       </c>
       <c r="CF9" s="1">
-        <v>-1749.850000</v>
+        <v>-1749.85</v>
       </c>
       <c r="CG9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:85">
       <c r="A10" s="1">
-        <v>23959.815324</v>
+        <v>23959.815323999999</v>
       </c>
       <c r="B10" s="1">
-        <v>6.655504</v>
+        <v>6.6555039999999996</v>
       </c>
       <c r="C10" s="1">
-        <v>1143.640000</v>
+        <v>1143.6400000000001</v>
       </c>
       <c r="D10" s="1">
-        <v>-259.579000</v>
+        <v>-259.57900000000001</v>
       </c>
       <c r="E10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F10" s="1">
-        <v>23970.226986</v>
+        <v>23970.226986000001</v>
       </c>
       <c r="G10" s="1">
-        <v>6.658396</v>
+        <v>6.6583959999999998</v>
       </c>
       <c r="H10" s="1">
-        <v>1164.990000</v>
+        <v>1164.99</v>
       </c>
       <c r="I10" s="1">
-        <v>-218.136000</v>
+        <v>-218.136</v>
       </c>
       <c r="J10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K10" s="1">
-        <v>23980.712444</v>
+        <v>23980.712444000001</v>
       </c>
       <c r="L10" s="1">
-        <v>6.661309</v>
+        <v>6.6613090000000001</v>
       </c>
       <c r="M10" s="1">
-        <v>1192.590000</v>
+        <v>1192.5899999999999</v>
       </c>
       <c r="N10" s="1">
-        <v>-151.075000</v>
+        <v>-151.07499999999999</v>
       </c>
       <c r="O10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P10" s="1">
-        <v>23991.590174</v>
+        <v>23991.590174000001</v>
       </c>
       <c r="Q10" s="1">
-        <v>6.664331</v>
+        <v>6.6643309999999998</v>
       </c>
       <c r="R10" s="1">
-        <v>1200.110000</v>
+        <v>1200.1099999999999</v>
       </c>
       <c r="S10" s="1">
-        <v>-128.591000</v>
+        <v>-128.59100000000001</v>
       </c>
       <c r="T10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U10" s="1">
-        <v>24002.103408</v>
+        <v>24002.103407999999</v>
       </c>
       <c r="V10" s="1">
-        <v>6.667251</v>
+        <v>6.6672510000000003</v>
       </c>
       <c r="W10" s="1">
-        <v>1207.300000</v>
+        <v>1207.3</v>
       </c>
       <c r="X10" s="1">
-        <v>-107.369000</v>
+        <v>-107.369</v>
       </c>
       <c r="Y10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z10" s="1">
         <v>24011.977746</v>
@@ -2612,754 +3028,754 @@
         <v>6.669994</v>
       </c>
       <c r="AB10" s="1">
-        <v>1214.470000</v>
+        <v>1214.47</v>
       </c>
       <c r="AC10" s="1">
-        <v>-89.908700</v>
+        <v>-89.908699999999996</v>
       </c>
       <c r="AD10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE10" s="1">
-        <v>24022.213671</v>
+        <v>24022.213671000001</v>
       </c>
       <c r="AF10" s="1">
-        <v>6.672837</v>
+        <v>6.6728370000000004</v>
       </c>
       <c r="AG10" s="1">
-        <v>1219.030000</v>
+        <v>1219.03</v>
       </c>
       <c r="AH10" s="1">
-        <v>-85.170900</v>
+        <v>-85.170900000000003</v>
       </c>
       <c r="AI10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ10" s="1">
         <v>24032.402488</v>
       </c>
       <c r="AK10" s="1">
-        <v>6.675667</v>
+        <v>6.6756669999999998</v>
       </c>
       <c r="AL10" s="1">
-        <v>1225.880000</v>
+        <v>1225.8800000000001</v>
       </c>
       <c r="AM10" s="1">
-        <v>-88.211300</v>
+        <v>-88.211299999999994</v>
       </c>
       <c r="AN10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO10" s="1">
-        <v>24043.089822</v>
+        <v>24043.089822000002</v>
       </c>
       <c r="AP10" s="1">
         <v>6.678636</v>
       </c>
       <c r="AQ10" s="1">
-        <v>1233.590000</v>
+        <v>1233.5899999999999</v>
       </c>
       <c r="AR10" s="1">
-        <v>-99.791800</v>
+        <v>-99.791799999999995</v>
       </c>
       <c r="AS10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT10" s="1">
-        <v>24053.780061</v>
+        <v>24053.780061000001</v>
       </c>
       <c r="AU10" s="1">
-        <v>6.681606</v>
+        <v>6.6816060000000004</v>
       </c>
       <c r="AV10" s="1">
-        <v>1243.270000</v>
+        <v>1243.27</v>
       </c>
       <c r="AW10" s="1">
-        <v>-118.757000</v>
+        <v>-118.75700000000001</v>
       </c>
       <c r="AX10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY10" s="1">
-        <v>24064.910317</v>
+        <v>24064.910317000002</v>
       </c>
       <c r="AZ10" s="1">
-        <v>6.684697</v>
+        <v>6.6846969999999999</v>
       </c>
       <c r="BA10" s="1">
-        <v>1251.480000</v>
+        <v>1251.48</v>
       </c>
       <c r="BB10" s="1">
-        <v>-135.977000</v>
+        <v>-135.977</v>
       </c>
       <c r="BC10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD10" s="1">
-        <v>24075.845088</v>
+        <v>24075.845087999998</v>
       </c>
       <c r="BE10" s="1">
         <v>6.687735</v>
       </c>
       <c r="BF10" s="1">
-        <v>1290.550000</v>
+        <v>1290.55</v>
       </c>
       <c r="BG10" s="1">
-        <v>-216.867000</v>
+        <v>-216.86699999999999</v>
       </c>
       <c r="BH10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI10" s="1">
-        <v>24086.948528</v>
+        <v>24086.948528000001</v>
       </c>
       <c r="BJ10" s="1">
-        <v>6.690819</v>
+        <v>6.6908190000000003</v>
       </c>
       <c r="BK10" s="1">
-        <v>1358.760000</v>
+        <v>1358.76</v>
       </c>
       <c r="BL10" s="1">
-        <v>-351.896000</v>
+        <v>-351.89600000000002</v>
       </c>
       <c r="BM10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN10" s="1">
-        <v>24097.159698</v>
+        <v>24097.159697999999</v>
       </c>
       <c r="BO10" s="1">
-        <v>6.693655</v>
+        <v>6.6936549999999997</v>
       </c>
       <c r="BP10" s="1">
-        <v>1470.950000</v>
+        <v>1470.95</v>
       </c>
       <c r="BQ10" s="1">
-        <v>-571.852000</v>
+        <v>-571.85199999999998</v>
       </c>
       <c r="BR10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS10" s="1">
-        <v>24107.656997</v>
+        <v>24107.656996999998</v>
       </c>
       <c r="BT10" s="1">
-        <v>6.696571</v>
+        <v>6.6965709999999996</v>
       </c>
       <c r="BU10" s="1">
-        <v>1600.660000</v>
+        <v>1600.66</v>
       </c>
       <c r="BV10" s="1">
-        <v>-820.858000</v>
+        <v>-820.85799999999995</v>
       </c>
       <c r="BW10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX10" s="1">
-        <v>24118.867078</v>
+        <v>24118.867077999999</v>
       </c>
       <c r="BY10" s="1">
-        <v>6.699685</v>
+        <v>6.6996849999999997</v>
       </c>
       <c r="BZ10" s="1">
-        <v>1749.380000</v>
+        <v>1749.38</v>
       </c>
       <c r="CA10" s="1">
-        <v>-1091.330000</v>
+        <v>-1091.33</v>
       </c>
       <c r="CB10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC10" s="1">
         <v>24130.623752</v>
       </c>
       <c r="CD10" s="1">
-        <v>6.702951</v>
+        <v>6.7029509999999997</v>
       </c>
       <c r="CE10" s="1">
-        <v>2158.520000</v>
+        <v>2158.52</v>
       </c>
       <c r="CF10" s="1">
-        <v>-1751.520000</v>
+        <v>-1751.52</v>
       </c>
       <c r="CG10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:85">
       <c r="A11" s="1">
-        <v>23960.157737</v>
+        <v>23960.157737000001</v>
       </c>
       <c r="B11" s="1">
-        <v>6.655599</v>
+        <v>6.6555989999999996</v>
       </c>
       <c r="C11" s="1">
-        <v>1143.260000</v>
+        <v>1143.26</v>
       </c>
       <c r="D11" s="1">
-        <v>-259.344000</v>
+        <v>-259.34399999999999</v>
       </c>
       <c r="E11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F11" s="1">
-        <v>23970.921387</v>
+        <v>23970.921386999999</v>
       </c>
       <c r="G11" s="1">
-        <v>6.658589</v>
+        <v>6.6585890000000001</v>
       </c>
       <c r="H11" s="1">
-        <v>1165.170000</v>
+        <v>1165.17</v>
       </c>
       <c r="I11" s="1">
-        <v>-218.125000</v>
+        <v>-218.125</v>
       </c>
       <c r="J11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K11" s="1">
-        <v>23981.407835</v>
+        <v>23981.407835000002</v>
       </c>
       <c r="L11" s="1">
-        <v>6.661502</v>
+        <v>6.6615019999999996</v>
       </c>
       <c r="M11" s="1">
-        <v>1192.590000</v>
+        <v>1192.5899999999999</v>
       </c>
       <c r="N11" s="1">
-        <v>-150.794000</v>
+        <v>-150.79400000000001</v>
       </c>
       <c r="O11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P11" s="1">
-        <v>23991.937407</v>
+        <v>23991.937407000001</v>
       </c>
       <c r="Q11" s="1">
-        <v>6.664427</v>
+        <v>6.6644269999999999</v>
       </c>
       <c r="R11" s="1">
-        <v>1200.170000</v>
+        <v>1200.17</v>
       </c>
       <c r="S11" s="1">
-        <v>-128.548000</v>
+        <v>-128.548</v>
       </c>
       <c r="T11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U11" s="1">
         <v>24002.446645</v>
       </c>
       <c r="V11" s="1">
-        <v>6.667346</v>
+        <v>6.6673460000000002</v>
       </c>
       <c r="W11" s="1">
-        <v>1207.250000</v>
+        <v>1207.25</v>
       </c>
       <c r="X11" s="1">
-        <v>-107.348000</v>
+        <v>-107.348</v>
       </c>
       <c r="Y11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z11" s="1">
-        <v>24012.327419</v>
+        <v>24012.327419000001</v>
       </c>
       <c r="AA11" s="1">
-        <v>6.670091</v>
+        <v>6.6700910000000002</v>
       </c>
       <c r="AB11" s="1">
-        <v>1214.750000</v>
+        <v>1214.75</v>
       </c>
       <c r="AC11" s="1">
-        <v>-89.627100</v>
+        <v>-89.627099999999999</v>
       </c>
       <c r="AD11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE11" s="1">
-        <v>24022.858983</v>
+        <v>24022.858982999998</v>
       </c>
       <c r="AF11" s="1">
-        <v>6.673016</v>
+        <v>6.6730159999999996</v>
       </c>
       <c r="AG11" s="1">
-        <v>1219.050000</v>
+        <v>1219.05</v>
       </c>
       <c r="AH11" s="1">
-        <v>-85.213800</v>
+        <v>-85.213800000000006</v>
       </c>
       <c r="AI11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ11" s="1">
         <v>24033.052775</v>
       </c>
       <c r="AK11" s="1">
-        <v>6.675848</v>
+        <v>6.6758480000000002</v>
       </c>
       <c r="AL11" s="1">
-        <v>1225.900000</v>
+        <v>1225.9000000000001</v>
       </c>
       <c r="AM11" s="1">
-        <v>-88.219700</v>
+        <v>-88.219700000000003</v>
       </c>
       <c r="AN11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO11" s="1">
-        <v>24043.539689</v>
+        <v>24043.539689000001</v>
       </c>
       <c r="AP11" s="1">
-        <v>6.678761</v>
+        <v>6.6787609999999997</v>
       </c>
       <c r="AQ11" s="1">
-        <v>1233.610000</v>
+        <v>1233.6099999999999</v>
       </c>
       <c r="AR11" s="1">
-        <v>-99.812900</v>
+        <v>-99.812899999999999</v>
       </c>
       <c r="AS11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT11" s="1">
-        <v>24054.199677</v>
+        <v>24054.199677000001</v>
       </c>
       <c r="AU11" s="1">
-        <v>6.681722</v>
+        <v>6.6817219999999997</v>
       </c>
       <c r="AV11" s="1">
-        <v>1243.270000</v>
+        <v>1243.27</v>
       </c>
       <c r="AW11" s="1">
-        <v>-118.746000</v>
+        <v>-118.746</v>
       </c>
       <c r="AX11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY11" s="1">
-        <v>24065.286254</v>
+        <v>24065.286253999999</v>
       </c>
       <c r="AZ11" s="1">
-        <v>6.684802</v>
+        <v>6.6848020000000004</v>
       </c>
       <c r="BA11" s="1">
-        <v>1251.470000</v>
+        <v>1251.47</v>
       </c>
       <c r="BB11" s="1">
-        <v>-135.947000</v>
+        <v>-135.947</v>
       </c>
       <c r="BC11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD11" s="1">
         <v>24076.204823</v>
       </c>
       <c r="BE11" s="1">
-        <v>6.687835</v>
+        <v>6.6878349999999998</v>
       </c>
       <c r="BF11" s="1">
-        <v>1290.550000</v>
+        <v>1290.55</v>
       </c>
       <c r="BG11" s="1">
-        <v>-216.853000</v>
+        <v>-216.85300000000001</v>
       </c>
       <c r="BH11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI11" s="1">
-        <v>24087.325028</v>
+        <v>24087.325027999999</v>
       </c>
       <c r="BJ11" s="1">
-        <v>6.690924</v>
+        <v>6.6909239999999999</v>
       </c>
       <c r="BK11" s="1">
-        <v>1358.820000</v>
+        <v>1358.82</v>
       </c>
       <c r="BL11" s="1">
-        <v>-351.913000</v>
+        <v>-351.91300000000001</v>
       </c>
       <c r="BM11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN11" s="1">
-        <v>24097.582258</v>
+        <v>24097.582257999999</v>
       </c>
       <c r="BO11" s="1">
-        <v>6.693773</v>
+        <v>6.6937730000000002</v>
       </c>
       <c r="BP11" s="1">
-        <v>1470.990000</v>
+        <v>1470.99</v>
       </c>
       <c r="BQ11" s="1">
-        <v>-571.860000</v>
+        <v>-571.86</v>
       </c>
       <c r="BR11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS11" s="1">
-        <v>24108.084548</v>
+        <v>24108.084547999999</v>
       </c>
       <c r="BT11" s="1">
-        <v>6.696690</v>
+        <v>6.6966900000000003</v>
       </c>
       <c r="BU11" s="1">
-        <v>1600.420000</v>
+        <v>1600.42</v>
       </c>
       <c r="BV11" s="1">
-        <v>-820.997000</v>
+        <v>-820.99699999999996</v>
       </c>
       <c r="BW11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX11" s="1">
-        <v>24119.303061</v>
+        <v>24119.303060999999</v>
       </c>
       <c r="BY11" s="1">
-        <v>6.699806</v>
+        <v>6.6998059999999997</v>
       </c>
       <c r="BZ11" s="1">
-        <v>1749.280000</v>
+        <v>1749.28</v>
       </c>
       <c r="CA11" s="1">
-        <v>-1091.350000</v>
+        <v>-1091.3499999999999</v>
       </c>
       <c r="CB11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC11" s="1">
-        <v>24131.163927</v>
+        <v>24131.163927000001</v>
       </c>
       <c r="CD11" s="1">
-        <v>6.703101</v>
+        <v>6.7031010000000002</v>
       </c>
       <c r="CE11" s="1">
-        <v>2161.400000</v>
+        <v>2161.4</v>
       </c>
       <c r="CF11" s="1">
-        <v>-1750.920000</v>
+        <v>-1750.92</v>
       </c>
       <c r="CG11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:85">
       <c r="A12" s="1">
         <v>23960.841687</v>
       </c>
       <c r="B12" s="1">
-        <v>6.655789</v>
+        <v>6.6557890000000004</v>
       </c>
       <c r="C12" s="1">
-        <v>1143.160000</v>
+        <v>1143.1600000000001</v>
       </c>
       <c r="D12" s="1">
-        <v>-259.407000</v>
+        <v>-259.40699999999998</v>
       </c>
       <c r="E12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F12" s="1">
-        <v>23971.266105</v>
+        <v>23971.266104999999</v>
       </c>
       <c r="G12" s="1">
-        <v>6.658685</v>
+        <v>6.6586850000000002</v>
       </c>
       <c r="H12" s="1">
-        <v>1164.990000</v>
+        <v>1164.99</v>
       </c>
       <c r="I12" s="1">
-        <v>-218.596000</v>
+        <v>-218.596</v>
       </c>
       <c r="J12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K12" s="1">
         <v>23981.756492</v>
       </c>
       <c r="L12" s="1">
-        <v>6.661599</v>
+        <v>6.6615989999999998</v>
       </c>
       <c r="M12" s="1">
-        <v>1192.730000</v>
+        <v>1192.73</v>
       </c>
       <c r="N12" s="1">
-        <v>-150.637000</v>
+        <v>-150.637</v>
       </c>
       <c r="O12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P12" s="1">
-        <v>23992.286061</v>
+        <v>23992.286060999999</v>
       </c>
       <c r="Q12" s="1">
-        <v>6.664524</v>
+        <v>6.6645240000000001</v>
       </c>
       <c r="R12" s="1">
-        <v>1200.210000</v>
+        <v>1200.21</v>
       </c>
       <c r="S12" s="1">
-        <v>-128.524000</v>
+        <v>-128.524</v>
       </c>
       <c r="T12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U12" s="1">
-        <v>24002.961318</v>
+        <v>24002.961318000001</v>
       </c>
       <c r="V12" s="1">
-        <v>6.667489</v>
+        <v>6.6674889999999998</v>
       </c>
       <c r="W12" s="1">
-        <v>1207.320000</v>
+        <v>1207.32</v>
       </c>
       <c r="X12" s="1">
-        <v>-107.387000</v>
+        <v>-107.387</v>
       </c>
       <c r="Y12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z12" s="1">
-        <v>24012.980674</v>
+        <v>24012.980673999999</v>
       </c>
       <c r="AA12" s="1">
-        <v>6.670272</v>
+        <v>6.6702719999999998</v>
       </c>
       <c r="AB12" s="1">
-        <v>1214.640000</v>
+        <v>1214.6400000000001</v>
       </c>
       <c r="AC12" s="1">
-        <v>-89.872200</v>
+        <v>-89.872200000000007</v>
       </c>
       <c r="AD12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE12" s="1">
-        <v>24023.243072</v>
+        <v>24023.243072000001</v>
       </c>
       <c r="AF12" s="1">
-        <v>6.673123</v>
+        <v>6.6731230000000004</v>
       </c>
       <c r="AG12" s="1">
-        <v>1219.010000</v>
+        <v>1219.01</v>
       </c>
       <c r="AH12" s="1">
-        <v>-85.178600</v>
+        <v>-85.178600000000003</v>
       </c>
       <c r="AI12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ12" s="1">
-        <v>24033.445078</v>
+        <v>24033.445078000001</v>
       </c>
       <c r="AK12" s="1">
-        <v>6.675957</v>
+        <v>6.6759570000000004</v>
       </c>
       <c r="AL12" s="1">
-        <v>1225.880000</v>
+        <v>1225.8800000000001</v>
       </c>
       <c r="AM12" s="1">
-        <v>-88.191200</v>
+        <v>-88.191199999999995</v>
       </c>
       <c r="AN12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO12" s="1">
-        <v>24043.896777</v>
+        <v>24043.896777000002</v>
       </c>
       <c r="AP12" s="1">
-        <v>6.678860</v>
+        <v>6.6788600000000002</v>
       </c>
       <c r="AQ12" s="1">
-        <v>1233.630000</v>
+        <v>1233.6300000000001</v>
       </c>
       <c r="AR12" s="1">
-        <v>-99.807300</v>
+        <v>-99.807299999999998</v>
       </c>
       <c r="AS12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT12" s="1">
-        <v>24054.565227</v>
+        <v>24054.565226999999</v>
       </c>
       <c r="AU12" s="1">
-        <v>6.681824</v>
+        <v>6.6818239999999998</v>
       </c>
       <c r="AV12" s="1">
-        <v>1243.260000</v>
+        <v>1243.26</v>
       </c>
       <c r="AW12" s="1">
-        <v>-118.765000</v>
+        <v>-118.765</v>
       </c>
       <c r="AX12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY12" s="1">
         <v>24065.663709</v>
       </c>
       <c r="AZ12" s="1">
-        <v>6.684907</v>
+        <v>6.6849069999999999</v>
       </c>
       <c r="BA12" s="1">
-        <v>1251.480000</v>
+        <v>1251.48</v>
       </c>
       <c r="BB12" s="1">
-        <v>-135.961000</v>
+        <v>-135.96100000000001</v>
       </c>
       <c r="BC12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD12" s="1">
-        <v>24076.621470</v>
+        <v>24076.621469999998</v>
       </c>
       <c r="BE12" s="1">
-        <v>6.687950</v>
+        <v>6.6879499999999998</v>
       </c>
       <c r="BF12" s="1">
-        <v>1290.570000</v>
+        <v>1290.57</v>
       </c>
       <c r="BG12" s="1">
-        <v>-216.873000</v>
+        <v>-216.87299999999999</v>
       </c>
       <c r="BH12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI12" s="1">
-        <v>24087.749599</v>
+        <v>24087.749598999999</v>
       </c>
       <c r="BJ12" s="1">
-        <v>6.691042</v>
+        <v>6.6910420000000004</v>
       </c>
       <c r="BK12" s="1">
-        <v>1358.800000</v>
+        <v>1358.8</v>
       </c>
       <c r="BL12" s="1">
-        <v>-351.880000</v>
+        <v>-351.88</v>
       </c>
       <c r="BM12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN12" s="1">
-        <v>24097.980546</v>
+        <v>24097.980545999999</v>
       </c>
       <c r="BO12" s="1">
-        <v>6.693883</v>
+        <v>6.6938829999999996</v>
       </c>
       <c r="BP12" s="1">
-        <v>1470.980000</v>
+        <v>1470.98</v>
       </c>
       <c r="BQ12" s="1">
-        <v>-571.872000</v>
+        <v>-571.87199999999996</v>
       </c>
       <c r="BR12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS12" s="1">
-        <v>24108.479859</v>
+        <v>24108.479858999999</v>
       </c>
       <c r="BT12" s="1">
-        <v>6.696800</v>
+        <v>6.6967999999999996</v>
       </c>
       <c r="BU12" s="1">
-        <v>1600.210000</v>
+        <v>1600.21</v>
       </c>
       <c r="BV12" s="1">
-        <v>-821.002000</v>
+        <v>-821.00199999999995</v>
       </c>
       <c r="BW12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX12" s="1">
-        <v>24119.726678</v>
+        <v>24119.726677999999</v>
       </c>
       <c r="BY12" s="1">
-        <v>6.699924</v>
+        <v>6.6999240000000002</v>
       </c>
       <c r="BZ12" s="1">
-        <v>1749.410000</v>
+        <v>1749.41</v>
       </c>
       <c r="CA12" s="1">
-        <v>-1091.390000</v>
+        <v>-1091.3900000000001</v>
       </c>
       <c r="CB12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC12" s="1">
         <v>24131.704534</v>
       </c>
       <c r="CD12" s="1">
-        <v>6.703251</v>
+        <v>6.7032509999999998</v>
       </c>
       <c r="CE12" s="1">
-        <v>2158.170000</v>
+        <v>2158.17</v>
       </c>
       <c r="CF12" s="1">
-        <v>-1750.340000</v>
+        <v>-1750.34</v>
       </c>
       <c r="CG12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:85">
       <c r="A13" s="1">
         <v>23961.186416</v>
       </c>
       <c r="B13" s="1">
-        <v>6.655885</v>
+        <v>6.6558849999999996</v>
       </c>
       <c r="C13" s="1">
-        <v>1143.260000</v>
+        <v>1143.26</v>
       </c>
       <c r="D13" s="1">
-        <v>-259.391000</v>
+        <v>-259.39100000000002</v>
       </c>
       <c r="E13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F13" s="1">
-        <v>23971.609832</v>
+        <v>23971.609831999998</v>
       </c>
       <c r="G13" s="1">
-        <v>6.658781</v>
+        <v>6.6587810000000003</v>
       </c>
       <c r="H13" s="1">
-        <v>1164.900000</v>
+        <v>1164.9000000000001</v>
       </c>
       <c r="I13" s="1">
-        <v>-218.219000</v>
+        <v>-218.21899999999999</v>
       </c>
       <c r="J13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K13" s="1">
-        <v>23982.102210</v>
+        <v>23982.102210000001</v>
       </c>
       <c r="L13" s="1">
-        <v>6.661695</v>
+        <v>6.6616949999999999</v>
       </c>
       <c r="M13" s="1">
-        <v>1192.520000</v>
+        <v>1192.52</v>
       </c>
       <c r="N13" s="1">
-        <v>-150.980000</v>
+        <v>-150.97999999999999</v>
       </c>
       <c r="O13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P13" s="1">
-        <v>23992.943789</v>
+        <v>23992.943789000001</v>
       </c>
       <c r="Q13" s="1">
-        <v>6.664707</v>
+        <v>6.6647069999999999</v>
       </c>
       <c r="R13" s="1">
-        <v>1200.200000</v>
+        <v>1200.2</v>
       </c>
       <c r="S13" s="1">
-        <v>-128.623000</v>
+        <v>-128.62299999999999</v>
       </c>
       <c r="T13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U13" s="1">
         <v>24003.398448</v>
@@ -3368,330 +3784,330 @@
         <v>6.667611</v>
       </c>
       <c r="W13" s="1">
-        <v>1207.360000</v>
+        <v>1207.3599999999999</v>
       </c>
       <c r="X13" s="1">
-        <v>-107.327000</v>
+        <v>-107.327</v>
       </c>
       <c r="Y13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z13" s="1">
-        <v>24013.374497</v>
+        <v>24013.374497000001</v>
       </c>
       <c r="AA13" s="1">
         <v>6.670382</v>
       </c>
       <c r="AB13" s="1">
-        <v>1214.470000</v>
+        <v>1214.47</v>
       </c>
       <c r="AC13" s="1">
-        <v>-89.888000</v>
+        <v>-89.888000000000005</v>
       </c>
       <c r="AD13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE13" s="1">
-        <v>24023.587124</v>
+        <v>24023.587124000001</v>
       </c>
       <c r="AF13" s="1">
-        <v>6.673219</v>
+        <v>6.6732189999999996</v>
       </c>
       <c r="AG13" s="1">
-        <v>1219.060000</v>
+        <v>1219.06</v>
       </c>
       <c r="AH13" s="1">
-        <v>-85.191800</v>
+        <v>-85.191800000000001</v>
       </c>
       <c r="AI13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ13" s="1">
         <v>24033.797734</v>
       </c>
       <c r="AK13" s="1">
-        <v>6.676055</v>
+        <v>6.6760549999999999</v>
       </c>
       <c r="AL13" s="1">
-        <v>1225.880000</v>
+        <v>1225.8800000000001</v>
       </c>
       <c r="AM13" s="1">
-        <v>-88.210400</v>
+        <v>-88.210400000000007</v>
       </c>
       <c r="AN13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO13" s="1">
-        <v>24044.258360</v>
+        <v>24044.25836</v>
       </c>
       <c r="AP13" s="1">
-        <v>6.678961</v>
+        <v>6.6789610000000001</v>
       </c>
       <c r="AQ13" s="1">
-        <v>1233.570000</v>
+        <v>1233.57</v>
       </c>
       <c r="AR13" s="1">
-        <v>-99.801300</v>
+        <v>-99.801299999999998</v>
       </c>
       <c r="AS13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT13" s="1">
-        <v>24054.928335</v>
+        <v>24054.928335000001</v>
       </c>
       <c r="AU13" s="1">
-        <v>6.681925</v>
+        <v>6.6819249999999997</v>
       </c>
       <c r="AV13" s="1">
-        <v>1243.270000</v>
+        <v>1243.27</v>
       </c>
       <c r="AW13" s="1">
-        <v>-118.732000</v>
+        <v>-118.732</v>
       </c>
       <c r="AX13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY13" s="1">
-        <v>24066.086795</v>
+        <v>24066.086794999999</v>
       </c>
       <c r="AZ13" s="1">
-        <v>6.685024</v>
+        <v>6.6850240000000003</v>
       </c>
       <c r="BA13" s="1">
-        <v>1251.470000</v>
+        <v>1251.47</v>
       </c>
       <c r="BB13" s="1">
-        <v>-135.982000</v>
+        <v>-135.982</v>
       </c>
       <c r="BC13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD13" s="1">
-        <v>24076.929342</v>
+        <v>24076.929341999999</v>
       </c>
       <c r="BE13" s="1">
-        <v>6.688036</v>
+        <v>6.6880360000000003</v>
       </c>
       <c r="BF13" s="1">
-        <v>1290.600000</v>
+        <v>1290.5999999999999</v>
       </c>
       <c r="BG13" s="1">
-        <v>-216.892000</v>
+        <v>-216.892</v>
       </c>
       <c r="BH13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI13" s="1">
-        <v>24088.085887</v>
+        <v>24088.085887000001</v>
       </c>
       <c r="BJ13" s="1">
-        <v>6.691135</v>
+        <v>6.6911350000000001</v>
       </c>
       <c r="BK13" s="1">
-        <v>1358.840000</v>
+        <v>1358.84</v>
       </c>
       <c r="BL13" s="1">
-        <v>-351.897000</v>
+        <v>-351.89699999999999</v>
       </c>
       <c r="BM13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN13" s="1">
-        <v>24098.404625</v>
+        <v>24098.404624999999</v>
       </c>
       <c r="BO13" s="1">
-        <v>6.694001</v>
+        <v>6.6940010000000001</v>
       </c>
       <c r="BP13" s="1">
-        <v>1471.000000</v>
+        <v>1471</v>
       </c>
       <c r="BQ13" s="1">
-        <v>-571.860000</v>
+        <v>-571.86</v>
       </c>
       <c r="BR13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS13" s="1">
-        <v>24108.899971</v>
+        <v>24108.899970999999</v>
       </c>
       <c r="BT13" s="1">
         <v>6.696917</v>
       </c>
       <c r="BU13" s="1">
-        <v>1599.930000</v>
+        <v>1599.93</v>
       </c>
       <c r="BV13" s="1">
-        <v>-820.841000</v>
+        <v>-820.84100000000001</v>
       </c>
       <c r="BW13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX13" s="1">
-        <v>24120.175028</v>
+        <v>24120.175028000001</v>
       </c>
       <c r="BY13" s="1">
-        <v>6.700049</v>
+        <v>6.7000489999999999</v>
       </c>
       <c r="BZ13" s="1">
-        <v>1749.510000</v>
+        <v>1749.51</v>
       </c>
       <c r="CA13" s="1">
-        <v>-1091.430000</v>
+        <v>-1091.43</v>
       </c>
       <c r="CB13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC13" s="1">
-        <v>24132.246660</v>
+        <v>24132.246660000001</v>
       </c>
       <c r="CD13" s="1">
-        <v>6.703402</v>
+        <v>6.7034019999999996</v>
       </c>
       <c r="CE13" s="1">
-        <v>2159.850000</v>
+        <v>2159.85</v>
       </c>
       <c r="CF13" s="1">
-        <v>-1751.880000</v>
+        <v>-1751.88</v>
       </c>
       <c r="CG13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:85">
       <c r="A14" s="1">
-        <v>23961.527195</v>
+        <v>23961.527194999999</v>
       </c>
       <c r="B14" s="1">
-        <v>6.655980</v>
+        <v>6.6559799999999996</v>
       </c>
       <c r="C14" s="1">
-        <v>1143.490000</v>
+        <v>1143.49</v>
       </c>
       <c r="D14" s="1">
-        <v>-259.545000</v>
+        <v>-259.54500000000002</v>
       </c>
       <c r="E14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F14" s="1">
         <v>23972.258104</v>
       </c>
       <c r="G14" s="1">
-        <v>6.658961</v>
+        <v>6.6589609999999997</v>
       </c>
       <c r="H14" s="1">
-        <v>1165.160000</v>
+        <v>1165.1600000000001</v>
       </c>
       <c r="I14" s="1">
-        <v>-217.940000</v>
+        <v>-217.94</v>
       </c>
       <c r="J14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K14" s="1">
-        <v>23982.742537</v>
+        <v>23982.742536999998</v>
       </c>
       <c r="L14" s="1">
-        <v>6.661873</v>
+        <v>6.6618729999999999</v>
       </c>
       <c r="M14" s="1">
-        <v>1192.020000</v>
+        <v>1192.02</v>
       </c>
       <c r="N14" s="1">
-        <v>-150.546000</v>
+        <v>-150.54599999999999</v>
       </c>
       <c r="O14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>23993.332653</v>
+        <v>23993.332653000001</v>
       </c>
       <c r="Q14" s="1">
-        <v>6.664815</v>
+        <v>6.6648149999999999</v>
       </c>
       <c r="R14" s="1">
-        <v>1200.140000</v>
+        <v>1200.1400000000001</v>
       </c>
       <c r="S14" s="1">
-        <v>-128.612000</v>
+        <v>-128.61199999999999</v>
       </c>
       <c r="T14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U14" s="1">
-        <v>24003.514990</v>
+        <v>24003.51499</v>
       </c>
       <c r="V14" s="1">
         <v>6.667643</v>
       </c>
       <c r="W14" s="1">
-        <v>1207.320000</v>
+        <v>1207.32</v>
       </c>
       <c r="X14" s="1">
-        <v>-107.341000</v>
+        <v>-107.34099999999999</v>
       </c>
       <c r="Y14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z14" s="1">
-        <v>24013.723185</v>
+        <v>24013.723184999999</v>
       </c>
       <c r="AA14" s="1">
-        <v>6.670479</v>
+        <v>6.6704790000000003</v>
       </c>
       <c r="AB14" s="1">
-        <v>1214.610000</v>
+        <v>1214.6099999999999</v>
       </c>
       <c r="AC14" s="1">
-        <v>-89.927000</v>
+        <v>-89.927000000000007</v>
       </c>
       <c r="AD14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE14" s="1">
-        <v>24023.933828</v>
+        <v>24023.933828000001</v>
       </c>
       <c r="AF14" s="1">
-        <v>6.673315</v>
+        <v>6.6733149999999997</v>
       </c>
       <c r="AG14" s="1">
-        <v>1219.040000</v>
+        <v>1219.04</v>
       </c>
       <c r="AH14" s="1">
-        <v>-85.202200</v>
+        <v>-85.202200000000005</v>
       </c>
       <c r="AI14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ14" s="1">
         <v>24034.144967</v>
       </c>
       <c r="AK14" s="1">
-        <v>6.676151</v>
+        <v>6.6761509999999999</v>
       </c>
       <c r="AL14" s="1">
-        <v>1225.880000</v>
+        <v>1225.8800000000001</v>
       </c>
       <c r="AM14" s="1">
-        <v>-88.230300</v>
+        <v>-88.2303</v>
       </c>
       <c r="AN14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO14" s="1">
-        <v>24044.664584</v>
+        <v>24044.664583999998</v>
       </c>
       <c r="AP14" s="1">
-        <v>6.679073</v>
+        <v>6.6790729999999998</v>
       </c>
       <c r="AQ14" s="1">
-        <v>1233.610000</v>
+        <v>1233.6099999999999</v>
       </c>
       <c r="AR14" s="1">
-        <v>-99.800200</v>
+        <v>-99.800200000000004</v>
       </c>
       <c r="AS14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT14" s="1">
         <v>24055.352378</v>
@@ -3700,103 +4116,103 @@
         <v>6.682042</v>
       </c>
       <c r="AV14" s="1">
-        <v>1243.250000</v>
+        <v>1243.25</v>
       </c>
       <c r="AW14" s="1">
-        <v>-118.773000</v>
+        <v>-118.773</v>
       </c>
       <c r="AX14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY14" s="1">
-        <v>24066.371514</v>
+        <v>24066.371513999999</v>
       </c>
       <c r="AZ14" s="1">
-        <v>6.685103</v>
+        <v>6.6851029999999998</v>
       </c>
       <c r="BA14" s="1">
-        <v>1251.490000</v>
+        <v>1251.49</v>
       </c>
       <c r="BB14" s="1">
-        <v>-135.963000</v>
+        <v>-135.96299999999999</v>
       </c>
       <c r="BC14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD14" s="1">
-        <v>24077.288028</v>
+        <v>24077.288027999999</v>
       </c>
       <c r="BE14" s="1">
-        <v>6.688136</v>
+        <v>6.6881360000000001</v>
       </c>
       <c r="BF14" s="1">
-        <v>1290.570000</v>
+        <v>1290.57</v>
       </c>
       <c r="BG14" s="1">
-        <v>-216.850000</v>
+        <v>-216.85</v>
       </c>
       <c r="BH14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI14" s="1">
-        <v>24088.475214</v>
+        <v>24088.475213999998</v>
       </c>
       <c r="BJ14" s="1">
-        <v>6.691243</v>
+        <v>6.6912430000000001</v>
       </c>
       <c r="BK14" s="1">
-        <v>1358.810000</v>
+        <v>1358.81</v>
       </c>
       <c r="BL14" s="1">
-        <v>-351.884000</v>
+        <v>-351.88400000000001</v>
       </c>
       <c r="BM14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN14" s="1">
-        <v>24098.799970</v>
+        <v>24098.79997</v>
       </c>
       <c r="BO14" s="1">
-        <v>6.694111</v>
+        <v>6.6941110000000004</v>
       </c>
       <c r="BP14" s="1">
-        <v>1470.940000</v>
+        <v>1470.94</v>
       </c>
       <c r="BQ14" s="1">
-        <v>-571.869000</v>
+        <v>-571.86900000000003</v>
       </c>
       <c r="BR14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS14" s="1">
-        <v>24109.316148</v>
+        <v>24109.316148000002</v>
       </c>
       <c r="BT14" s="1">
-        <v>6.697032</v>
+        <v>6.6970320000000001</v>
       </c>
       <c r="BU14" s="1">
-        <v>1599.850000</v>
+        <v>1599.85</v>
       </c>
       <c r="BV14" s="1">
-        <v>-820.366000</v>
+        <v>-820.36599999999999</v>
       </c>
       <c r="BW14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX14" s="1">
-        <v>24120.605587</v>
+        <v>24120.605586999998</v>
       </c>
       <c r="BY14" s="1">
-        <v>6.700168</v>
+        <v>6.7001679999999997</v>
       </c>
       <c r="BZ14" s="1">
-        <v>1749.450000</v>
+        <v>1749.45</v>
       </c>
       <c r="CA14" s="1">
-        <v>-1091.350000</v>
+        <v>-1091.3499999999999</v>
       </c>
       <c r="CB14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC14" s="1">
         <v>24132.784356</v>
@@ -3805,679 +4221,679 @@
         <v>6.703551</v>
       </c>
       <c r="CE14" s="1">
-        <v>2160.660000</v>
+        <v>2160.66</v>
       </c>
       <c r="CF14" s="1">
-        <v>-1750.050000</v>
+        <v>-1750.05</v>
       </c>
       <c r="CG14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:85">
       <c r="A15" s="1">
         <v>23962.172949</v>
       </c>
       <c r="B15" s="1">
-        <v>6.656159</v>
+        <v>6.6561589999999997</v>
       </c>
       <c r="C15" s="1">
-        <v>1143.290000</v>
+        <v>1143.29</v>
       </c>
       <c r="D15" s="1">
-        <v>-259.725000</v>
+        <v>-259.72500000000002</v>
       </c>
       <c r="E15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F15" s="1">
-        <v>23972.643497</v>
+        <v>23972.643497000001</v>
       </c>
       <c r="G15" s="1">
-        <v>6.659068</v>
+        <v>6.6590680000000004</v>
       </c>
       <c r="H15" s="1">
-        <v>1164.800000</v>
+        <v>1164.8</v>
       </c>
       <c r="I15" s="1">
-        <v>-217.835000</v>
+        <v>-217.83500000000001</v>
       </c>
       <c r="J15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K15" s="1">
-        <v>23983.138377</v>
+        <v>23983.138376999999</v>
       </c>
       <c r="L15" s="1">
-        <v>6.661983</v>
+        <v>6.6619830000000002</v>
       </c>
       <c r="M15" s="1">
-        <v>1192.410000</v>
+        <v>1192.4100000000001</v>
       </c>
       <c r="N15" s="1">
-        <v>-150.953000</v>
+        <v>-150.953</v>
       </c>
       <c r="O15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P15" s="1">
-        <v>23993.680315</v>
+        <v>23993.680315000001</v>
       </c>
       <c r="Q15" s="1">
         <v>6.664911</v>
       </c>
       <c r="R15" s="1">
-        <v>1200.140000</v>
+        <v>1200.1400000000001</v>
       </c>
       <c r="S15" s="1">
-        <v>-128.632000</v>
+        <v>-128.63200000000001</v>
       </c>
       <c r="T15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U15" s="1">
         <v>24003.858719</v>
       </c>
       <c r="V15" s="1">
-        <v>6.667739</v>
+        <v>6.6677390000000001</v>
       </c>
       <c r="W15" s="1">
-        <v>1207.250000</v>
+        <v>1207.25</v>
       </c>
       <c r="X15" s="1">
-        <v>-107.398000</v>
+        <v>-107.398</v>
       </c>
       <c r="Y15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z15" s="1">
-        <v>24014.070848</v>
+        <v>24014.070847999999</v>
       </c>
       <c r="AA15" s="1">
-        <v>6.670575</v>
+        <v>6.6705750000000004</v>
       </c>
       <c r="AB15" s="1">
-        <v>1214.490000</v>
+        <v>1214.49</v>
       </c>
       <c r="AC15" s="1">
-        <v>-89.786200</v>
+        <v>-89.786199999999994</v>
       </c>
       <c r="AD15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE15" s="1">
-        <v>24024.350931</v>
+        <v>24024.350931000001</v>
       </c>
       <c r="AF15" s="1">
-        <v>6.673431</v>
+        <v>6.6734309999999999</v>
       </c>
       <c r="AG15" s="1">
-        <v>1219.040000</v>
+        <v>1219.04</v>
       </c>
       <c r="AH15" s="1">
-        <v>-85.208900</v>
+        <v>-85.2089</v>
       </c>
       <c r="AI15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ15" s="1">
-        <v>24034.564551</v>
+        <v>24034.564550999999</v>
       </c>
       <c r="AK15" s="1">
-        <v>6.676268</v>
+        <v>6.6762680000000003</v>
       </c>
       <c r="AL15" s="1">
-        <v>1225.880000</v>
+        <v>1225.8800000000001</v>
       </c>
       <c r="AM15" s="1">
-        <v>-88.233300</v>
+        <v>-88.2333</v>
       </c>
       <c r="AN15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO15" s="1">
-        <v>24044.982056</v>
+        <v>24044.982056000001</v>
       </c>
       <c r="AP15" s="1">
-        <v>6.679162</v>
+        <v>6.6791619999999998</v>
       </c>
       <c r="AQ15" s="1">
-        <v>1233.590000</v>
+        <v>1233.5899999999999</v>
       </c>
       <c r="AR15" s="1">
-        <v>-99.804300</v>
+        <v>-99.804299999999998</v>
       </c>
       <c r="AS15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT15" s="1">
-        <v>24055.657913</v>
+        <v>24055.657912999999</v>
       </c>
       <c r="AU15" s="1">
-        <v>6.682127</v>
+        <v>6.6821270000000004</v>
       </c>
       <c r="AV15" s="1">
-        <v>1243.280000</v>
+        <v>1243.28</v>
       </c>
       <c r="AW15" s="1">
-        <v>-118.763000</v>
+        <v>-118.76300000000001</v>
       </c>
       <c r="AX15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY15" s="1">
-        <v>24066.741019</v>
+        <v>24066.741019000001</v>
       </c>
       <c r="AZ15" s="1">
         <v>6.685206</v>
       </c>
       <c r="BA15" s="1">
-        <v>1251.480000</v>
+        <v>1251.48</v>
       </c>
       <c r="BB15" s="1">
-        <v>-135.954000</v>
+        <v>-135.95400000000001</v>
       </c>
       <c r="BC15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD15" s="1">
-        <v>24077.638124</v>
+        <v>24077.638124000001</v>
       </c>
       <c r="BE15" s="1">
-        <v>6.688233</v>
+        <v>6.6882330000000003</v>
       </c>
       <c r="BF15" s="1">
-        <v>1290.550000</v>
+        <v>1290.55</v>
       </c>
       <c r="BG15" s="1">
-        <v>-216.857000</v>
+        <v>-216.857</v>
       </c>
       <c r="BH15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI15" s="1">
-        <v>24088.848237</v>
+        <v>24088.848236999998</v>
       </c>
       <c r="BJ15" s="1">
-        <v>6.691347</v>
+        <v>6.6913470000000004</v>
       </c>
       <c r="BK15" s="1">
-        <v>1358.800000</v>
+        <v>1358.8</v>
       </c>
       <c r="BL15" s="1">
-        <v>-351.896000</v>
+        <v>-351.89600000000002</v>
       </c>
       <c r="BM15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN15" s="1">
         <v>24099.220061</v>
       </c>
       <c r="BO15" s="1">
-        <v>6.694228</v>
+        <v>6.6942279999999998</v>
       </c>
       <c r="BP15" s="1">
-        <v>1471.040000</v>
+        <v>1471.04</v>
       </c>
       <c r="BQ15" s="1">
-        <v>-571.893000</v>
+        <v>-571.89300000000003</v>
       </c>
       <c r="BR15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS15" s="1">
-        <v>24110.181672</v>
+        <v>24110.181671999999</v>
       </c>
       <c r="BT15" s="1">
         <v>6.697273</v>
       </c>
       <c r="BU15" s="1">
-        <v>1600.080000</v>
+        <v>1600.08</v>
       </c>
       <c r="BV15" s="1">
-        <v>-820.209000</v>
+        <v>-820.20899999999995</v>
       </c>
       <c r="BW15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX15" s="1">
-        <v>24121.023715</v>
+        <v>24121.023714999999</v>
       </c>
       <c r="BY15" s="1">
-        <v>6.700284</v>
+        <v>6.7002839999999999</v>
       </c>
       <c r="BZ15" s="1">
-        <v>1749.320000</v>
+        <v>1749.32</v>
       </c>
       <c r="CA15" s="1">
-        <v>-1091.280000</v>
+        <v>-1091.28</v>
       </c>
       <c r="CB15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC15" s="1">
-        <v>24133.324502</v>
+        <v>24133.324501999999</v>
       </c>
       <c r="CD15" s="1">
-        <v>6.703701</v>
+        <v>6.7037009999999997</v>
       </c>
       <c r="CE15" s="1">
-        <v>2158.110000</v>
+        <v>2158.11</v>
       </c>
       <c r="CF15" s="1">
-        <v>-1751.200000</v>
+        <v>-1751.2</v>
       </c>
       <c r="CG15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:85">
       <c r="A16" s="1">
-        <v>23962.551396</v>
+        <v>23962.551395999999</v>
       </c>
       <c r="B16" s="1">
-        <v>6.656264</v>
+        <v>6.6562640000000002</v>
       </c>
       <c r="C16" s="1">
-        <v>1143.010000</v>
+        <v>1143.01</v>
       </c>
       <c r="D16" s="1">
-        <v>-259.851000</v>
+        <v>-259.851</v>
       </c>
       <c r="E16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F16" s="1">
-        <v>23972.987720</v>
+        <v>23972.987720000001</v>
       </c>
       <c r="G16" s="1">
-        <v>6.659163</v>
+        <v>6.6591630000000004</v>
       </c>
       <c r="H16" s="1">
-        <v>1164.950000</v>
+        <v>1164.95</v>
       </c>
       <c r="I16" s="1">
-        <v>-217.594000</v>
+        <v>-217.59399999999999</v>
       </c>
       <c r="J16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K16" s="1">
-        <v>23983.487065</v>
+        <v>23983.487065000001</v>
       </c>
       <c r="L16" s="1">
-        <v>6.662080</v>
+        <v>6.6620799999999996</v>
       </c>
       <c r="M16" s="1">
-        <v>1192.630000</v>
+        <v>1192.6300000000001</v>
       </c>
       <c r="N16" s="1">
-        <v>-151.301000</v>
+        <v>-151.30099999999999</v>
       </c>
       <c r="O16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P16" s="1">
-        <v>23994.031515</v>
+        <v>23994.031514999999</v>
       </c>
       <c r="Q16" s="1">
-        <v>6.665009</v>
+        <v>6.6650090000000004</v>
       </c>
       <c r="R16" s="1">
-        <v>1200.210000</v>
+        <v>1200.21</v>
       </c>
       <c r="S16" s="1">
-        <v>-128.560000</v>
+        <v>-128.56</v>
       </c>
       <c r="T16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U16" s="1">
-        <v>24004.299661</v>
+        <v>24004.299661000001</v>
       </c>
       <c r="V16" s="1">
-        <v>6.667861</v>
+        <v>6.6678610000000003</v>
       </c>
       <c r="W16" s="1">
-        <v>1207.280000</v>
+        <v>1207.28</v>
       </c>
       <c r="X16" s="1">
-        <v>-107.335000</v>
+        <v>-107.33499999999999</v>
       </c>
       <c r="Y16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z16" s="1">
-        <v>24014.499888</v>
+        <v>24014.499887999998</v>
       </c>
       <c r="AA16" s="1">
-        <v>6.670694</v>
+        <v>6.6706940000000001</v>
       </c>
       <c r="AB16" s="1">
-        <v>1214.520000</v>
+        <v>1214.52</v>
       </c>
       <c r="AC16" s="1">
-        <v>-89.995600</v>
+        <v>-89.995599999999996</v>
       </c>
       <c r="AD16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE16" s="1">
-        <v>24024.647540</v>
+        <v>24024.647540000002</v>
       </c>
       <c r="AF16" s="1">
-        <v>6.673513</v>
+        <v>6.6735129999999998</v>
       </c>
       <c r="AG16" s="1">
-        <v>1219.010000</v>
+        <v>1219.01</v>
       </c>
       <c r="AH16" s="1">
-        <v>-85.220200</v>
+        <v>-85.220200000000006</v>
       </c>
       <c r="AI16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ16" s="1">
-        <v>24034.853221</v>
+        <v>24034.853221000001</v>
       </c>
       <c r="AK16" s="1">
-        <v>6.676348</v>
+        <v>6.6763479999999999</v>
       </c>
       <c r="AL16" s="1">
-        <v>1225.880000</v>
+        <v>1225.8800000000001</v>
       </c>
       <c r="AM16" s="1">
-        <v>-88.228800</v>
+        <v>-88.228800000000007</v>
       </c>
       <c r="AN16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO16" s="1">
-        <v>24045.341147</v>
+        <v>24045.341146999999</v>
       </c>
       <c r="AP16" s="1">
-        <v>6.679261</v>
+        <v>6.6792610000000003</v>
       </c>
       <c r="AQ16" s="1">
-        <v>1233.600000</v>
+        <v>1233.5999999999999</v>
       </c>
       <c r="AR16" s="1">
-        <v>-99.821700</v>
+        <v>-99.821700000000007</v>
       </c>
       <c r="AS16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT16" s="1">
         <v>24056.021481</v>
       </c>
       <c r="AU16" s="1">
-        <v>6.682228</v>
+        <v>6.6822280000000003</v>
       </c>
       <c r="AV16" s="1">
-        <v>1243.270000</v>
+        <v>1243.27</v>
       </c>
       <c r="AW16" s="1">
-        <v>-118.764000</v>
+        <v>-118.764</v>
       </c>
       <c r="AX16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY16" s="1">
         <v>24067.100618</v>
       </c>
       <c r="AZ16" s="1">
-        <v>6.685306</v>
+        <v>6.6853059999999997</v>
       </c>
       <c r="BA16" s="1">
-        <v>1251.470000</v>
+        <v>1251.47</v>
       </c>
       <c r="BB16" s="1">
-        <v>-135.944000</v>
+        <v>-135.94399999999999</v>
       </c>
       <c r="BC16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD16" s="1">
-        <v>24078.375179</v>
+        <v>24078.375178999999</v>
       </c>
       <c r="BE16" s="1">
-        <v>6.688438</v>
+        <v>6.6884379999999997</v>
       </c>
       <c r="BF16" s="1">
-        <v>1290.550000</v>
+        <v>1290.55</v>
       </c>
       <c r="BG16" s="1">
-        <v>-216.856000</v>
+        <v>-216.85599999999999</v>
       </c>
       <c r="BH16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI16" s="1">
         <v>24089.600637</v>
       </c>
       <c r="BJ16" s="1">
-        <v>6.691556</v>
+        <v>6.6915560000000003</v>
       </c>
       <c r="BK16" s="1">
-        <v>1358.800000</v>
+        <v>1358.8</v>
       </c>
       <c r="BL16" s="1">
-        <v>-351.922000</v>
+        <v>-351.92200000000003</v>
       </c>
       <c r="BM16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN16" s="1">
-        <v>24099.616384</v>
+        <v>24099.616384000001</v>
       </c>
       <c r="BO16" s="1">
-        <v>6.694338</v>
+        <v>6.6943380000000001</v>
       </c>
       <c r="BP16" s="1">
-        <v>1470.990000</v>
+        <v>1470.99</v>
       </c>
       <c r="BQ16" s="1">
-        <v>-571.887000</v>
+        <v>-571.88699999999994</v>
       </c>
       <c r="BR16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS16" s="1">
-        <v>24110.612657</v>
+        <v>24110.612657000001</v>
       </c>
       <c r="BT16" s="1">
-        <v>6.697392</v>
+        <v>6.6973919999999998</v>
       </c>
       <c r="BU16" s="1">
-        <v>1600.200000</v>
+        <v>1600.2</v>
       </c>
       <c r="BV16" s="1">
-        <v>-820.091000</v>
+        <v>-820.09100000000001</v>
       </c>
       <c r="BW16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX16" s="1">
-        <v>24121.445778</v>
+        <v>24121.445778000001</v>
       </c>
       <c r="BY16" s="1">
-        <v>6.700402</v>
+        <v>6.7004020000000004</v>
       </c>
       <c r="BZ16" s="1">
-        <v>1749.470000</v>
+        <v>1749.47</v>
       </c>
       <c r="CA16" s="1">
-        <v>-1091.360000</v>
+        <v>-1091.3599999999999</v>
       </c>
       <c r="CB16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC16" s="1">
-        <v>24134.168690</v>
+        <v>24134.168689999999</v>
       </c>
       <c r="CD16" s="1">
-        <v>6.703936</v>
+        <v>6.7039359999999997</v>
       </c>
       <c r="CE16" s="1">
-        <v>2159.690000</v>
+        <v>2159.69</v>
       </c>
       <c r="CF16" s="1">
-        <v>-1749.140000</v>
+        <v>-1749.14</v>
       </c>
       <c r="CG16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:85">
       <c r="A17" s="1">
         <v>23962.896116</v>
       </c>
       <c r="B17" s="1">
-        <v>6.656360</v>
+        <v>6.6563600000000003</v>
       </c>
       <c r="C17" s="1">
-        <v>1143.350000</v>
+        <v>1143.3499999999999</v>
       </c>
       <c r="D17" s="1">
-        <v>-259.719000</v>
+        <v>-259.71899999999999</v>
       </c>
       <c r="E17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F17" s="1">
-        <v>23973.335414</v>
+        <v>23973.335414000001</v>
       </c>
       <c r="G17" s="1">
-        <v>6.659260</v>
+        <v>6.6592599999999997</v>
       </c>
       <c r="H17" s="1">
-        <v>1166.060000</v>
+        <v>1166.06</v>
       </c>
       <c r="I17" s="1">
-        <v>-218.434000</v>
+        <v>-218.434</v>
       </c>
       <c r="J17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K17" s="1">
         <v>23983.833736</v>
       </c>
       <c r="L17" s="1">
-        <v>6.662176</v>
+        <v>6.6621759999999997</v>
       </c>
       <c r="M17" s="1">
-        <v>1192.520000</v>
+        <v>1192.52</v>
       </c>
       <c r="N17" s="1">
-        <v>-150.840000</v>
+        <v>-150.84</v>
       </c>
       <c r="O17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P17" s="1">
-        <v>23994.458074</v>
+        <v>23994.458073999998</v>
       </c>
       <c r="Q17" s="1">
         <v>6.665127</v>
       </c>
       <c r="R17" s="1">
-        <v>1200.180000</v>
+        <v>1200.18</v>
       </c>
       <c r="S17" s="1">
-        <v>-128.555000</v>
+        <v>-128.55500000000001</v>
       </c>
       <c r="T17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U17" s="1">
-        <v>24004.577422</v>
+        <v>24004.577421999998</v>
       </c>
       <c r="V17" s="1">
-        <v>6.667938</v>
+        <v>6.6679380000000004</v>
       </c>
       <c r="W17" s="1">
-        <v>1207.260000</v>
+        <v>1207.26</v>
       </c>
       <c r="X17" s="1">
-        <v>-107.377000</v>
+        <v>-107.377</v>
       </c>
       <c r="Y17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z17" s="1">
-        <v>24014.779137</v>
+        <v>24014.779137000001</v>
       </c>
       <c r="AA17" s="1">
-        <v>6.670772</v>
+        <v>6.6707720000000004</v>
       </c>
       <c r="AB17" s="1">
-        <v>1214.530000</v>
+        <v>1214.53</v>
       </c>
       <c r="AC17" s="1">
-        <v>-89.802300</v>
+        <v>-89.802300000000002</v>
       </c>
       <c r="AD17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE17" s="1">
-        <v>24024.991762</v>
+        <v>24024.991762000001</v>
       </c>
       <c r="AF17" s="1">
-        <v>6.673609</v>
+        <v>6.6736089999999999</v>
       </c>
       <c r="AG17" s="1">
-        <v>1219.050000</v>
+        <v>1219.05</v>
       </c>
       <c r="AH17" s="1">
-        <v>-85.136800</v>
+        <v>-85.136799999999994</v>
       </c>
       <c r="AI17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ17" s="1">
-        <v>24035.200916</v>
+        <v>24035.200916000002</v>
       </c>
       <c r="AK17" s="1">
-        <v>6.676445</v>
+        <v>6.6764450000000002</v>
       </c>
       <c r="AL17" s="1">
-        <v>1225.900000</v>
+        <v>1225.9000000000001</v>
       </c>
       <c r="AM17" s="1">
-        <v>-88.201000</v>
+        <v>-88.200999999999993</v>
       </c>
       <c r="AN17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO17" s="1">
-        <v>24045.700726</v>
+        <v>24045.700725999999</v>
       </c>
       <c r="AP17" s="1">
-        <v>6.679361</v>
+        <v>6.6793610000000001</v>
       </c>
       <c r="AQ17" s="1">
-        <v>1233.590000</v>
+        <v>1233.5899999999999</v>
       </c>
       <c r="AR17" s="1">
-        <v>-99.828200</v>
+        <v>-99.828199999999995</v>
       </c>
       <c r="AS17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT17" s="1">
         <v>24056.388561</v>
       </c>
       <c r="AU17" s="1">
-        <v>6.682330</v>
+        <v>6.6823300000000003</v>
       </c>
       <c r="AV17" s="1">
-        <v>1243.280000</v>
+        <v>1243.28</v>
       </c>
       <c r="AW17" s="1">
-        <v>-118.751000</v>
+        <v>-118.751</v>
       </c>
       <c r="AX17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY17" s="1">
         <v>24067.816873</v>
@@ -4486,88 +4902,88 @@
         <v>6.685505</v>
       </c>
       <c r="BA17" s="1">
-        <v>1251.490000</v>
+        <v>1251.49</v>
       </c>
       <c r="BB17" s="1">
-        <v>-135.941000</v>
+        <v>-135.941</v>
       </c>
       <c r="BC17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD17" s="1">
         <v>24078.755611</v>
       </c>
       <c r="BE17" s="1">
-        <v>6.688543</v>
+        <v>6.6885430000000001</v>
       </c>
       <c r="BF17" s="1">
-        <v>1290.520000</v>
+        <v>1290.52</v>
       </c>
       <c r="BG17" s="1">
-        <v>-216.879000</v>
+        <v>-216.87899999999999</v>
       </c>
       <c r="BH17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI17" s="1">
         <v>24089.977133</v>
       </c>
       <c r="BJ17" s="1">
-        <v>6.691660</v>
+        <v>6.6916599999999997</v>
       </c>
       <c r="BK17" s="1">
-        <v>1358.800000</v>
+        <v>1358.8</v>
       </c>
       <c r="BL17" s="1">
-        <v>-351.858000</v>
+        <v>-351.858</v>
       </c>
       <c r="BM17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN17" s="1">
-        <v>24100.039935</v>
+        <v>24100.039935000001</v>
       </c>
       <c r="BO17" s="1">
-        <v>6.694456</v>
+        <v>6.6944559999999997</v>
       </c>
       <c r="BP17" s="1">
-        <v>1470.980000</v>
+        <v>1470.98</v>
       </c>
       <c r="BQ17" s="1">
-        <v>-571.801000</v>
+        <v>-571.80100000000004</v>
       </c>
       <c r="BR17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS17" s="1">
-        <v>24111.336320</v>
+        <v>24111.336319999999</v>
       </c>
       <c r="BT17" s="1">
-        <v>6.697593</v>
+        <v>6.6975930000000004</v>
       </c>
       <c r="BU17" s="1">
-        <v>1600.510000</v>
+        <v>1600.51</v>
       </c>
       <c r="BV17" s="1">
-        <v>-820.088000</v>
+        <v>-820.08799999999997</v>
       </c>
       <c r="BW17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX17" s="1">
         <v>24122.209121</v>
       </c>
       <c r="BY17" s="1">
-        <v>6.700614</v>
+        <v>6.7006139999999998</v>
       </c>
       <c r="BZ17" s="1">
-        <v>1749.500000</v>
+        <v>1749.5</v>
       </c>
       <c r="CA17" s="1">
-        <v>-1091.470000</v>
+        <v>-1091.47</v>
       </c>
       <c r="CB17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC17" s="1">
         <v>24134.405745</v>
@@ -4576,2328 +4992,2329 @@
         <v>6.704002</v>
       </c>
       <c r="CE17" s="1">
-        <v>2160.540000</v>
+        <v>2160.54</v>
       </c>
       <c r="CF17" s="1">
-        <v>-1749.450000</v>
+        <v>-1749.45</v>
       </c>
       <c r="CG17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:85">
       <c r="A18" s="1">
-        <v>23963.237896</v>
+        <v>23963.237895999999</v>
       </c>
       <c r="B18" s="1">
-        <v>6.656455</v>
+        <v>6.6564550000000002</v>
       </c>
       <c r="C18" s="1">
-        <v>1143.370000</v>
+        <v>1143.3699999999999</v>
       </c>
       <c r="D18" s="1">
-        <v>-259.929000</v>
+        <v>-259.92899999999997</v>
       </c>
       <c r="E18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F18" s="1">
-        <v>23973.756022</v>
+        <v>23973.756022000001</v>
       </c>
       <c r="G18" s="1">
-        <v>6.659377</v>
+        <v>6.6593770000000001</v>
       </c>
       <c r="H18" s="1">
-        <v>1164.290000</v>
+        <v>1164.29</v>
       </c>
       <c r="I18" s="1">
-        <v>-218.256000</v>
+        <v>-218.256</v>
       </c>
       <c r="J18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K18" s="1">
         <v>23984.262776</v>
       </c>
       <c r="L18" s="1">
-        <v>6.662295</v>
+        <v>6.6622950000000003</v>
       </c>
       <c r="M18" s="1">
-        <v>1192.450000</v>
+        <v>1192.45</v>
       </c>
       <c r="N18" s="1">
-        <v>-151.220000</v>
+        <v>-151.22</v>
       </c>
       <c r="O18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P18" s="1">
-        <v>23994.737290</v>
+        <v>23994.737290000001</v>
       </c>
       <c r="Q18" s="1">
-        <v>6.665205</v>
+        <v>6.6652050000000003</v>
       </c>
       <c r="R18" s="1">
-        <v>1200.240000</v>
+        <v>1200.24</v>
       </c>
       <c r="S18" s="1">
-        <v>-128.537000</v>
+        <v>-128.53700000000001</v>
       </c>
       <c r="T18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U18" s="1">
-        <v>24004.922141</v>
+        <v>24004.922140999999</v>
       </c>
       <c r="V18" s="1">
-        <v>6.668034</v>
+        <v>6.6680339999999996</v>
       </c>
       <c r="W18" s="1">
-        <v>1207.330000</v>
+        <v>1207.33</v>
       </c>
       <c r="X18" s="1">
-        <v>-107.309000</v>
+        <v>-107.309</v>
       </c>
       <c r="Y18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z18" s="1">
-        <v>24015.127855</v>
+        <v>24015.127854999999</v>
       </c>
       <c r="AA18" s="1">
-        <v>6.670869</v>
+        <v>6.6708689999999997</v>
       </c>
       <c r="AB18" s="1">
-        <v>1214.570000</v>
+        <v>1214.57</v>
       </c>
       <c r="AC18" s="1">
-        <v>-89.952400</v>
+        <v>-89.952399999999997</v>
       </c>
       <c r="AD18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE18" s="1">
         <v>24025.334993</v>
       </c>
       <c r="AF18" s="1">
-        <v>6.673704</v>
+        <v>6.6737039999999999</v>
       </c>
       <c r="AG18" s="1">
-        <v>1219.080000</v>
+        <v>1219.08</v>
       </c>
       <c r="AH18" s="1">
-        <v>-85.145400</v>
+        <v>-85.145399999999995</v>
       </c>
       <c r="AI18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ18" s="1">
         <v>24035.549604</v>
       </c>
       <c r="AK18" s="1">
-        <v>6.676542</v>
+        <v>6.6765420000000004</v>
       </c>
       <c r="AL18" s="1">
-        <v>1225.900000</v>
+        <v>1225.9000000000001</v>
       </c>
       <c r="AM18" s="1">
-        <v>-88.238300</v>
+        <v>-88.238299999999995</v>
       </c>
       <c r="AN18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO18" s="1">
-        <v>24046.422406</v>
+        <v>24046.422406000002</v>
       </c>
       <c r="AP18" s="1">
-        <v>6.679562</v>
+        <v>6.6795619999999998</v>
       </c>
       <c r="AQ18" s="1">
-        <v>1233.590000</v>
+        <v>1233.5899999999999</v>
       </c>
       <c r="AR18" s="1">
-        <v>-99.829500</v>
+        <v>-99.829499999999996</v>
       </c>
       <c r="AS18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT18" s="1">
-        <v>24057.118669</v>
+        <v>24057.118668999999</v>
       </c>
       <c r="AU18" s="1">
-        <v>6.682533</v>
+        <v>6.6825330000000003</v>
       </c>
       <c r="AV18" s="1">
-        <v>1243.260000</v>
+        <v>1243.26</v>
       </c>
       <c r="AW18" s="1">
-        <v>-118.746000</v>
+        <v>-118.746</v>
       </c>
       <c r="AX18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY18" s="1">
-        <v>24068.175945</v>
+        <v>24068.175944999999</v>
       </c>
       <c r="AZ18" s="1">
-        <v>6.685604</v>
+        <v>6.6856039999999997</v>
       </c>
       <c r="BA18" s="1">
-        <v>1251.480000</v>
+        <v>1251.48</v>
       </c>
       <c r="BB18" s="1">
-        <v>-135.995000</v>
+        <v>-135.995</v>
       </c>
       <c r="BC18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD18" s="1">
-        <v>24079.117690</v>
+        <v>24079.117689999999</v>
       </c>
       <c r="BE18" s="1">
         <v>6.688644</v>
       </c>
       <c r="BF18" s="1">
-        <v>1290.560000</v>
+        <v>1290.56</v>
       </c>
       <c r="BG18" s="1">
-        <v>-216.861000</v>
+        <v>-216.86099999999999</v>
       </c>
       <c r="BH18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI18" s="1">
-        <v>24090.358524</v>
+        <v>24090.358523999999</v>
       </c>
       <c r="BJ18" s="1">
-        <v>6.691766</v>
+        <v>6.6917660000000003</v>
       </c>
       <c r="BK18" s="1">
-        <v>1358.820000</v>
+        <v>1358.82</v>
       </c>
       <c r="BL18" s="1">
-        <v>-351.876000</v>
+        <v>-351.87599999999998</v>
       </c>
       <c r="BM18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN18" s="1">
-        <v>24100.748240</v>
+        <v>24100.748240000001</v>
       </c>
       <c r="BO18" s="1">
-        <v>6.694652</v>
+        <v>6.6946519999999996</v>
       </c>
       <c r="BP18" s="1">
-        <v>1470.950000</v>
+        <v>1470.95</v>
       </c>
       <c r="BQ18" s="1">
-        <v>-571.849000</v>
+        <v>-571.84900000000005</v>
       </c>
       <c r="BR18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS18" s="1">
-        <v>24111.458833</v>
+        <v>24111.458833000001</v>
       </c>
       <c r="BT18" s="1">
-        <v>6.697627</v>
+        <v>6.6976269999999998</v>
       </c>
       <c r="BU18" s="1">
-        <v>1600.680000</v>
+        <v>1600.68</v>
       </c>
       <c r="BV18" s="1">
-        <v>-820.242000</v>
+        <v>-820.24199999999996</v>
       </c>
       <c r="BW18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX18" s="1">
-        <v>24122.382225</v>
+        <v>24122.382225000001</v>
       </c>
       <c r="BY18" s="1">
-        <v>6.700662</v>
+        <v>6.7006620000000003</v>
       </c>
       <c r="BZ18" s="1">
-        <v>1749.520000</v>
+        <v>1749.52</v>
       </c>
       <c r="CA18" s="1">
-        <v>-1091.630000</v>
+        <v>-1091.6300000000001</v>
       </c>
       <c r="CB18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC18" s="1">
-        <v>24134.922113</v>
+        <v>24134.922113000001</v>
       </c>
       <c r="CD18" s="1">
-        <v>6.704145</v>
+        <v>6.7041449999999996</v>
       </c>
       <c r="CE18" s="1">
-        <v>2158.400000</v>
+        <v>2158.4</v>
       </c>
       <c r="CF18" s="1">
-        <v>-1750.310000</v>
+        <v>-1750.31</v>
       </c>
       <c r="CG18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:85">
       <c r="A19" s="1">
         <v>23963.657475</v>
       </c>
       <c r="B19" s="1">
-        <v>6.656572</v>
+        <v>6.6565719999999997</v>
       </c>
       <c r="C19" s="1">
-        <v>1143.110000</v>
+        <v>1143.1099999999999</v>
       </c>
       <c r="D19" s="1">
-        <v>-260.139000</v>
+        <v>-260.13900000000001</v>
       </c>
       <c r="E19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F19" s="1">
-        <v>23974.023365</v>
+        <v>23974.023365000001</v>
       </c>
       <c r="G19" s="1">
-        <v>6.659451</v>
+        <v>6.6594509999999998</v>
       </c>
       <c r="H19" s="1">
-        <v>1164.660000</v>
+        <v>1164.6600000000001</v>
       </c>
       <c r="I19" s="1">
-        <v>-218.015000</v>
+        <v>-218.01499999999999</v>
       </c>
       <c r="J19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K19" s="1">
-        <v>23984.536071</v>
+        <v>23984.536070999999</v>
       </c>
       <c r="L19" s="1">
-        <v>6.662371</v>
+        <v>6.6623710000000003</v>
       </c>
       <c r="M19" s="1">
-        <v>1192.250000</v>
+        <v>1192.25</v>
       </c>
       <c r="N19" s="1">
-        <v>-151.162000</v>
+        <v>-151.16200000000001</v>
       </c>
       <c r="O19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P19" s="1">
         <v>23995.087497</v>
       </c>
       <c r="Q19" s="1">
-        <v>6.665302</v>
+        <v>6.6653019999999996</v>
       </c>
       <c r="R19" s="1">
-        <v>1200.260000</v>
+        <v>1200.26</v>
       </c>
       <c r="S19" s="1">
-        <v>-128.598000</v>
+        <v>-128.59800000000001</v>
       </c>
       <c r="T19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U19" s="1">
-        <v>24005.266396</v>
+        <v>24005.266395999999</v>
       </c>
       <c r="V19" s="1">
-        <v>6.668130</v>
+        <v>6.6681299999999997</v>
       </c>
       <c r="W19" s="1">
-        <v>1207.150000</v>
+        <v>1207.1500000000001</v>
       </c>
       <c r="X19" s="1">
-        <v>-107.340000</v>
+        <v>-107.34</v>
       </c>
       <c r="Y19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z19" s="1">
         <v>24015.475519</v>
       </c>
       <c r="AA19" s="1">
-        <v>6.670965</v>
+        <v>6.6709649999999998</v>
       </c>
       <c r="AB19" s="1">
-        <v>1214.620000</v>
+        <v>1214.6199999999999</v>
       </c>
       <c r="AC19" s="1">
-        <v>-89.920200</v>
+        <v>-89.920199999999994</v>
       </c>
       <c r="AD19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE19" s="1">
-        <v>24026.019474</v>
+        <v>24026.019474000001</v>
       </c>
       <c r="AF19" s="1">
-        <v>6.673894</v>
+        <v>6.6738939999999998</v>
       </c>
       <c r="AG19" s="1">
-        <v>1219.070000</v>
+        <v>1219.07</v>
       </c>
       <c r="AH19" s="1">
-        <v>-85.221200</v>
+        <v>-85.221199999999996</v>
       </c>
       <c r="AI19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ19" s="1">
-        <v>24036.245491</v>
+        <v>24036.245491000001</v>
       </c>
       <c r="AK19" s="1">
-        <v>6.676735</v>
+        <v>6.6767349999999999</v>
       </c>
       <c r="AL19" s="1">
-        <v>1225.900000</v>
+        <v>1225.9000000000001</v>
       </c>
       <c r="AM19" s="1">
-        <v>-88.225300</v>
+        <v>-88.225300000000004</v>
       </c>
       <c r="AN19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO19" s="1">
-        <v>24046.770102</v>
+        <v>24046.770101999999</v>
       </c>
       <c r="AP19" s="1">
-        <v>6.679658</v>
+        <v>6.6796579999999999</v>
       </c>
       <c r="AQ19" s="1">
-        <v>1233.630000</v>
+        <v>1233.6300000000001</v>
       </c>
       <c r="AR19" s="1">
-        <v>-99.789600</v>
+        <v>-99.789599999999993</v>
       </c>
       <c r="AS19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT19" s="1">
-        <v>24057.500056</v>
+        <v>24057.500056000001</v>
       </c>
       <c r="AU19" s="1">
         <v>6.682639</v>
       </c>
       <c r="AV19" s="1">
-        <v>1243.280000</v>
+        <v>1243.28</v>
       </c>
       <c r="AW19" s="1">
-        <v>-118.750000</v>
+        <v>-118.75</v>
       </c>
       <c r="AX19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY19" s="1">
         <v>24068.536074</v>
       </c>
       <c r="AZ19" s="1">
-        <v>6.685704</v>
+        <v>6.6857040000000003</v>
       </c>
       <c r="BA19" s="1">
-        <v>1251.470000</v>
+        <v>1251.47</v>
       </c>
       <c r="BB19" s="1">
-        <v>-135.953000</v>
+        <v>-135.953</v>
       </c>
       <c r="BC19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD19" s="1">
-        <v>24079.784843</v>
+        <v>24079.784843000001</v>
       </c>
       <c r="BE19" s="1">
-        <v>6.688829</v>
+        <v>6.6888290000000001</v>
       </c>
       <c r="BF19" s="1">
-        <v>1290.560000</v>
+        <v>1290.56</v>
       </c>
       <c r="BG19" s="1">
-        <v>-216.860000</v>
+        <v>-216.86</v>
       </c>
       <c r="BH19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI19" s="1">
         <v>24091.030604</v>
       </c>
       <c r="BJ19" s="1">
-        <v>6.691953</v>
+        <v>6.6919529999999998</v>
       </c>
       <c r="BK19" s="1">
-        <v>1358.820000</v>
+        <v>1358.82</v>
       </c>
       <c r="BL19" s="1">
-        <v>-351.879000</v>
+        <v>-351.87900000000002</v>
       </c>
       <c r="BM19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN19" s="1">
         <v>24100.856389</v>
       </c>
       <c r="BO19" s="1">
-        <v>6.694682</v>
+        <v>6.6946820000000002</v>
       </c>
       <c r="BP19" s="1">
-        <v>1470.980000</v>
+        <v>1470.98</v>
       </c>
       <c r="BQ19" s="1">
-        <v>-571.855000</v>
+        <v>-571.85500000000002</v>
       </c>
       <c r="BR19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS19" s="1">
-        <v>24111.894351</v>
+        <v>24111.894350999999</v>
       </c>
       <c r="BT19" s="1">
-        <v>6.697748</v>
+        <v>6.6977479999999998</v>
       </c>
       <c r="BU19" s="1">
-        <v>1600.820000</v>
+        <v>1600.82</v>
       </c>
       <c r="BV19" s="1">
-        <v>-820.414000</v>
+        <v>-820.41399999999999</v>
       </c>
       <c r="BW19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX19" s="1">
-        <v>24122.806339</v>
+        <v>24122.806338999999</v>
       </c>
       <c r="BY19" s="1">
-        <v>6.700780</v>
+        <v>6.70078</v>
       </c>
       <c r="BZ19" s="1">
-        <v>1749.480000</v>
+        <v>1749.48</v>
       </c>
       <c r="CA19" s="1">
-        <v>-1091.480000</v>
+        <v>-1091.48</v>
       </c>
       <c r="CB19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC19" s="1">
-        <v>24135.440400</v>
+        <v>24135.440399999999</v>
       </c>
       <c r="CD19" s="1">
-        <v>6.704289</v>
+        <v>6.7042890000000002</v>
       </c>
       <c r="CE19" s="1">
-        <v>2160.780000</v>
+        <v>2160.7800000000002</v>
       </c>
       <c r="CF19" s="1">
-        <v>-1751.410000</v>
+        <v>-1751.41</v>
       </c>
       <c r="CG19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:85">
       <c r="A20" s="1">
-        <v>23963.938708</v>
+        <v>23963.938708000001</v>
       </c>
       <c r="B20" s="1">
-        <v>6.656650</v>
+        <v>6.65665</v>
       </c>
       <c r="C20" s="1">
-        <v>1143.150000</v>
+        <v>1143.1500000000001</v>
       </c>
       <c r="D20" s="1">
-        <v>-259.911000</v>
+        <v>-259.911</v>
       </c>
       <c r="E20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F20" s="1">
-        <v>23974.367589</v>
+        <v>23974.367589000001</v>
       </c>
       <c r="G20" s="1">
-        <v>6.659547</v>
+        <v>6.6595469999999999</v>
       </c>
       <c r="H20" s="1">
-        <v>1164.850000</v>
+        <v>1164.8499999999999</v>
       </c>
       <c r="I20" s="1">
-        <v>-217.892000</v>
+        <v>-217.892</v>
       </c>
       <c r="J20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K20" s="1">
-        <v>23984.883271</v>
+        <v>23984.883270999999</v>
       </c>
       <c r="L20" s="1">
-        <v>6.662468</v>
+        <v>6.6624679999999996</v>
       </c>
       <c r="M20" s="1">
-        <v>1192.700000</v>
+        <v>1192.7</v>
       </c>
       <c r="N20" s="1">
-        <v>-150.955000</v>
+        <v>-150.95500000000001</v>
       </c>
       <c r="O20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P20" s="1">
-        <v>23995.436185</v>
+        <v>23995.436184999999</v>
       </c>
       <c r="Q20" s="1">
-        <v>6.665399</v>
+        <v>6.6653989999999999</v>
       </c>
       <c r="R20" s="1">
-        <v>1200.180000</v>
+        <v>1200.18</v>
       </c>
       <c r="S20" s="1">
-        <v>-128.650000</v>
+        <v>-128.65</v>
       </c>
       <c r="T20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U20" s="1">
-        <v>24005.952827</v>
+        <v>24005.952827000001</v>
       </c>
       <c r="V20" s="1">
-        <v>6.668320</v>
+        <v>6.6683199999999996</v>
       </c>
       <c r="W20" s="1">
-        <v>1207.330000</v>
+        <v>1207.33</v>
       </c>
       <c r="X20" s="1">
-        <v>-107.404000</v>
+        <v>-107.404</v>
       </c>
       <c r="Y20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z20" s="1">
-        <v>24016.174382</v>
+        <v>24016.174382000001</v>
       </c>
       <c r="AA20" s="1">
-        <v>6.671160</v>
+        <v>6.6711600000000004</v>
       </c>
       <c r="AB20" s="1">
-        <v>1214.520000</v>
+        <v>1214.52</v>
       </c>
       <c r="AC20" s="1">
-        <v>-89.930600</v>
+        <v>-89.930599999999998</v>
       </c>
       <c r="AD20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE20" s="1">
-        <v>24026.365216</v>
+        <v>24026.365215999998</v>
       </c>
       <c r="AF20" s="1">
-        <v>6.673990</v>
+        <v>6.6739899999999999</v>
       </c>
       <c r="AG20" s="1">
-        <v>1219.080000</v>
+        <v>1219.08</v>
       </c>
       <c r="AH20" s="1">
-        <v>-85.181900</v>
+        <v>-85.181899999999999</v>
       </c>
       <c r="AI20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ20" s="1">
-        <v>24036.595667</v>
+        <v>24036.595667000001</v>
       </c>
       <c r="AK20" s="1">
-        <v>6.676832</v>
+        <v>6.6768320000000001</v>
       </c>
       <c r="AL20" s="1">
-        <v>1225.880000</v>
+        <v>1225.8800000000001</v>
       </c>
       <c r="AM20" s="1">
-        <v>-88.211300</v>
+        <v>-88.211299999999994</v>
       </c>
       <c r="AN20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO20" s="1">
-        <v>24047.142598</v>
+        <v>24047.142597999999</v>
       </c>
       <c r="AP20" s="1">
-        <v>6.679762</v>
+        <v>6.6797620000000002</v>
       </c>
       <c r="AQ20" s="1">
-        <v>1233.610000</v>
+        <v>1233.6099999999999</v>
       </c>
       <c r="AR20" s="1">
-        <v>-99.804500</v>
+        <v>-99.804500000000004</v>
       </c>
       <c r="AS20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT20" s="1">
-        <v>24058.177126</v>
+        <v>24058.177125999999</v>
       </c>
       <c r="AU20" s="1">
-        <v>6.682827</v>
+        <v>6.6828269999999996</v>
       </c>
       <c r="AV20" s="1">
-        <v>1243.290000</v>
+        <v>1243.29</v>
       </c>
       <c r="AW20" s="1">
-        <v>-118.762000</v>
+        <v>-118.762</v>
       </c>
       <c r="AX20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY20" s="1">
-        <v>24069.222999</v>
+        <v>24069.222999000001</v>
       </c>
       <c r="AZ20" s="1">
-        <v>6.685895</v>
+        <v>6.6858950000000004</v>
       </c>
       <c r="BA20" s="1">
-        <v>1251.470000</v>
+        <v>1251.47</v>
       </c>
       <c r="BB20" s="1">
-        <v>-135.945000</v>
+        <v>-135.94499999999999</v>
       </c>
       <c r="BC20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD20" s="1">
-        <v>24080.232201</v>
+        <v>24080.232200999999</v>
       </c>
       <c r="BE20" s="1">
-        <v>6.688953</v>
+        <v>6.6889529999999997</v>
       </c>
       <c r="BF20" s="1">
-        <v>1290.790000</v>
+        <v>1290.79</v>
       </c>
       <c r="BG20" s="1">
-        <v>-216.908000</v>
+        <v>-216.90799999999999</v>
       </c>
       <c r="BH20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI20" s="1">
-        <v>24091.134266</v>
+        <v>24091.134266000001</v>
       </c>
       <c r="BJ20" s="1">
-        <v>6.691982</v>
+        <v>6.6919820000000003</v>
       </c>
       <c r="BK20" s="1">
-        <v>1358.810000</v>
+        <v>1358.81</v>
       </c>
       <c r="BL20" s="1">
-        <v>-351.875000</v>
+        <v>-351.875</v>
       </c>
       <c r="BM20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN20" s="1">
-        <v>24101.277949</v>
+        <v>24101.277948999999</v>
       </c>
       <c r="BO20" s="1">
-        <v>6.694799</v>
+        <v>6.6947989999999997</v>
       </c>
       <c r="BP20" s="1">
-        <v>1471.000000</v>
+        <v>1471</v>
       </c>
       <c r="BQ20" s="1">
-        <v>-571.876000</v>
+        <v>-571.87599999999998</v>
       </c>
       <c r="BR20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS20" s="1">
-        <v>24112.320878</v>
+        <v>24112.320877999999</v>
       </c>
       <c r="BT20" s="1">
-        <v>6.697867</v>
+        <v>6.6978669999999996</v>
       </c>
       <c r="BU20" s="1">
-        <v>1600.800000</v>
+        <v>1600.8</v>
       </c>
       <c r="BV20" s="1">
-        <v>-820.627000</v>
+        <v>-820.62699999999995</v>
       </c>
       <c r="BW20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX20" s="1">
-        <v>24123.253732</v>
+        <v>24123.253732000001</v>
       </c>
       <c r="BY20" s="1">
-        <v>6.700904</v>
+        <v>6.7009040000000004</v>
       </c>
       <c r="BZ20" s="1">
-        <v>1749.470000</v>
+        <v>1749.47</v>
       </c>
       <c r="CA20" s="1">
-        <v>-1091.400000</v>
+        <v>-1091.4000000000001</v>
       </c>
       <c r="CB20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC20" s="1">
         <v>24135.977594</v>
       </c>
       <c r="CD20" s="1">
-        <v>6.704438</v>
+        <v>6.7044379999999997</v>
       </c>
       <c r="CE20" s="1">
-        <v>2159.620000</v>
+        <v>2159.62</v>
       </c>
       <c r="CF20" s="1">
-        <v>-1750.010000</v>
+        <v>-1750.01</v>
       </c>
       <c r="CG20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:85">
       <c r="A21" s="1">
-        <v>23964.276978</v>
+        <v>23964.276978000002</v>
       </c>
       <c r="B21" s="1">
-        <v>6.656744</v>
+        <v>6.6567439999999998</v>
       </c>
       <c r="C21" s="1">
-        <v>1143.330000</v>
+        <v>1143.33</v>
       </c>
       <c r="D21" s="1">
-        <v>-260.129000</v>
+        <v>-260.12900000000002</v>
       </c>
       <c r="E21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F21" s="1">
-        <v>23974.711316</v>
+        <v>23974.711316000001</v>
       </c>
       <c r="G21" s="1">
-        <v>6.659642</v>
+        <v>6.6596419999999998</v>
       </c>
       <c r="H21" s="1">
-        <v>1164.250000</v>
+        <v>1164.25</v>
       </c>
       <c r="I21" s="1">
-        <v>-218.114000</v>
+        <v>-218.114</v>
       </c>
       <c r="J21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K21" s="1">
         <v>23985.228023</v>
       </c>
       <c r="L21" s="1">
-        <v>6.662563</v>
+        <v>6.6625629999999996</v>
       </c>
       <c r="M21" s="1">
-        <v>1192.330000</v>
+        <v>1192.33</v>
       </c>
       <c r="N21" s="1">
-        <v>-151.284000</v>
+        <v>-151.28399999999999</v>
       </c>
       <c r="O21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P21" s="1">
-        <v>23996.132569</v>
+        <v>23996.132569000001</v>
       </c>
       <c r="Q21" s="1">
-        <v>6.665592</v>
+        <v>6.6655920000000002</v>
       </c>
       <c r="R21" s="1">
-        <v>1200.120000</v>
+        <v>1200.1199999999999</v>
       </c>
       <c r="S21" s="1">
-        <v>-128.553000</v>
+        <v>-128.553</v>
       </c>
       <c r="T21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U21" s="1">
         <v>24006.296092</v>
       </c>
       <c r="V21" s="1">
-        <v>6.668416</v>
+        <v>6.6684159999999997</v>
       </c>
       <c r="W21" s="1">
-        <v>1207.350000</v>
+        <v>1207.3499999999999</v>
       </c>
       <c r="X21" s="1">
-        <v>-107.322000</v>
+        <v>-107.322</v>
       </c>
       <c r="Y21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z21" s="1">
-        <v>24016.519134</v>
+        <v>24016.519133999998</v>
       </c>
       <c r="AA21" s="1">
-        <v>6.671255</v>
+        <v>6.6712550000000004</v>
       </c>
       <c r="AB21" s="1">
-        <v>1214.590000</v>
+        <v>1214.5899999999999</v>
       </c>
       <c r="AC21" s="1">
-        <v>-90.014100</v>
+        <v>-90.014099999999999</v>
       </c>
       <c r="AD21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE21" s="1">
-        <v>24026.708416</v>
+        <v>24026.708416000001</v>
       </c>
       <c r="AF21" s="1">
         <v>6.674086</v>
       </c>
       <c r="AG21" s="1">
-        <v>1219.020000</v>
+        <v>1219.02</v>
       </c>
       <c r="AH21" s="1">
-        <v>-85.181000</v>
+        <v>-85.180999999999997</v>
       </c>
       <c r="AI21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ21" s="1">
         <v>24036.945346</v>
       </c>
       <c r="AK21" s="1">
-        <v>6.676929</v>
+        <v>6.6769290000000003</v>
       </c>
       <c r="AL21" s="1">
-        <v>1225.890000</v>
+        <v>1225.8900000000001</v>
       </c>
       <c r="AM21" s="1">
-        <v>-88.256000</v>
+        <v>-88.256</v>
       </c>
       <c r="AN21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO21" s="1">
         <v>24047.809748</v>
       </c>
       <c r="AP21" s="1">
-        <v>6.679947</v>
+        <v>6.6799470000000003</v>
       </c>
       <c r="AQ21" s="1">
-        <v>1233.610000</v>
+        <v>1233.6099999999999</v>
       </c>
       <c r="AR21" s="1">
-        <v>-99.820800</v>
+        <v>-99.820800000000006</v>
       </c>
       <c r="AS21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT21" s="1">
-        <v>24058.594726</v>
+        <v>24058.594725999999</v>
       </c>
       <c r="AU21" s="1">
-        <v>6.682943</v>
+        <v>6.6829429999999999</v>
       </c>
       <c r="AV21" s="1">
-        <v>1243.260000</v>
+        <v>1243.26</v>
       </c>
       <c r="AW21" s="1">
-        <v>-118.755000</v>
+        <v>-118.755</v>
       </c>
       <c r="AX21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY21" s="1">
-        <v>24069.612897</v>
+        <v>24069.612896999999</v>
       </c>
       <c r="AZ21" s="1">
-        <v>6.686004</v>
+        <v>6.6860039999999996</v>
       </c>
       <c r="BA21" s="1">
-        <v>1251.450000</v>
+        <v>1251.45</v>
       </c>
       <c r="BB21" s="1">
-        <v>-135.974000</v>
+        <v>-135.97399999999999</v>
       </c>
       <c r="BC21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD21" s="1">
-        <v>24080.817515</v>
+        <v>24080.817514999999</v>
       </c>
       <c r="BE21" s="1">
-        <v>6.689116</v>
+        <v>6.6891160000000003</v>
       </c>
       <c r="BF21" s="1">
-        <v>1290.550000</v>
+        <v>1290.55</v>
       </c>
       <c r="BG21" s="1">
-        <v>-216.859000</v>
+        <v>-216.85900000000001</v>
       </c>
       <c r="BH21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI21" s="1">
         <v>24091.512219</v>
       </c>
       <c r="BJ21" s="1">
-        <v>6.692087</v>
+        <v>6.6920869999999999</v>
       </c>
       <c r="BK21" s="1">
-        <v>1358.830000</v>
+        <v>1358.83</v>
       </c>
       <c r="BL21" s="1">
-        <v>-351.898000</v>
+        <v>-351.89800000000002</v>
       </c>
       <c r="BM21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN21" s="1">
-        <v>24101.676236</v>
+        <v>24101.676235999999</v>
       </c>
       <c r="BO21" s="1">
-        <v>6.694910</v>
+        <v>6.6949100000000001</v>
       </c>
       <c r="BP21" s="1">
-        <v>1471.000000</v>
+        <v>1471</v>
       </c>
       <c r="BQ21" s="1">
-        <v>-571.879000</v>
+        <v>-571.87900000000002</v>
       </c>
       <c r="BR21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS21" s="1">
-        <v>24112.749919</v>
+        <v>24112.749919000002</v>
       </c>
       <c r="BT21" s="1">
-        <v>6.697986</v>
+        <v>6.6979860000000002</v>
       </c>
       <c r="BU21" s="1">
-        <v>1600.610000</v>
+        <v>1600.61</v>
       </c>
       <c r="BV21" s="1">
-        <v>-820.860000</v>
+        <v>-820.86</v>
       </c>
       <c r="BW21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX21" s="1">
-        <v>24123.688687</v>
+        <v>24123.688687000002</v>
       </c>
       <c r="BY21" s="1">
-        <v>6.701025</v>
+        <v>6.7010249999999996</v>
       </c>
       <c r="BZ21" s="1">
-        <v>1749.310000</v>
+        <v>1749.31</v>
       </c>
       <c r="CA21" s="1">
-        <v>-1091.410000</v>
+        <v>-1091.4100000000001</v>
       </c>
       <c r="CB21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC21" s="1">
-        <v>24136.520688</v>
+        <v>24136.520688000001</v>
       </c>
       <c r="CD21" s="1">
-        <v>6.704589</v>
+        <v>6.7045890000000004</v>
       </c>
       <c r="CE21" s="1">
-        <v>2158.650000</v>
+        <v>2158.65</v>
       </c>
       <c r="CF21" s="1">
-        <v>-1751.300000</v>
+        <v>-1751.3</v>
       </c>
       <c r="CG21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:85">
       <c r="A22" s="1">
         <v>23964.617768</v>
       </c>
       <c r="B22" s="1">
-        <v>6.656838</v>
+        <v>6.6568379999999996</v>
       </c>
       <c r="C22" s="1">
-        <v>1143.390000</v>
+        <v>1143.3900000000001</v>
       </c>
       <c r="D22" s="1">
-        <v>-260.236000</v>
+        <v>-260.23599999999999</v>
       </c>
       <c r="E22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F22" s="1">
-        <v>23975.402777</v>
+        <v>23975.402776999999</v>
       </c>
       <c r="G22" s="1">
         <v>6.659834</v>
       </c>
       <c r="H22" s="1">
-        <v>1165.520000</v>
+        <v>1165.52</v>
       </c>
       <c r="I22" s="1">
-        <v>-217.952000</v>
+        <v>-217.952</v>
       </c>
       <c r="J22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K22" s="1">
         <v>23985.951686</v>
       </c>
       <c r="L22" s="1">
-        <v>6.662764</v>
+        <v>6.6627640000000001</v>
       </c>
       <c r="M22" s="1">
-        <v>1192.570000</v>
+        <v>1192.57</v>
       </c>
       <c r="N22" s="1">
-        <v>-150.982000</v>
+        <v>-150.982</v>
       </c>
       <c r="O22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P22" s="1">
-        <v>23996.477761</v>
+        <v>23996.477760999998</v>
       </c>
       <c r="Q22" s="1">
-        <v>6.665688</v>
+        <v>6.6656880000000003</v>
       </c>
       <c r="R22" s="1">
-        <v>1200.190000</v>
+        <v>1200.19</v>
       </c>
       <c r="S22" s="1">
-        <v>-128.526000</v>
+        <v>-128.52600000000001</v>
       </c>
       <c r="T22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U22" s="1">
-        <v>24006.638794</v>
+        <v>24006.638793999999</v>
       </c>
       <c r="V22" s="1">
-        <v>6.668511</v>
+        <v>6.6685109999999996</v>
       </c>
       <c r="W22" s="1">
-        <v>1207.330000</v>
+        <v>1207.33</v>
       </c>
       <c r="X22" s="1">
-        <v>-107.309000</v>
+        <v>-107.309</v>
       </c>
       <c r="Y22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z22" s="1">
-        <v>24016.866829</v>
+        <v>24016.866828999999</v>
       </c>
       <c r="AA22" s="1">
-        <v>6.671352</v>
+        <v>6.6713519999999997</v>
       </c>
       <c r="AB22" s="1">
-        <v>1214.510000</v>
+        <v>1214.51</v>
       </c>
       <c r="AC22" s="1">
-        <v>-89.972500</v>
+        <v>-89.972499999999997</v>
       </c>
       <c r="AD22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE22" s="1">
-        <v>24027.361151</v>
+        <v>24027.361151000001</v>
       </c>
       <c r="AF22" s="1">
-        <v>6.674267</v>
+        <v>6.6742670000000004</v>
       </c>
       <c r="AG22" s="1">
-        <v>1219.060000</v>
+        <v>1219.06</v>
       </c>
       <c r="AH22" s="1">
-        <v>-85.211800</v>
+        <v>-85.211799999999997</v>
       </c>
       <c r="AI22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ22" s="1">
-        <v>24037.608498</v>
+        <v>24037.608498000001</v>
       </c>
       <c r="AK22" s="1">
-        <v>6.677113</v>
+        <v>6.6771130000000003</v>
       </c>
       <c r="AL22" s="1">
-        <v>1225.900000</v>
+        <v>1225.9000000000001</v>
       </c>
       <c r="AM22" s="1">
-        <v>-88.197300</v>
+        <v>-88.197299999999998</v>
       </c>
       <c r="AN22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO22" s="1">
-        <v>24048.254131</v>
+        <v>24048.254131000002</v>
       </c>
       <c r="AP22" s="1">
-        <v>6.680071</v>
+        <v>6.6800709999999999</v>
       </c>
       <c r="AQ22" s="1">
-        <v>1233.590000</v>
+        <v>1233.5899999999999</v>
       </c>
       <c r="AR22" s="1">
-        <v>-99.767200</v>
+        <v>-99.767200000000003</v>
       </c>
       <c r="AS22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT22" s="1">
-        <v>24058.989045</v>
+        <v>24058.989044999998</v>
       </c>
       <c r="AU22" s="1">
-        <v>6.683053</v>
+        <v>6.6830530000000001</v>
       </c>
       <c r="AV22" s="1">
-        <v>1243.280000</v>
+        <v>1243.28</v>
       </c>
       <c r="AW22" s="1">
-        <v>-118.768000</v>
+        <v>-118.768</v>
       </c>
       <c r="AX22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY22" s="1">
         <v>24069.969975</v>
       </c>
       <c r="AZ22" s="1">
-        <v>6.686103</v>
+        <v>6.6861030000000001</v>
       </c>
       <c r="BA22" s="1">
-        <v>1251.480000</v>
+        <v>1251.48</v>
       </c>
       <c r="BB22" s="1">
-        <v>-135.959000</v>
+        <v>-135.959</v>
       </c>
       <c r="BC22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD22" s="1">
-        <v>24081.221720</v>
+        <v>24081.221720000001</v>
       </c>
       <c r="BE22" s="1">
         <v>6.689228</v>
       </c>
       <c r="BF22" s="1">
-        <v>1290.600000</v>
+        <v>1290.5999999999999</v>
       </c>
       <c r="BG22" s="1">
-        <v>-216.878000</v>
+        <v>-216.87799999999999</v>
       </c>
       <c r="BH22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI22" s="1">
-        <v>24091.898639</v>
+        <v>24091.898638999999</v>
       </c>
       <c r="BJ22" s="1">
-        <v>6.692194</v>
+        <v>6.6921939999999998</v>
       </c>
       <c r="BK22" s="1">
-        <v>1358.790000</v>
+        <v>1358.79</v>
       </c>
       <c r="BL22" s="1">
-        <v>-351.868000</v>
+        <v>-351.86799999999999</v>
       </c>
       <c r="BM22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN22" s="1">
-        <v>24102.095883</v>
+        <v>24102.095883000002</v>
       </c>
       <c r="BO22" s="1">
-        <v>6.695027</v>
+        <v>6.6950269999999996</v>
       </c>
       <c r="BP22" s="1">
-        <v>1470.970000</v>
+        <v>1470.97</v>
       </c>
       <c r="BQ22" s="1">
-        <v>-571.840000</v>
+        <v>-571.84</v>
       </c>
       <c r="BR22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS22" s="1">
-        <v>24113.164077</v>
+        <v>24113.164077000001</v>
       </c>
       <c r="BT22" s="1">
-        <v>6.698101</v>
+        <v>6.6981010000000003</v>
       </c>
       <c r="BU22" s="1">
-        <v>1600.400000</v>
+        <v>1600.4</v>
       </c>
       <c r="BV22" s="1">
-        <v>-821.024000</v>
+        <v>-821.024</v>
       </c>
       <c r="BW22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX22" s="1">
-        <v>24124.108304</v>
+        <v>24124.108304000001</v>
       </c>
       <c r="BY22" s="1">
-        <v>6.701141</v>
+        <v>6.7011409999999998</v>
       </c>
       <c r="BZ22" s="1">
-        <v>1749.380000</v>
+        <v>1749.38</v>
       </c>
       <c r="CA22" s="1">
-        <v>-1091.480000</v>
+        <v>-1091.48</v>
       </c>
       <c r="CB22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC22" s="1">
-        <v>24137.061337</v>
+        <v>24137.061336999999</v>
       </c>
       <c r="CD22" s="1">
         <v>6.704739</v>
       </c>
       <c r="CE22" s="1">
-        <v>2161.210000</v>
+        <v>2161.21</v>
       </c>
       <c r="CF22" s="1">
-        <v>-1750.680000</v>
+        <v>-1750.68</v>
       </c>
       <c r="CG22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:85">
       <c r="A23" s="1">
-        <v>23965.303729</v>
+        <v>23965.303728999999</v>
       </c>
       <c r="B23" s="1">
-        <v>6.657029</v>
+        <v>6.6570289999999996</v>
       </c>
       <c r="C23" s="1">
-        <v>1143.550000</v>
+        <v>1143.55</v>
       </c>
       <c r="D23" s="1">
-        <v>-260.105000</v>
+        <v>-260.10500000000002</v>
       </c>
       <c r="E23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F23" s="1">
-        <v>23975.748451</v>
+        <v>23975.748450999999</v>
       </c>
       <c r="G23" s="1">
-        <v>6.659930</v>
+        <v>6.6599300000000001</v>
       </c>
       <c r="H23" s="1">
-        <v>1164.990000</v>
+        <v>1164.99</v>
       </c>
       <c r="I23" s="1">
-        <v>-217.388000</v>
+        <v>-217.38800000000001</v>
       </c>
       <c r="J23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K23" s="1">
-        <v>23986.272565</v>
+        <v>23986.272564999999</v>
       </c>
       <c r="L23" s="1">
-        <v>6.662853</v>
+        <v>6.6628530000000001</v>
       </c>
       <c r="M23" s="1">
-        <v>1192.680000</v>
+        <v>1192.68</v>
       </c>
       <c r="N23" s="1">
-        <v>-151.143000</v>
+        <v>-151.143</v>
       </c>
       <c r="O23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P23" s="1">
-        <v>23996.828442</v>
+        <v>23996.828442000002</v>
       </c>
       <c r="Q23" s="1">
-        <v>6.665786</v>
+        <v>6.6657859999999998</v>
       </c>
       <c r="R23" s="1">
-        <v>1200.180000</v>
+        <v>1200.18</v>
       </c>
       <c r="S23" s="1">
-        <v>-128.522000</v>
+        <v>-128.52199999999999</v>
       </c>
       <c r="T23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U23" s="1">
-        <v>24007.293514</v>
+        <v>24007.293514000001</v>
       </c>
       <c r="V23" s="1">
-        <v>6.668693</v>
+        <v>6.6686930000000002</v>
       </c>
       <c r="W23" s="1">
-        <v>1207.320000</v>
+        <v>1207.32</v>
       </c>
       <c r="X23" s="1">
-        <v>-107.300000</v>
+        <v>-107.3</v>
       </c>
       <c r="Y23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z23" s="1">
-        <v>24017.522508</v>
+        <v>24017.522507999998</v>
       </c>
       <c r="AA23" s="1">
-        <v>6.671534</v>
+        <v>6.6715340000000003</v>
       </c>
       <c r="AB23" s="1">
-        <v>1214.620000</v>
+        <v>1214.6199999999999</v>
       </c>
       <c r="AC23" s="1">
-        <v>-89.904100</v>
+        <v>-89.9041</v>
       </c>
       <c r="AD23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE23" s="1">
-        <v>24027.738606</v>
+        <v>24027.738605999999</v>
       </c>
       <c r="AF23" s="1">
         <v>6.674372</v>
       </c>
       <c r="AG23" s="1">
-        <v>1219.120000</v>
+        <v>1219.1199999999999</v>
       </c>
       <c r="AH23" s="1">
-        <v>-85.197300</v>
+        <v>-85.197299999999998</v>
       </c>
       <c r="AI23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ23" s="1">
-        <v>24037.991655</v>
+        <v>24037.991655000002</v>
       </c>
       <c r="AK23" s="1">
-        <v>6.677220</v>
+        <v>6.6772200000000002</v>
       </c>
       <c r="AL23" s="1">
-        <v>1225.900000</v>
+        <v>1225.9000000000001</v>
       </c>
       <c r="AM23" s="1">
-        <v>-88.239100</v>
+        <v>-88.239099999999993</v>
       </c>
       <c r="AN23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO23" s="1">
         <v>24048.614242</v>
       </c>
       <c r="AP23" s="1">
-        <v>6.680171</v>
+        <v>6.6801709999999996</v>
       </c>
       <c r="AQ23" s="1">
-        <v>1233.600000</v>
+        <v>1233.5999999999999</v>
       </c>
       <c r="AR23" s="1">
-        <v>-99.828200</v>
+        <v>-99.828199999999995</v>
       </c>
       <c r="AS23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT23" s="1">
-        <v>24059.351622</v>
+        <v>24059.351621999998</v>
       </c>
       <c r="AU23" s="1">
-        <v>6.683153</v>
+        <v>6.6831529999999999</v>
       </c>
       <c r="AV23" s="1">
-        <v>1243.260000</v>
+        <v>1243.26</v>
       </c>
       <c r="AW23" s="1">
-        <v>-118.739000</v>
+        <v>-118.739</v>
       </c>
       <c r="AX23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY23" s="1">
-        <v>24070.328582</v>
+        <v>24070.328581999998</v>
       </c>
       <c r="AZ23" s="1">
-        <v>6.686202</v>
+        <v>6.6862019999999998</v>
       </c>
       <c r="BA23" s="1">
-        <v>1251.490000</v>
+        <v>1251.49</v>
       </c>
       <c r="BB23" s="1">
-        <v>-135.940000</v>
+        <v>-135.94</v>
       </c>
       <c r="BC23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD23" s="1">
-        <v>24081.644807</v>
+        <v>24081.644807000001</v>
       </c>
       <c r="BE23" s="1">
-        <v>6.689346</v>
+        <v>6.6893459999999996</v>
       </c>
       <c r="BF23" s="1">
-        <v>1290.560000</v>
+        <v>1290.56</v>
       </c>
       <c r="BG23" s="1">
-        <v>-216.864000</v>
+        <v>-216.864</v>
       </c>
       <c r="BH23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI23" s="1">
-        <v>24092.429818</v>
+        <v>24092.429818000001</v>
       </c>
       <c r="BJ23" s="1">
         <v>6.692342</v>
       </c>
       <c r="BK23" s="1">
-        <v>1358.830000</v>
+        <v>1358.83</v>
       </c>
       <c r="BL23" s="1">
-        <v>-351.921000</v>
+        <v>-351.92099999999999</v>
       </c>
       <c r="BM23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN23" s="1">
-        <v>24102.493185</v>
+        <v>24102.493184999999</v>
       </c>
       <c r="BO23" s="1">
-        <v>6.695137</v>
+        <v>6.6951369999999999</v>
       </c>
       <c r="BP23" s="1">
-        <v>1471.000000</v>
+        <v>1471</v>
       </c>
       <c r="BQ23" s="1">
-        <v>-571.831000</v>
+        <v>-571.83100000000002</v>
       </c>
       <c r="BR23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS23" s="1">
-        <v>24113.594109</v>
+        <v>24113.594109000001</v>
       </c>
       <c r="BT23" s="1">
-        <v>6.698221</v>
+        <v>6.6982210000000002</v>
       </c>
       <c r="BU23" s="1">
-        <v>1600.240000</v>
+        <v>1600.24</v>
       </c>
       <c r="BV23" s="1">
-        <v>-820.918000</v>
+        <v>-820.91800000000001</v>
       </c>
       <c r="BW23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX23" s="1">
-        <v>24124.530926</v>
+        <v>24124.530925999999</v>
       </c>
       <c r="BY23" s="1">
-        <v>6.701259</v>
+        <v>6.7012590000000003</v>
       </c>
       <c r="BZ23" s="1">
-        <v>1749.380000</v>
+        <v>1749.38</v>
       </c>
       <c r="CA23" s="1">
-        <v>-1091.420000</v>
+        <v>-1091.42</v>
       </c>
       <c r="CB23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC23" s="1">
-        <v>24137.601470</v>
+        <v>24137.601470000001</v>
       </c>
       <c r="CD23" s="1">
-        <v>6.704889</v>
+        <v>6.7048889999999997</v>
       </c>
       <c r="CE23" s="1">
-        <v>2158.790000</v>
+        <v>2158.79</v>
       </c>
       <c r="CF23" s="1">
-        <v>-1750.180000</v>
+        <v>-1750.18</v>
       </c>
       <c r="CG23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:85">
       <c r="A24" s="1">
-        <v>23965.646963</v>
+        <v>23965.646962999999</v>
       </c>
       <c r="B24" s="1">
-        <v>6.657124</v>
+        <v>6.6571239999999996</v>
       </c>
       <c r="C24" s="1">
-        <v>1143.460000</v>
+        <v>1143.46</v>
       </c>
       <c r="D24" s="1">
-        <v>-260.268000</v>
+        <v>-260.26799999999997</v>
       </c>
       <c r="E24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F24" s="1">
-        <v>23976.094162</v>
+        <v>23976.094162000001</v>
       </c>
       <c r="G24" s="1">
-        <v>6.660026</v>
+        <v>6.6600260000000002</v>
       </c>
       <c r="H24" s="1">
-        <v>1165.220000</v>
+        <v>1165.22</v>
       </c>
       <c r="I24" s="1">
-        <v>-218.173000</v>
+        <v>-218.173</v>
       </c>
       <c r="J24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K24" s="1">
-        <v>23986.921334</v>
+        <v>23986.921333999999</v>
       </c>
       <c r="L24" s="1">
-        <v>6.663034</v>
+        <v>6.6630339999999997</v>
       </c>
       <c r="M24" s="1">
-        <v>1192.410000</v>
+        <v>1192.4100000000001</v>
       </c>
       <c r="N24" s="1">
-        <v>-151.027000</v>
+        <v>-151.02699999999999</v>
       </c>
       <c r="O24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P24" s="1">
-        <v>23997.476694</v>
+        <v>23997.476694000001</v>
       </c>
       <c r="Q24" s="1">
-        <v>6.665966</v>
+        <v>6.6659660000000001</v>
       </c>
       <c r="R24" s="1">
-        <v>1200.230000</v>
+        <v>1200.23</v>
       </c>
       <c r="S24" s="1">
-        <v>-128.591000</v>
+        <v>-128.59100000000001</v>
       </c>
       <c r="T24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U24" s="1">
         <v>24007.668984</v>
       </c>
       <c r="V24" s="1">
-        <v>6.668797</v>
+        <v>6.6687969999999996</v>
       </c>
       <c r="W24" s="1">
-        <v>1207.340000</v>
+        <v>1207.3399999999999</v>
       </c>
       <c r="X24" s="1">
-        <v>-107.351000</v>
+        <v>-107.351</v>
       </c>
       <c r="Y24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z24" s="1">
-        <v>24017.926748</v>
+        <v>24017.926748000002</v>
       </c>
       <c r="AA24" s="1">
         <v>6.671646</v>
       </c>
       <c r="AB24" s="1">
-        <v>1214.310000</v>
+        <v>1214.31</v>
       </c>
       <c r="AC24" s="1">
-        <v>-89.839000</v>
+        <v>-89.838999999999999</v>
       </c>
       <c r="AD24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE24" s="1">
-        <v>24028.082861</v>
+        <v>24028.082860999999</v>
       </c>
       <c r="AF24" s="1">
-        <v>6.674467</v>
+        <v>6.6744669999999999</v>
       </c>
       <c r="AG24" s="1">
-        <v>1219.060000</v>
+        <v>1219.06</v>
       </c>
       <c r="AH24" s="1">
-        <v>-85.225600</v>
+        <v>-85.2256</v>
       </c>
       <c r="AI24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ24" s="1">
         <v>24038.340096</v>
       </c>
       <c r="AK24" s="1">
-        <v>6.677317</v>
+        <v>6.6773170000000004</v>
       </c>
       <c r="AL24" s="1">
-        <v>1225.890000</v>
+        <v>1225.8900000000001</v>
       </c>
       <c r="AM24" s="1">
-        <v>-88.215000</v>
+        <v>-88.215000000000003</v>
       </c>
       <c r="AN24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO24" s="1">
-        <v>24048.974818</v>
+        <v>24048.974817999999</v>
       </c>
       <c r="AP24" s="1">
-        <v>6.680271</v>
+        <v>6.6802710000000003</v>
       </c>
       <c r="AQ24" s="1">
-        <v>1233.590000</v>
+        <v>1233.5899999999999</v>
       </c>
       <c r="AR24" s="1">
-        <v>-99.770700</v>
+        <v>-99.770700000000005</v>
       </c>
       <c r="AS24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT24" s="1">
-        <v>24059.768260</v>
+        <v>24059.768260000001</v>
       </c>
       <c r="AU24" s="1">
-        <v>6.683269</v>
+        <v>6.6832690000000001</v>
       </c>
       <c r="AV24" s="1">
-        <v>1243.260000</v>
+        <v>1243.26</v>
       </c>
       <c r="AW24" s="1">
-        <v>-118.755000</v>
+        <v>-118.755</v>
       </c>
       <c r="AX24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY24" s="1">
-        <v>24070.751173</v>
+        <v>24070.751173000001</v>
       </c>
       <c r="AZ24" s="1">
-        <v>6.686320</v>
+        <v>6.6863200000000003</v>
       </c>
       <c r="BA24" s="1">
-        <v>1251.460000</v>
+        <v>1251.46</v>
       </c>
       <c r="BB24" s="1">
-        <v>-135.972000</v>
+        <v>-135.97200000000001</v>
       </c>
       <c r="BC24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD24" s="1">
-        <v>24081.977128</v>
+        <v>24081.977127999999</v>
       </c>
       <c r="BE24" s="1">
         <v>6.689438</v>
       </c>
       <c r="BF24" s="1">
-        <v>1290.560000</v>
+        <v>1290.56</v>
       </c>
       <c r="BG24" s="1">
-        <v>-216.878000</v>
+        <v>-216.87799999999999</v>
       </c>
       <c r="BH24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI24" s="1">
-        <v>24092.637145</v>
+        <v>24092.637145000001</v>
       </c>
       <c r="BJ24" s="1">
         <v>6.692399</v>
       </c>
       <c r="BK24" s="1">
-        <v>1358.800000</v>
+        <v>1358.8</v>
       </c>
       <c r="BL24" s="1">
-        <v>-351.872000</v>
+        <v>-351.87200000000001</v>
       </c>
       <c r="BM24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN24" s="1">
-        <v>24102.919210</v>
+        <v>24102.91921</v>
       </c>
       <c r="BO24" s="1">
-        <v>6.695255</v>
+        <v>6.6952550000000004</v>
       </c>
       <c r="BP24" s="1">
-        <v>1470.980000</v>
+        <v>1470.98</v>
       </c>
       <c r="BQ24" s="1">
-        <v>-571.830000</v>
+        <v>-571.83000000000004</v>
       </c>
       <c r="BR24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS24" s="1">
-        <v>24114.006780</v>
+        <v>24114.00678</v>
       </c>
       <c r="BT24" s="1">
-        <v>6.698335</v>
+        <v>6.6983350000000002</v>
       </c>
       <c r="BU24" s="1">
-        <v>1599.980000</v>
+        <v>1599.98</v>
       </c>
       <c r="BV24" s="1">
-        <v>-820.786000</v>
+        <v>-820.78599999999994</v>
       </c>
       <c r="BW24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX24" s="1">
-        <v>24124.984743</v>
+        <v>24124.984743000001</v>
       </c>
       <c r="BY24" s="1">
-        <v>6.701385</v>
+        <v>6.7013850000000001</v>
       </c>
       <c r="BZ24" s="1">
-        <v>1749.430000</v>
+        <v>1749.43</v>
       </c>
       <c r="CA24" s="1">
-        <v>-1091.440000</v>
+        <v>-1091.44</v>
       </c>
       <c r="CB24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC24" s="1">
-        <v>24138.139628</v>
+        <v>24138.139628000001</v>
       </c>
       <c r="CD24" s="1">
-        <v>6.705039</v>
+        <v>6.7050390000000002</v>
       </c>
       <c r="CE24" s="1">
-        <v>2159.630000</v>
+        <v>2159.63</v>
       </c>
       <c r="CF24" s="1">
-        <v>-1751.920000</v>
+        <v>-1751.92</v>
       </c>
       <c r="CG24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:85">
       <c r="A25" s="1">
         <v>23965.989201</v>
       </c>
       <c r="B25" s="1">
-        <v>6.657219</v>
+        <v>6.6572190000000004</v>
       </c>
       <c r="C25" s="1">
-        <v>1143.680000</v>
+        <v>1143.68</v>
       </c>
       <c r="D25" s="1">
-        <v>-260.235000</v>
+        <v>-260.23500000000001</v>
       </c>
       <c r="E25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F25" s="1">
         <v>23976.742961</v>
       </c>
       <c r="G25" s="1">
-        <v>6.660206</v>
+        <v>6.6602059999999996</v>
       </c>
       <c r="H25" s="1">
-        <v>1165.110000</v>
+        <v>1165.1099999999999</v>
       </c>
       <c r="I25" s="1">
-        <v>-217.719000</v>
+        <v>-217.71899999999999</v>
       </c>
       <c r="J25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K25" s="1">
         <v>23987.311716</v>
       </c>
       <c r="L25" s="1">
-        <v>6.663142</v>
+        <v>6.6631419999999997</v>
       </c>
       <c r="M25" s="1">
-        <v>1192.390000</v>
+        <v>1192.3900000000001</v>
       </c>
       <c r="N25" s="1">
-        <v>-150.828000</v>
+        <v>-150.828</v>
       </c>
       <c r="O25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P25" s="1">
         <v>23997.874517</v>
       </c>
       <c r="Q25" s="1">
-        <v>6.666076</v>
+        <v>6.6660760000000003</v>
       </c>
       <c r="R25" s="1">
-        <v>1200.160000</v>
+        <v>1200.1600000000001</v>
       </c>
       <c r="S25" s="1">
-        <v>-128.660000</v>
+        <v>-128.66</v>
       </c>
       <c r="T25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U25" s="1">
         <v>24008.012744</v>
       </c>
       <c r="V25" s="1">
-        <v>6.668892</v>
+        <v>6.6688919999999996</v>
       </c>
       <c r="W25" s="1">
-        <v>1207.260000</v>
+        <v>1207.26</v>
       </c>
       <c r="X25" s="1">
-        <v>-107.387000</v>
+        <v>-107.387</v>
       </c>
       <c r="Y25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z25" s="1">
-        <v>24018.267041</v>
+        <v>24018.267040999999</v>
       </c>
       <c r="AA25" s="1">
-        <v>6.671741</v>
+        <v>6.6717409999999999</v>
       </c>
       <c r="AB25" s="1">
-        <v>1214.620000</v>
+        <v>1214.6199999999999</v>
       </c>
       <c r="AC25" s="1">
-        <v>-89.841500</v>
+        <v>-89.841499999999996</v>
       </c>
       <c r="AD25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE25" s="1">
-        <v>24028.427587</v>
+        <v>24028.427586999998</v>
       </c>
       <c r="AF25" s="1">
         <v>6.674563</v>
       </c>
       <c r="AG25" s="1">
-        <v>1219.070000</v>
+        <v>1219.07</v>
       </c>
       <c r="AH25" s="1">
-        <v>-85.172700</v>
+        <v>-85.172700000000006</v>
       </c>
       <c r="AI25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ25" s="1">
-        <v>24038.688784</v>
+        <v>24038.688784000002</v>
       </c>
       <c r="AK25" s="1">
-        <v>6.677414</v>
+        <v>6.6774139999999997</v>
       </c>
       <c r="AL25" s="1">
-        <v>1225.920000</v>
+        <v>1225.92</v>
       </c>
       <c r="AM25" s="1">
-        <v>-88.218900</v>
+        <v>-88.218900000000005</v>
       </c>
       <c r="AN25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO25" s="1">
-        <v>24049.397442</v>
+        <v>24049.397442000001</v>
       </c>
       <c r="AP25" s="1">
-        <v>6.680388</v>
+        <v>6.6803879999999998</v>
       </c>
       <c r="AQ25" s="1">
-        <v>1233.600000</v>
+        <v>1233.5999999999999</v>
       </c>
       <c r="AR25" s="1">
-        <v>-99.784900</v>
+        <v>-99.784899999999993</v>
       </c>
       <c r="AS25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT25" s="1">
-        <v>24060.081235</v>
+        <v>24060.081235000001</v>
       </c>
       <c r="AU25" s="1">
-        <v>6.683356</v>
+        <v>6.6833559999999999</v>
       </c>
       <c r="AV25" s="1">
-        <v>1243.270000</v>
+        <v>1243.27</v>
       </c>
       <c r="AW25" s="1">
-        <v>-118.757000</v>
+        <v>-118.75700000000001</v>
       </c>
       <c r="AX25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY25" s="1">
-        <v>24071.047318</v>
+        <v>24071.047318000001</v>
       </c>
       <c r="AZ25" s="1">
-        <v>6.686402</v>
+        <v>6.6864020000000002</v>
       </c>
       <c r="BA25" s="1">
-        <v>1251.480000</v>
+        <v>1251.48</v>
       </c>
       <c r="BB25" s="1">
-        <v>-135.984000</v>
+        <v>-135.98400000000001</v>
       </c>
       <c r="BC25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD25" s="1">
-        <v>24082.336231</v>
+        <v>24082.336231000001</v>
       </c>
       <c r="BE25" s="1">
-        <v>6.689538</v>
+        <v>6.6895379999999998</v>
       </c>
       <c r="BF25" s="1">
-        <v>1290.600000</v>
+        <v>1290.5999999999999</v>
       </c>
       <c r="BG25" s="1">
-        <v>-216.861000</v>
+        <v>-216.86099999999999</v>
       </c>
       <c r="BH25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI25" s="1">
-        <v>24093.015133</v>
+        <v>24093.015133000001</v>
       </c>
       <c r="BJ25" s="1">
-        <v>6.692504</v>
+        <v>6.6925039999999996</v>
       </c>
       <c r="BK25" s="1">
-        <v>1358.800000</v>
+        <v>1358.8</v>
       </c>
       <c r="BL25" s="1">
-        <v>-351.893000</v>
+        <v>-351.89299999999997</v>
       </c>
       <c r="BM25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN25" s="1">
-        <v>24103.316042</v>
+        <v>24103.316041999999</v>
       </c>
       <c r="BO25" s="1">
-        <v>6.695366</v>
+        <v>6.6953659999999999</v>
       </c>
       <c r="BP25" s="1">
-        <v>1470.960000</v>
+        <v>1470.96</v>
       </c>
       <c r="BQ25" s="1">
-        <v>-571.858000</v>
+        <v>-571.85799999999995</v>
       </c>
       <c r="BR25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS25" s="1">
-        <v>24114.434829</v>
+        <v>24114.434829000002</v>
       </c>
       <c r="BT25" s="1">
-        <v>6.698454</v>
+        <v>6.6984539999999999</v>
       </c>
       <c r="BU25" s="1">
-        <v>1599.890000</v>
+        <v>1599.89</v>
       </c>
       <c r="BV25" s="1">
-        <v>-820.564000</v>
+        <v>-820.56399999999996</v>
       </c>
       <c r="BW25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX25" s="1">
         <v>24125.404349</v>
       </c>
       <c r="BY25" s="1">
-        <v>6.701501</v>
+        <v>6.7015010000000004</v>
       </c>
       <c r="BZ25" s="1">
-        <v>1749.410000</v>
+        <v>1749.41</v>
       </c>
       <c r="CA25" s="1">
-        <v>-1091.540000</v>
+        <v>-1091.54</v>
       </c>
       <c r="CB25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC25" s="1">
-        <v>24138.679771</v>
+        <v>24138.679770999999</v>
       </c>
       <c r="CD25" s="1">
-        <v>6.705189</v>
+        <v>6.7051889999999998</v>
       </c>
       <c r="CE25" s="1">
-        <v>2160.610000</v>
+        <v>2160.61</v>
       </c>
       <c r="CF25" s="1">
-        <v>-1749.870000</v>
+        <v>-1749.87</v>
       </c>
       <c r="CG25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:85">
       <c r="A26" s="1">
         <v>23966.632975</v>
       </c>
       <c r="B26" s="1">
-        <v>6.657398</v>
+        <v>6.6573979999999997</v>
       </c>
       <c r="C26" s="1">
-        <v>1143.500000</v>
+        <v>1143.5</v>
       </c>
       <c r="D26" s="1">
-        <v>-260.236000</v>
+        <v>-260.23599999999999</v>
       </c>
       <c r="E26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F26" s="1">
         <v>23977.124849</v>
       </c>
       <c r="G26" s="1">
-        <v>6.660312</v>
+        <v>6.6603120000000002</v>
       </c>
       <c r="H26" s="1">
-        <v>1165.240000</v>
+        <v>1165.24</v>
       </c>
       <c r="I26" s="1">
-        <v>-217.412000</v>
+        <v>-217.41200000000001</v>
       </c>
       <c r="J26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K26" s="1">
         <v>23987.655413</v>
       </c>
       <c r="L26" s="1">
-        <v>6.663238</v>
+        <v>6.6632379999999998</v>
       </c>
       <c r="M26" s="1">
-        <v>1192.950000</v>
+        <v>1192.95</v>
       </c>
       <c r="N26" s="1">
-        <v>-150.884000</v>
+        <v>-150.88399999999999</v>
       </c>
       <c r="O26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P26" s="1">
-        <v>23998.222183</v>
+        <v>23998.222183000002</v>
       </c>
       <c r="Q26" s="1">
-        <v>6.666173</v>
+        <v>6.6661729999999997</v>
       </c>
       <c r="R26" s="1">
-        <v>1200.160000</v>
+        <v>1200.1600000000001</v>
       </c>
       <c r="S26" s="1">
-        <v>-128.562000</v>
+        <v>-128.56200000000001</v>
       </c>
       <c r="T26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U26" s="1">
         <v>24008.356441</v>
       </c>
       <c r="V26" s="1">
-        <v>6.668988</v>
+        <v>6.6689879999999997</v>
       </c>
       <c r="W26" s="1">
-        <v>1207.380000</v>
+        <v>1207.3800000000001</v>
       </c>
       <c r="X26" s="1">
-        <v>-107.321000</v>
+        <v>-107.321</v>
       </c>
       <c r="Y26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z26" s="1">
-        <v>24018.615690</v>
+        <v>24018.615689999999</v>
       </c>
       <c r="AA26" s="1">
-        <v>6.671838</v>
+        <v>6.6718380000000002</v>
       </c>
       <c r="AB26" s="1">
-        <v>1214.560000</v>
+        <v>1214.56</v>
       </c>
       <c r="AC26" s="1">
-        <v>-89.975000</v>
+        <v>-89.974999999999994</v>
       </c>
       <c r="AD26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE26" s="1">
         <v>24028.848157</v>
       </c>
       <c r="AF26" s="1">
-        <v>6.674680</v>
+        <v>6.6746800000000004</v>
       </c>
       <c r="AG26" s="1">
-        <v>1219.050000</v>
+        <v>1219.05</v>
       </c>
       <c r="AH26" s="1">
-        <v>-85.258100</v>
+        <v>-85.258099999999999</v>
       </c>
       <c r="AI26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ26" s="1">
-        <v>24039.170409</v>
+        <v>24039.170408999998</v>
       </c>
       <c r="AK26" s="1">
-        <v>6.677547</v>
+        <v>6.6775469999999997</v>
       </c>
       <c r="AL26" s="1">
-        <v>1225.930000</v>
+        <v>1225.93</v>
       </c>
       <c r="AM26" s="1">
-        <v>-88.224600</v>
+        <v>-88.224599999999995</v>
       </c>
       <c r="AN26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO26" s="1">
         <v>24049.695539</v>
       </c>
       <c r="AP26" s="1">
-        <v>6.680471</v>
+        <v>6.6804709999999998</v>
       </c>
       <c r="AQ26" s="1">
-        <v>1233.600000</v>
+        <v>1233.5999999999999</v>
       </c>
       <c r="AR26" s="1">
-        <v>-99.803300</v>
+        <v>-99.803299999999993</v>
       </c>
       <c r="AS26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT26" s="1">
-        <v>24060.444307</v>
+        <v>24060.444307000002</v>
       </c>
       <c r="AU26" s="1">
-        <v>6.683457</v>
+        <v>6.6834569999999998</v>
       </c>
       <c r="AV26" s="1">
-        <v>1243.270000</v>
+        <v>1243.27</v>
       </c>
       <c r="AW26" s="1">
-        <v>-118.778000</v>
+        <v>-118.77800000000001</v>
       </c>
       <c r="AX26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY26" s="1">
         <v>24071.405218</v>
       </c>
       <c r="AZ26" s="1">
-        <v>6.686501</v>
+        <v>6.6865009999999998</v>
       </c>
       <c r="BA26" s="1">
-        <v>1251.500000</v>
+        <v>1251.5</v>
       </c>
       <c r="BB26" s="1">
-        <v>-135.945000</v>
+        <v>-135.94499999999999</v>
       </c>
       <c r="BC26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD26" s="1">
         <v>24082.695333</v>
       </c>
       <c r="BE26" s="1">
-        <v>6.689638</v>
+        <v>6.6896380000000004</v>
       </c>
       <c r="BF26" s="1">
-        <v>1290.550000</v>
+        <v>1290.55</v>
       </c>
       <c r="BG26" s="1">
-        <v>-216.844000</v>
+        <v>-216.84399999999999</v>
       </c>
       <c r="BH26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI26" s="1">
-        <v>24093.429295</v>
+        <v>24093.429295000002</v>
       </c>
       <c r="BJ26" s="1">
-        <v>6.692619</v>
+        <v>6.6926189999999997</v>
       </c>
       <c r="BK26" s="1">
-        <v>1358.770000</v>
+        <v>1358.77</v>
       </c>
       <c r="BL26" s="1">
-        <v>-351.904000</v>
+        <v>-351.904</v>
       </c>
       <c r="BM26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN26" s="1">
-        <v>24103.741611</v>
+        <v>24103.741611000001</v>
       </c>
       <c r="BO26" s="1">
-        <v>6.695484</v>
+        <v>6.6954840000000004</v>
       </c>
       <c r="BP26" s="1">
-        <v>1470.980000</v>
+        <v>1470.98</v>
       </c>
       <c r="BQ26" s="1">
-        <v>-571.849000</v>
+        <v>-571.84900000000005</v>
       </c>
       <c r="BR26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS26" s="1">
-        <v>24114.864859</v>
+        <v>24114.864859000001</v>
       </c>
       <c r="BT26" s="1">
-        <v>6.698574</v>
+        <v>6.6985739999999998</v>
       </c>
       <c r="BU26" s="1">
-        <v>1599.790000</v>
+        <v>1599.79</v>
       </c>
       <c r="BV26" s="1">
-        <v>-820.415000</v>
+        <v>-820.41499999999996</v>
       </c>
       <c r="BW26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX26" s="1">
         <v>24125.849757</v>
       </c>
       <c r="BY26" s="1">
-        <v>6.701625</v>
+        <v>6.7016249999999999</v>
       </c>
       <c r="BZ26" s="1">
-        <v>1749.480000</v>
+        <v>1749.48</v>
       </c>
       <c r="CA26" s="1">
-        <v>-1091.250000</v>
+        <v>-1091.25</v>
       </c>
       <c r="CB26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC26" s="1">
-        <v>24139.220411</v>
+        <v>24139.220410999998</v>
       </c>
       <c r="CD26" s="1">
-        <v>6.705339</v>
+        <v>6.7053390000000004</v>
       </c>
       <c r="CE26" s="1">
-        <v>2158.090000</v>
+        <v>2158.09</v>
       </c>
       <c r="CF26" s="1">
-        <v>-1750.720000</v>
+        <v>-1750.72</v>
       </c>
       <c r="CG26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>